--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF44EC56-CAE6-48A5-ACAA-4A3D25123854}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094C92A-D8E3-437E-85B0-CB5761BC4805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>Proyección Post-Quincena</t>
+  </si>
+  <si>
+    <t>Ingreso de monedas a alcancía</t>
+  </si>
+  <si>
+    <t>ahorro</t>
+  </si>
+  <si>
+    <t>Alcancía</t>
   </si>
 </sst>
 </file>
@@ -233,9 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -525,7 +535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,21 +550,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -629,11 +639,11 @@
         <v>170</v>
       </c>
       <c r="N4" s="2">
-        <f>SUM(K4:M4)</f>
+        <f t="shared" ref="N4:N10" si="0">SUM(K4:M4)</f>
         <v>9737.82</v>
       </c>
       <c r="O4" s="2">
-        <f>N4-4000</f>
+        <f t="shared" ref="O4:O11" si="1">N4-4000</f>
         <v>5737.82</v>
       </c>
     </row>
@@ -670,11 +680,11 @@
         <v>170</v>
       </c>
       <c r="N5">
-        <f>SUM(K5:M5)</f>
+        <f t="shared" si="0"/>
         <v>11845.82</v>
       </c>
       <c r="O5">
-        <f>N5-4000</f>
+        <f t="shared" si="1"/>
         <v>7845.82</v>
       </c>
     </row>
@@ -712,11 +722,11 @@
         <v>3370</v>
       </c>
       <c r="N6" s="2">
-        <f>SUM(K6:M6)</f>
+        <f t="shared" si="0"/>
         <v>11845.82</v>
       </c>
       <c r="O6" s="2">
-        <f>N6-4000</f>
+        <f t="shared" si="1"/>
         <v>7845.82</v>
       </c>
     </row>
@@ -753,11 +763,11 @@
         <v>120</v>
       </c>
       <c r="N7" s="2">
-        <f>SUM(K7:M7)</f>
+        <f t="shared" si="0"/>
         <v>8595.82</v>
       </c>
       <c r="O7" s="2">
-        <f>N7-4000</f>
+        <f t="shared" si="1"/>
         <v>4595.82</v>
       </c>
     </row>
@@ -795,11 +805,11 @@
         <v>120</v>
       </c>
       <c r="N8" s="2">
-        <f>SUM(K8:M8)</f>
+        <f t="shared" si="0"/>
         <v>8595.82</v>
       </c>
       <c r="O8" s="2">
-        <f>N8-4000</f>
+        <f t="shared" si="1"/>
         <v>4595.82</v>
       </c>
     </row>
@@ -836,11 +846,11 @@
         <v>95</v>
       </c>
       <c r="N9" s="2">
-        <f>SUM(K9:M9)</f>
+        <f t="shared" si="0"/>
         <v>8570.82</v>
       </c>
       <c r="O9" s="2">
-        <f>N9-4000</f>
+        <f t="shared" si="1"/>
         <v>4570.82</v>
       </c>
     </row>
@@ -877,16 +887,54 @@
         <v>95</v>
       </c>
       <c r="N10" s="2">
-        <f>SUM(K10:M10)</f>
+        <f t="shared" si="0"/>
         <v>8501.82</v>
       </c>
       <c r="O10" s="2">
-        <f>N10-4000</f>
+        <f t="shared" si="1"/>
         <v>4501.82</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>43526</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>8256.82</v>
+      </c>
+      <c r="L11">
+        <v>150</v>
+      </c>
+      <c r="M11">
+        <f>M10-B11</f>
+        <v>90</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" ref="N11" si="2">SUM(K11:M11)</f>
+        <v>8496.82</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>4496.82</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094C92A-D8E3-437E-85B0-CB5761BC4805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D3385-0AD7-4DFD-AE1A-3C358709A44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -194,6 +194,24 @@
   </si>
   <si>
     <t>Alcancía</t>
+  </si>
+  <si>
+    <t>Buffete de Carnes</t>
+  </si>
+  <si>
+    <t>Alianza Do Brazil</t>
+  </si>
+  <si>
+    <t>Contratación Plan AT&amp;T</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>Propina Buffete de Carnes</t>
   </si>
 </sst>
 </file>
@@ -242,9 +260,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -535,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,21 +569,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -935,14 +954,145 @@
         <f t="shared" si="1"/>
         <v>4496.82</v>
       </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B12">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12">
+        <f>K11-B12</f>
+        <v>8031.82</v>
+      </c>
+      <c r="L12">
+        <v>150</v>
+      </c>
+      <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" ref="N12" si="3">SUM(K12:M12)</f>
+        <v>8271.82</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" ref="O12" si="4">N12-4000</f>
+        <v>4271.82</v>
+      </c>
+      <c r="S12">
+        <v>5826</v>
+      </c>
+      <c r="T12">
+        <v>1500</v>
+      </c>
+      <c r="U12">
+        <f>S12-T12</f>
+        <v>4326</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13">
+        <f>K12-B13</f>
+        <v>7831.82</v>
+      </c>
+      <c r="L13">
+        <v>150</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" ref="N13" si="5">SUM(K13:M13)</f>
+        <v>8071.82</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" ref="O13" si="6">N13-4000</f>
+        <v>4071.8199999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>7831.82</v>
+      </c>
+      <c r="L14">
+        <v>150</v>
+      </c>
+      <c r="M14">
+        <f>M13-B14</f>
+        <v>70</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" ref="N14" si="7">SUM(K14:M14)</f>
+        <v>8051.82</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" ref="O14" si="8">N14-4000</f>
+        <v>4051.8199999999997</v>
+      </c>
       <c r="S14" t="s">
         <v>38</v>
       </c>
@@ -957,12 +1107,6 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" t="s">
-        <v>37</v>
-      </c>
       <c r="S15">
         <v>4501.82</v>
       </c>
@@ -974,21 +1118,11 @@
         <v>3551.8199999999997</v>
       </c>
       <c r="V15">
-        <f>U15+Q16</f>
+        <f>U15+U12</f>
         <v>7877.82</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O16">
-        <v>5826</v>
-      </c>
-      <c r="P16">
-        <v>1500</v>
-      </c>
-      <c r="Q16">
-        <f>O16-P16</f>
-        <v>4326</v>
-      </c>
       <c r="T16">
         <v>250</v>
       </c>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D3385-0AD7-4DFD-AE1A-3C358709A44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1AF0A9-58E5-4803-9FD4-5E513DCA2A91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Deudas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -212,6 +213,57 @@
   </si>
   <si>
     <t>Propina Buffete de Carnes</t>
+  </si>
+  <si>
+    <t>Renta 1er departamento</t>
+  </si>
+  <si>
+    <t>Depósito 1er departamento</t>
+  </si>
+  <si>
+    <t>1er Mes de Manutención</t>
+  </si>
+  <si>
+    <t>Renta 2do Departamento</t>
+  </si>
+  <si>
+    <t>Depósito 2do Departamento</t>
+  </si>
+  <si>
+    <t>Xbox One X</t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus</t>
+  </si>
+  <si>
+    <t>Deuda Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monto </t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>Deuda Rentas</t>
+  </si>
+  <si>
+    <t>Deuda Restante (Rentas)</t>
+  </si>
+  <si>
+    <t>Deuda Restante (Total)</t>
+  </si>
+  <si>
+    <t>TV Sharp 4K 50"</t>
+  </si>
+  <si>
+    <t>Estimado Meses restantes</t>
+  </si>
+  <si>
+    <t>Pago mensual</t>
+  </si>
+  <si>
+    <t>Pago de Recibo de Electricidad</t>
   </si>
 </sst>
 </file>
@@ -260,9 +312,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -552,9 +605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,21 +622,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -751,7 +804,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B7">
         <v>3250</v>
@@ -792,7 +845,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B8" s="2">
         <v>1599.46</v>
@@ -834,7 +887,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43526</v>
+        <v>43557</v>
       </c>
       <c r="B9" s="2">
         <v>25</v>
@@ -875,7 +928,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43526</v>
+        <v>43557</v>
       </c>
       <c r="B10" s="2">
         <v>69</v>
@@ -916,7 +969,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43526</v>
+        <v>43557</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -963,7 +1016,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43527</v>
+        <v>43558</v>
       </c>
       <c r="B12">
         <v>225</v>
@@ -1014,7 +1067,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43527</v>
+        <v>43558</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -1055,7 +1108,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43527</v>
+        <v>43558</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1107,19 +1160,58 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B15">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>7831.82</v>
+      </c>
+      <c r="L15">
+        <f>L14-B15</f>
+        <v>87</v>
+      </c>
+      <c r="M15">
+        <v>70</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" ref="N15" si="9">SUM(K15:M15)</f>
+        <v>7988.82</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" ref="O15" si="10">N15-4000</f>
+        <v>3988.8199999999997</v>
+      </c>
       <c r="S15">
-        <v>4501.82</v>
+        <v>3988.82</v>
       </c>
       <c r="T15">
         <v>250</v>
       </c>
       <c r="U15">
         <f>S15-T19</f>
-        <v>3551.8199999999997</v>
+        <v>3188.82</v>
       </c>
       <c r="V15">
         <f>U15+U12</f>
-        <v>7877.82</v>
+        <v>7514.82</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1129,7 +1221,7 @@
     </row>
     <row r="17" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T17">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="20:20" x14ac:dyDescent="0.25">
@@ -1140,7 +1232,7 @@
     <row r="19" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T19">
         <f>SUM(T15:T18)</f>
-        <v>950</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -1151,4 +1243,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D27017-4FBF-41C0-A2E3-E97A51044A46}">
+  <dimension ref="A2:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <f>SUM($B4:$B8)</f>
+        <v>15900</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2">
+        <f>IF((G2-SUM(J:J)) &lt;= 0,0,G2-SUM(J:J))</f>
+        <v>1000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B:B)</f>
+        <v>58483</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3">
+        <f>G3-SUM(J:J)</f>
+        <v>43583</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3">
+        <f>N3/Q2</f>
+        <v>14.527666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43422</v>
+      </c>
+      <c r="J4">
+        <v>2400</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43449</v>
+      </c>
+      <c r="J5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43462</v>
+      </c>
+      <c r="J6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4900</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43480</v>
+      </c>
+      <c r="J7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43496</v>
+      </c>
+      <c r="J8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>11759</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43511</v>
+      </c>
+      <c r="J9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>20324</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43524</v>
+      </c>
+      <c r="J10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10500</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43539</v>
+      </c>
+      <c r="J11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>43553</v>
+      </c>
+      <c r="J12">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1AF0A9-58E5-4803-9FD4-5E513DCA2A91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3300227C-A16F-484E-B51C-07E61771DFCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -264,6 +264,84 @@
   </si>
   <si>
     <t>Pago de Recibo de Electricidad</t>
+  </si>
+  <si>
+    <t>Galletas Emperador Chocolate</t>
+  </si>
+  <si>
+    <t>Golosinas</t>
+  </si>
+  <si>
+    <t>Tiendita</t>
+  </si>
+  <si>
+    <t>Gasolina - Diana Belén</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Derecho de Pizzo</t>
+  </si>
+  <si>
+    <t>Little Ceasars</t>
+  </si>
+  <si>
+    <t>Gasolinería Pemex</t>
+  </si>
+  <si>
+    <t>Pago de iPad</t>
+  </si>
+  <si>
+    <t>Pagos</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Refresco Manzana</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Despensa</t>
+  </si>
+  <si>
+    <t>Carne de Res</t>
+  </si>
+  <si>
+    <t>Soriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leche </t>
+  </si>
+  <si>
+    <t>Lomo de Cerdo</t>
+  </si>
+  <si>
+    <t>Pan Bimbo Integral</t>
+  </si>
+  <si>
+    <t>Pepino</t>
+  </si>
+  <si>
+    <t>Platano Chiapas</t>
+  </si>
+  <si>
+    <t>Sacapuntas</t>
+  </si>
+  <si>
+    <t>Papelería</t>
+  </si>
+  <si>
+    <t>Sal con Cebolla</t>
+  </si>
+  <si>
+    <t>Lavandería</t>
   </si>
 </sst>
 </file>
@@ -312,9 +390,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -603,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,21 +703,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1215,24 +1296,754 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <v>7831.82</v>
+      </c>
+      <c r="L16">
+        <v>87</v>
+      </c>
+      <c r="M16">
+        <f>M15-B16</f>
+        <v>57</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" ref="N16:N17" si="11">SUM(K16:M16)</f>
+        <v>7975.82</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" ref="O16:O17" si="12">N16-4000</f>
+        <v>3975.8199999999997</v>
+      </c>
       <c r="T16">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17">
+        <v>7831.82</v>
+      </c>
+      <c r="L17">
+        <v>87</v>
+      </c>
+      <c r="M17">
+        <f>M16+B17</f>
+        <v>257</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="11"/>
+        <v>8175.82</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>4175.82</v>
+      </c>
       <c r="T17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>7831.82</v>
+      </c>
+      <c r="L18">
+        <v>87</v>
+      </c>
+      <c r="M18">
+        <f>M17-B18</f>
+        <v>237</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" ref="N18" si="13">SUM(K18:M18)</f>
+        <v>8155.82</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" ref="O18" si="14">N18-4000</f>
+        <v>4155.82</v>
+      </c>
       <c r="T18">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19">
+        <v>7831.82</v>
+      </c>
+      <c r="L19">
+        <v>87</v>
+      </c>
+      <c r="M19">
+        <f>M18-B19</f>
+        <v>217</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" ref="N19" si="15">SUM(K19:M19)</f>
+        <v>8135.82</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" ref="O19" si="16">N19-4000</f>
+        <v>4135.82</v>
+      </c>
       <c r="T19">
         <f>SUM(T15:T18)</f>
         <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20">
+        <v>7831.82</v>
+      </c>
+      <c r="L20">
+        <v>87</v>
+      </c>
+      <c r="M20">
+        <f>M19-B20</f>
+        <v>17</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" ref="N20:N21" si="17">SUM(K20:M20)</f>
+        <v>7935.82</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" ref="O20:O21" si="18">N20-4000</f>
+        <v>3935.8199999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B21">
+        <v>600</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21">
+        <v>7831.82</v>
+      </c>
+      <c r="L21">
+        <v>87</v>
+      </c>
+      <c r="M21">
+        <f>M20+B21</f>
+        <v>617</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="17"/>
+        <v>8535.82</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="18"/>
+        <v>4535.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B22">
+        <v>242.52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22">
+        <f>K21-B22</f>
+        <v>7589.2999999999993</v>
+      </c>
+      <c r="L22">
+        <v>87</v>
+      </c>
+      <c r="M22">
+        <v>617</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" ref="N22" si="19">SUM(K22:M22)</f>
+        <v>8293.2999999999993</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" ref="O22" si="20">N22-4000</f>
+        <v>4293.2999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23">
+        <v>7589.3</v>
+      </c>
+      <c r="L23">
+        <f>L22-B23</f>
+        <v>61</v>
+      </c>
+      <c r="M23">
+        <v>617</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ref="N23" si="21">SUM(K23:M23)</f>
+        <v>8267.2999999999993</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" ref="O23" si="22">N23-4000</f>
+        <v>4267.2999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B24">
+        <v>56.92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K31" si="23">K23-B24</f>
+        <v>7532.38</v>
+      </c>
+      <c r="L24">
+        <v>61</v>
+      </c>
+      <c r="M24">
+        <v>617</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" ref="N24:N31" si="24">SUM(K24:M24)</f>
+        <v>8210.380000000001</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" ref="O24:O31" si="25">N24-4000</f>
+        <v>4210.380000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B25">
+        <v>22.25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="23"/>
+        <v>7510.13</v>
+      </c>
+      <c r="L25">
+        <v>61</v>
+      </c>
+      <c r="M25">
+        <v>617</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="24"/>
+        <v>8188.13</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="25"/>
+        <v>4188.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B26">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="23"/>
+        <v>7475.13</v>
+      </c>
+      <c r="L26">
+        <v>61</v>
+      </c>
+      <c r="M26">
+        <v>617</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="24"/>
+        <v>8153.13</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="25"/>
+        <v>4153.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B27">
+        <v>33.4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="23"/>
+        <v>7441.7300000000005</v>
+      </c>
+      <c r="L27">
+        <v>61</v>
+      </c>
+      <c r="M27">
+        <v>617</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="24"/>
+        <v>8119.7300000000005</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="25"/>
+        <v>4119.7300000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B28">
+        <v>17.36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="23"/>
+        <v>7424.3700000000008</v>
+      </c>
+      <c r="L28">
+        <v>61</v>
+      </c>
+      <c r="M28">
+        <v>617</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="24"/>
+        <v>8102.3700000000008</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="25"/>
+        <v>4102.3700000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B29">
+        <v>14.73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="23"/>
+        <v>7409.6400000000012</v>
+      </c>
+      <c r="L29">
+        <v>61</v>
+      </c>
+      <c r="M29">
+        <v>617</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="24"/>
+        <v>8087.6400000000012</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="25"/>
+        <v>4087.6400000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="23"/>
+        <v>7381.6400000000012</v>
+      </c>
+      <c r="L30">
+        <v>61</v>
+      </c>
+      <c r="M30">
+        <v>617</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="24"/>
+        <v>8059.6400000000012</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="25"/>
+        <v>4059.6400000000012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="23"/>
+        <v>7358.6400000000012</v>
+      </c>
+      <c r="L31">
+        <v>61</v>
+      </c>
+      <c r="M31">
+        <v>617</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="24"/>
+        <v>8036.6400000000012</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="25"/>
+        <v>4036.6400000000012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B32">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32">
+        <v>7358.64</v>
+      </c>
+      <c r="L32">
+        <v>61</v>
+      </c>
+      <c r="M32">
+        <f>M31-B32</f>
+        <v>552</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" ref="N32:N33" si="26">SUM(K32:M32)</f>
+        <v>7971.64</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" ref="O32:O33" si="27">N32-4000</f>
+        <v>3971.6400000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>7358.64</v>
+      </c>
+      <c r="L33">
+        <v>61</v>
+      </c>
+      <c r="M33">
+        <f>M32-B33</f>
+        <v>542</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="26"/>
+        <v>7961.64</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="27"/>
+        <v>3961.6400000000003</v>
       </c>
     </row>
   </sheetData>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3300227C-A16F-484E-B51C-07E61771DFCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FFA5F7-07F8-4991-8468-F39AFAF841A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>Lavandería</t>
+  </si>
+  <si>
+    <t>Total pagado</t>
+  </si>
+  <si>
+    <t>Prestamista</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
   </si>
 </sst>
 </file>
@@ -370,12 +382,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -390,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -400,6 +424,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -703,21 +730,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2058,11 +2085,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D27017-4FBF-41C0-A2E3-E97A51044A46}">
-  <dimension ref="A2:Q12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,6 +2098,15 @@
     <col min="16" max="16" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="11">
+        <f>SUM(J:J)</f>
+        <v>14900</v>
+      </c>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>61</v>
@@ -2103,6 +2139,9 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
       <c r="F3" t="s">
         <v>58</v>
       </c>
@@ -2122,7 +2161,7 @@
       <c r="M3" t="s">
         <v>63</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="10">
         <f>G3-SUM(J:J)</f>
         <v>43583</v>
       </c>
@@ -2141,6 +2180,9 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
       <c r="I4" s="1">
         <v>43422</v>
       </c>
@@ -2158,11 +2200,17 @@
       <c r="C5" t="s">
         <v>52</v>
       </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
       <c r="I5" s="1">
         <v>43449</v>
       </c>
       <c r="J5">
         <v>2000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2172,11 +2220,17 @@
       <c r="C6" t="s">
         <v>53</v>
       </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
       <c r="I6" s="1">
         <v>43462</v>
       </c>
       <c r="J6">
         <v>1500</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2186,11 +2240,17 @@
       <c r="C7" t="s">
         <v>54</v>
       </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
       <c r="I7" s="1">
         <v>43480</v>
       </c>
       <c r="J7">
         <v>1500</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2200,11 +2260,17 @@
       <c r="C8" t="s">
         <v>55</v>
       </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
       <c r="I8" s="1">
         <v>43496</v>
       </c>
       <c r="J8">
         <v>1500</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2214,11 +2280,17 @@
       <c r="C9" t="s">
         <v>56</v>
       </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
       <c r="I9" s="1">
         <v>43511</v>
       </c>
       <c r="J9">
         <v>1500</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2228,11 +2300,17 @@
       <c r="C10" t="s">
         <v>57</v>
       </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
       <c r="I10" s="1">
         <v>43524</v>
       </c>
       <c r="J10">
         <v>1500</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2242,11 +2320,17 @@
       <c r="C11" t="s">
         <v>64</v>
       </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
       <c r="I11" s="1">
         <v>43539</v>
       </c>
       <c r="J11">
         <v>1500</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2255,6 +2339,9 @@
       </c>
       <c r="J12">
         <v>1500</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FFA5F7-07F8-4991-8468-F39AFAF841A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A863F0-888B-4636-B20A-646D68800900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
     <sheet name="Deudas" sheetId="2" r:id="rId2"/>
+    <sheet name="Ahorros" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -354,6 +355,9 @@
   </si>
   <si>
     <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Cuenta de ahorro Intocable (Lo que debería estar como ahorro intocable)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -410,11 +414,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -427,6 +461,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,8 +750,8 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,21 +766,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2089,7 +2125,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2162,7 @@
         <v>66</v>
       </c>
       <c r="Q2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2170,7 +2206,7 @@
       </c>
       <c r="Q3">
         <f>N3/Q2</f>
-        <v>14.527666666666667</v>
+        <v>10.89575</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2347,4 +2383,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188E908-C67E-4904-B1C0-542BAD6863D7}">
+  <dimension ref="A2:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13">
+        <f>SUM(B:B)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43448</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43480</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43511</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43570</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A863F0-888B-4636-B20A-646D68800900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628D9A0-4A59-43C9-943A-D78318FE9F98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="100">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Cuenta de ahorro Intocable (Lo que debería estar como ahorro intocable)</t>
+  </si>
+  <si>
+    <t>Garrafón Ciel</t>
   </si>
 </sst>
 </file>
@@ -747,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,11 +2063,11 @@
         <v>552</v>
       </c>
       <c r="N32" s="8">
-        <f t="shared" ref="N32:N33" si="26">SUM(K32:M32)</f>
+        <f t="shared" ref="N32:N34" si="26">SUM(K32:M32)</f>
         <v>7971.64</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" ref="O32:O33" si="27">N32-4000</f>
+        <f t="shared" ref="O32:O34" si="27">N32-4000</f>
         <v>3971.6400000000003</v>
       </c>
     </row>
@@ -2107,6 +2110,47 @@
       <c r="O33">
         <f t="shared" si="27"/>
         <v>3961.6400000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34">
+        <v>7358.64</v>
+      </c>
+      <c r="L34">
+        <v>61</v>
+      </c>
+      <c r="M34">
+        <f>M33-B34</f>
+        <v>504</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="26"/>
+        <v>7923.64</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="27"/>
+        <v>3923.6400000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D27017-4FBF-41C0-A2E3-E97A51044A46}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628D9A0-4A59-43C9-943A-D78318FE9F98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8303950-97F6-4C80-8E76-CC85CDDE0121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>Garrafón Ciel</t>
+  </si>
+  <si>
+    <t>Licuado</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -466,6 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,11 +754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,21 +773,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2151,6 +2155,88 @@
       <c r="O34">
         <f t="shared" si="27"/>
         <v>3923.6400000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35">
+        <v>7358.64</v>
+      </c>
+      <c r="L35">
+        <f>L34-B35</f>
+        <v>46</v>
+      </c>
+      <c r="M35">
+        <v>504</v>
+      </c>
+      <c r="N35" s="14">
+        <f t="shared" ref="N35" si="28">SUM(K35:M35)</f>
+        <v>7908.64</v>
+      </c>
+      <c r="O35" s="14">
+        <f t="shared" ref="O35" si="29">N35-4000</f>
+        <v>3908.6400000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B36">
+        <v>13.5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36">
+        <v>7358.64</v>
+      </c>
+      <c r="L36">
+        <f>L35-B36</f>
+        <v>32.5</v>
+      </c>
+      <c r="M36">
+        <v>504</v>
+      </c>
+      <c r="N36" s="14">
+        <f t="shared" ref="N36" si="30">SUM(K36:M36)</f>
+        <v>7895.14</v>
+      </c>
+      <c r="O36" s="14">
+        <f t="shared" ref="O36" si="31">N36-4000</f>
+        <v>3895.1400000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2440,15 +2526,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8303950-97F6-4C80-8E76-CC85CDDE0121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD01C34A-D499-43AA-BE1A-CF5B0AF6B5FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="111">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -364,6 +364,36 @@
   </si>
   <si>
     <t>Licuado</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Cafetería</t>
+  </si>
+  <si>
+    <t>Estacionamiento Liverpool</t>
+  </si>
+  <si>
+    <t>Estacionamiento</t>
+  </si>
+  <si>
+    <t>Galerías Celaya</t>
+  </si>
+  <si>
+    <t>Estacionamiento Centro Celaya</t>
+  </si>
+  <si>
+    <t>Celaya Centro</t>
+  </si>
+  <si>
+    <t>Frappé Mexicano</t>
+  </si>
+  <si>
+    <t>Puerquito de Barro</t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -454,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -469,6 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -754,11 +785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,21 +804,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2237,6 +2268,252 @@
       <c r="O36" s="14">
         <f t="shared" ref="O36" si="31">N36-4000</f>
         <v>3895.1400000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B37">
+        <v>242.76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <f>K36-B37</f>
+        <v>7115.88</v>
+      </c>
+      <c r="L37">
+        <v>32.5</v>
+      </c>
+      <c r="M37">
+        <v>504</v>
+      </c>
+      <c r="N37" s="15">
+        <f t="shared" ref="N37:N38" si="32">SUM(K37:M37)</f>
+        <v>7652.38</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" ref="O37:O38" si="33">N37-4000</f>
+        <v>3652.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B38">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38">
+        <f>K37-B38</f>
+        <v>7035.88</v>
+      </c>
+      <c r="L38">
+        <v>32.5</v>
+      </c>
+      <c r="M38">
+        <v>504</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="32"/>
+        <v>7572.38</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="33"/>
+        <v>3572.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39">
+        <v>7035.88</v>
+      </c>
+      <c r="L39">
+        <v>32.5</v>
+      </c>
+      <c r="M39">
+        <f>M38-B39</f>
+        <v>492</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" ref="N39:N41" si="34">SUM(K39:M39)</f>
+        <v>7560.38</v>
+      </c>
+      <c r="O39" s="15">
+        <f t="shared" ref="O39:O41" si="35">N39-4000</f>
+        <v>3560.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40">
+        <v>7035.88</v>
+      </c>
+      <c r="L40">
+        <v>32.5</v>
+      </c>
+      <c r="M40">
+        <f>M39-B40</f>
+        <v>462</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="34"/>
+        <v>7530.38</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="35"/>
+        <v>3530.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41">
+        <v>7035.88</v>
+      </c>
+      <c r="L41">
+        <v>32.5</v>
+      </c>
+      <c r="M41">
+        <f>M40-B41</f>
+        <v>437</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="34"/>
+        <v>7505.38</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="35"/>
+        <v>3505.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42">
+        <v>7035.88</v>
+      </c>
+      <c r="L42">
+        <v>32.5</v>
+      </c>
+      <c r="M42">
+        <f>M41-B42</f>
+        <v>432</v>
+      </c>
+      <c r="N42" s="15">
+        <f t="shared" ref="N42" si="36">SUM(K42:M42)</f>
+        <v>7500.38</v>
+      </c>
+      <c r="O42" s="15">
+        <f t="shared" ref="O42" si="37">N42-4000</f>
+        <v>3500.38</v>
       </c>
     </row>
   </sheetData>
@@ -2526,15 +2803,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD01C34A-D499-43AA-BE1A-CF5B0AF6B5FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4163EE-4841-43C7-A6E8-BBF3AE829B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="125">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -394,6 +394,48 @@
   </si>
   <si>
     <t>Misc</t>
+  </si>
+  <si>
+    <t>Smooth (Espuma para Cabello)</t>
+  </si>
+  <si>
+    <t>Cuidado Personal</t>
+  </si>
+  <si>
+    <t>Farmacia Guadalajara</t>
+  </si>
+  <si>
+    <t>Dulces de Tamarindo</t>
+  </si>
+  <si>
+    <t>Crema Lubriderm</t>
+  </si>
+  <si>
+    <t>Talco Rexona</t>
+  </si>
+  <si>
+    <t>Propina Gasolinería</t>
+  </si>
+  <si>
+    <t>Honorarios Asimilados</t>
+  </si>
+  <si>
+    <t>Pago de Deudas</t>
+  </si>
+  <si>
+    <t>Gimnasio</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Proyección de Gastos a Esta Quincena</t>
+  </si>
+  <si>
+    <t>(Despensa Semanal) (20 de Abril)</t>
+  </si>
+  <si>
+    <t>(Despensa Semanal) (27 de Abril)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -499,6 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -785,11 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,24 +844,25 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2514,6 +2558,419 @@
       <c r="O42" s="15">
         <f t="shared" ref="O42" si="37">N42-4000</f>
         <v>3500.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B43">
+        <v>29.9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43">
+        <f>K42-B43</f>
+        <v>7005.9800000000005</v>
+      </c>
+      <c r="L43">
+        <v>32.5</v>
+      </c>
+      <c r="M43">
+        <v>432</v>
+      </c>
+      <c r="N43" s="16">
+        <f t="shared" ref="N43:N44" si="38">SUM(K43:M43)</f>
+        <v>7470.4800000000005</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" ref="O43:O44" si="39">N43-4000</f>
+        <v>3470.4800000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44">
+        <f>K43-B44</f>
+        <v>6987.9800000000005</v>
+      </c>
+      <c r="L44">
+        <v>32.5</v>
+      </c>
+      <c r="M44">
+        <v>432</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="38"/>
+        <v>7452.4800000000005</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="39"/>
+        <v>3452.4800000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B45">
+        <v>52.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45">
+        <f>K44-B45</f>
+        <v>6935.4800000000005</v>
+      </c>
+      <c r="L45">
+        <v>32.5</v>
+      </c>
+      <c r="M45">
+        <v>432</v>
+      </c>
+      <c r="N45" s="16">
+        <f t="shared" ref="N45:N46" si="40">SUM(K45:M45)</f>
+        <v>7399.9800000000005</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" ref="O45:O46" si="41">N45-4000</f>
+        <v>3399.9800000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B46">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K46">
+        <f>K45-B46</f>
+        <v>6884.4800000000005</v>
+      </c>
+      <c r="L46">
+        <v>32.5</v>
+      </c>
+      <c r="M46">
+        <v>432</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="40"/>
+        <v>7348.9800000000005</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="41"/>
+        <v>3348.9800000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B47">
+        <v>243</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>6884.48</v>
+      </c>
+      <c r="L47">
+        <v>32.5</v>
+      </c>
+      <c r="M47">
+        <f>M46-B47</f>
+        <v>189</v>
+      </c>
+      <c r="N47" s="16">
+        <f t="shared" ref="N47:N48" si="42">SUM(K47:M47)</f>
+        <v>7105.98</v>
+      </c>
+      <c r="O47" s="16">
+        <f t="shared" ref="O47:O48" si="43">N47-4000</f>
+        <v>3105.9799999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48">
+        <v>6884.48</v>
+      </c>
+      <c r="L48">
+        <v>32.5</v>
+      </c>
+      <c r="M48">
+        <f>M47-B48</f>
+        <v>181</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="42"/>
+        <v>7097.98</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="43"/>
+        <v>3097.9799999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B49">
+        <v>1871</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <v>6884.48</v>
+      </c>
+      <c r="L49">
+        <f>L48+B49</f>
+        <v>1903.5</v>
+      </c>
+      <c r="M49">
+        <v>181</v>
+      </c>
+      <c r="N49" s="16">
+        <f t="shared" ref="N49:N51" si="44">SUM(K49:M49)</f>
+        <v>8968.98</v>
+      </c>
+      <c r="O49" s="16">
+        <f t="shared" ref="O49:O51" si="45">N49-4000</f>
+        <v>4968.9799999999996</v>
+      </c>
+      <c r="S49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B50">
+        <v>2258</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50">
+        <v>6884.48</v>
+      </c>
+      <c r="L50">
+        <f>L49+B50</f>
+        <v>4161.5</v>
+      </c>
+      <c r="M50">
+        <v>181</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="44"/>
+        <v>11226.98</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="45"/>
+        <v>7226.98</v>
+      </c>
+      <c r="S50">
+        <f>O51-2000</f>
+        <v>6924.98</v>
+      </c>
+      <c r="T50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B51">
+        <v>1698</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>6884.48</v>
+      </c>
+      <c r="L51">
+        <f>L50+B51</f>
+        <v>5859.5</v>
+      </c>
+      <c r="M51">
+        <v>181</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="44"/>
+        <v>12924.98</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="45"/>
+        <v>8924.98</v>
+      </c>
+      <c r="S51">
+        <f>S50-500</f>
+        <v>6424.98</v>
+      </c>
+      <c r="T51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <f>S51-240</f>
+        <v>6184.98</v>
+      </c>
+      <c r="T52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <f>S52-250</f>
+        <v>5934.98</v>
+      </c>
+      <c r="T53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <f>S53-250</f>
+        <v>5684.98</v>
+      </c>
+      <c r="T54" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2530,9 +2987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D27017-4FBF-41C0-A2E3-E97A51044A46}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,21 +3254,21 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2826,7 +3283,7 @@
       </c>
       <c r="E4" s="13">
         <f>SUM(B:B)</f>
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2896,6 +3353,9 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43570</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4163EE-4841-43C7-A6E8-BBF3AE829B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFB451-5893-4807-AB4D-BA02995F3E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="130">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>(Despensa Semanal) (27 de Abril)</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>Cereal Special K</t>
+  </si>
+  <si>
+    <t>Huevo</t>
+  </si>
+  <si>
+    <t>Propina</t>
+  </si>
+  <si>
+    <t>Total Actual</t>
   </si>
 </sst>
 </file>
@@ -484,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -522,11 +537,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -545,9 +588,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,17 +875,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
@@ -848,21 +895,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2947,6 +2994,47 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B52">
+        <v>9.5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
+      </c>
+      <c r="K52">
+        <f>K51</f>
+        <v>6884.48</v>
+      </c>
+      <c r="L52">
+        <f>L51-B52</f>
+        <v>5850</v>
+      </c>
+      <c r="M52">
+        <f>M51</f>
+        <v>181</v>
+      </c>
+      <c r="N52" s="17">
+        <f t="shared" ref="N52:N53" si="46">SUM(K52:M52)</f>
+        <v>12915.48</v>
+      </c>
+      <c r="O52" s="17">
+        <f t="shared" ref="O52:O53" si="47">N52-4000</f>
+        <v>8915.48</v>
+      </c>
       <c r="S52">
         <f>S51-240</f>
         <v>6184.98</v>
@@ -2956,6 +3044,47 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B53">
+        <v>44.9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53">
+        <f>K52</f>
+        <v>6884.48</v>
+      </c>
+      <c r="L53">
+        <f>L52-B53</f>
+        <v>5805.1</v>
+      </c>
+      <c r="M53">
+        <f>M52</f>
+        <v>181</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="46"/>
+        <v>12870.58</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="47"/>
+        <v>8870.58</v>
+      </c>
       <c r="S53">
         <f>S52-250</f>
         <v>5934.98</v>
@@ -2965,12 +3094,174 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B54">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54">
+        <v>6884.48</v>
+      </c>
+      <c r="L54">
+        <f>L53-B54</f>
+        <v>5766.33</v>
+      </c>
+      <c r="M54">
+        <v>181</v>
+      </c>
+      <c r="N54" s="17">
+        <f t="shared" ref="N54:N55" si="48">SUM(K54:M54)</f>
+        <v>12831.81</v>
+      </c>
+      <c r="O54" s="17">
+        <f t="shared" ref="O54:O55" si="49">N54-4000</f>
+        <v>8831.81</v>
+      </c>
       <c r="S54">
         <f>S53-250</f>
         <v>5684.98</v>
       </c>
       <c r="T54" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55">
+        <v>6884.48</v>
+      </c>
+      <c r="L55">
+        <f>L54-B55</f>
+        <v>5744.33</v>
+      </c>
+      <c r="M55">
+        <v>181</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="48"/>
+        <v>12809.81</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="49"/>
+        <v>8809.81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56">
+        <v>6884.48</v>
+      </c>
+      <c r="L56">
+        <v>5744.33</v>
+      </c>
+      <c r="M56">
+        <f>M55-B56</f>
+        <v>175</v>
+      </c>
+      <c r="N56" s="17">
+        <f t="shared" ref="N56" si="50">SUM(K56:M56)</f>
+        <v>12803.81</v>
+      </c>
+      <c r="O56" s="17">
+        <f t="shared" ref="O56" si="51">N56-4000</f>
+        <v>8803.81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B57">
+        <v>2000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="K57">
+        <v>6884.48</v>
+      </c>
+      <c r="L57">
+        <f>L56-B57</f>
+        <v>3744.33</v>
+      </c>
+      <c r="M57">
+        <v>175</v>
+      </c>
+      <c r="N57" s="17">
+        <f t="shared" ref="N57" si="52">SUM(K57:M57)</f>
+        <v>10803.81</v>
+      </c>
+      <c r="O57" s="17">
+        <f t="shared" ref="O57" si="53">N57-4000</f>
+        <v>6803.8099999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2985,11 +3276,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D27017-4FBF-41C0-A2E3-E97A51044A46}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3295,7 @@
       </c>
       <c r="Q1" s="11">
         <f>SUM(J:J)</f>
-        <v>14900</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3020,7 +3311,7 @@
       </c>
       <c r="N2">
         <f>IF((G2-SUM(J:J)) &lt;= 0,0,G2-SUM(J:J))</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
         <v>66</v>
@@ -3063,14 +3354,14 @@
       </c>
       <c r="N3" s="10">
         <f>G3-SUM(J:J)</f>
-        <v>43583</v>
+        <v>41583</v>
       </c>
       <c r="P3" t="s">
         <v>65</v>
       </c>
       <c r="Q3">
         <f>N3/Q2</f>
-        <v>10.89575</v>
+        <v>10.39575</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3241,6 +3532,17 @@
         <v>1500</v>
       </c>
       <c r="K12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>43570</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3251,27 +3553,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188E908-C67E-4904-B1C0-542BAD6863D7}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -3285,8 +3587,17 @@
         <f>SUM(B:B)</f>
         <v>4500</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="20">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43448</v>
       </c>
@@ -3294,7 +3605,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43465</v>
       </c>
@@ -3302,7 +3613,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43480</v>
       </c>
@@ -3310,7 +3621,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43496</v>
       </c>
@@ -3318,7 +3629,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43511</v>
       </c>
@@ -3326,7 +3637,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43524</v>
       </c>
@@ -3334,7 +3645,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43539</v>
       </c>
@@ -3342,7 +3653,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43553</v>
       </c>
@@ -3350,7 +3661,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43570</v>
       </c>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFB451-5893-4807-AB4D-BA02995F3E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F4D80-8B0E-4046-AB0D-49A82E316633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="130">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -569,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -589,12 +589,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,11 +876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,21 +896,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3261,6 +3262,48 @@
       </c>
       <c r="O57" s="17">
         <f t="shared" ref="O57" si="53">N57-4000</f>
+        <v>6803.8099999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B58">
+        <v>1216.76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58">
+        <f>K57+B58</f>
+        <v>8101.24</v>
+      </c>
+      <c r="L58">
+        <f>L57-B58</f>
+        <v>2527.5699999999997</v>
+      </c>
+      <c r="M58">
+        <v>175</v>
+      </c>
+      <c r="N58" s="18">
+        <f t="shared" ref="N58" si="54">SUM(K58:M58)</f>
+        <v>10803.81</v>
+      </c>
+      <c r="O58" s="18">
+        <f t="shared" ref="O58" si="55">N58-4000</f>
         <v>6803.8099999999995</v>
       </c>
     </row>
@@ -3278,7 +3321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D27017-4FBF-41C0-A2E3-E97A51044A46}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
@@ -3556,21 +3599,21 @@
   <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3587,13 +3630,13 @@
         <f>SUM(B:B)</f>
         <v>4500</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>2000</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>43570</v>
       </c>
     </row>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F4D80-8B0E-4046-AB0D-49A82E316633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D762689-A248-4E06-9BB2-40BC2AC0EAE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>Total Actual</t>
+  </si>
+  <si>
+    <t>Botana-Cacahuates</t>
+  </si>
+  <si>
+    <t>Tarjeta banamex</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -592,6 +598,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -876,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
+      <selection pane="bottomLeft" activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,21 +903,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3305,6 +3312,47 @@
       <c r="O58" s="18">
         <f t="shared" ref="O58" si="55">N58-4000</f>
         <v>6803.8099999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59">
+        <f>K58-B59</f>
+        <v>8086.24</v>
+      </c>
+      <c r="L59">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M59">
+        <v>175</v>
+      </c>
+      <c r="N59" s="22">
+        <f t="shared" ref="N59" si="56">SUM(K59:M59)</f>
+        <v>10788.81</v>
+      </c>
+      <c r="O59" s="22">
+        <f t="shared" ref="O59" si="57">N59-4000</f>
+        <v>6788.8099999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3605,15 +3653,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D762689-A248-4E06-9BB2-40BC2AC0EAE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DAB726-EDA2-4473-BEB0-70EBF8009D9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="145">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -457,6 +457,45 @@
   </si>
   <si>
     <t>Tarjeta banamex</t>
+  </si>
+  <si>
+    <t>Boletos Cinemex</t>
+  </si>
+  <si>
+    <t>Ocio</t>
+  </si>
+  <si>
+    <t>Cinemex</t>
+  </si>
+  <si>
+    <t>Boleto Cinemex</t>
+  </si>
+  <si>
+    <t>Comida China</t>
+  </si>
+  <si>
+    <t>Via Alta</t>
+  </si>
+  <si>
+    <t>Pan Mil Hojas</t>
+  </si>
+  <si>
+    <t>Salamanca Centro</t>
+  </si>
+  <si>
+    <t>Tacos</t>
+  </si>
+  <si>
+    <t>Gasolina - Chore</t>
+  </si>
+  <si>
+    <t>Gasolina - Hugo</t>
+  </si>
+  <si>
+    <t>Propina - Limpiaparabrisas</t>
+  </si>
+  <si>
+    <t>Leon Centro</t>
   </si>
 </sst>
 </file>
@@ -575,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -598,6 +637,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -883,11 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q59" sqref="Q59"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,21 +943,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3201,7 +3241,7 @@
         <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -3347,12 +3387,504 @@
         <v>175</v>
       </c>
       <c r="N59" s="22">
-        <f t="shared" ref="N59" si="56">SUM(K59:M59)</f>
+        <f t="shared" ref="N59:N60" si="56">SUM(K59:M59)</f>
         <v>10788.81</v>
       </c>
       <c r="O59" s="22">
-        <f t="shared" ref="O59" si="57">N59-4000</f>
+        <f t="shared" ref="O59:O60" si="57">N59-4000</f>
         <v>6788.8099999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B60">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60">
+        <f>K59-B60</f>
+        <v>7900.24</v>
+      </c>
+      <c r="L60">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M60">
+        <v>175</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="56"/>
+        <v>10602.81</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="57"/>
+        <v>6602.8099999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B61">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61">
+        <v>7900.24</v>
+      </c>
+      <c r="L61">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M61">
+        <f>M60+B61</f>
+        <v>237</v>
+      </c>
+      <c r="N61" s="23">
+        <f t="shared" ref="N61:N63" si="58">SUM(K61:M61)</f>
+        <v>10664.81</v>
+      </c>
+      <c r="O61" s="23">
+        <f t="shared" ref="O61:O63" si="59">N61-4000</f>
+        <v>6664.8099999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B62">
+        <v>40</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K62">
+        <v>7900.24</v>
+      </c>
+      <c r="L62">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M62">
+        <f>M61+B62</f>
+        <v>277</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="58"/>
+        <v>10704.81</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="59"/>
+        <v>6704.8099999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B63">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>137</v>
+      </c>
+      <c r="K63">
+        <v>7900.24</v>
+      </c>
+      <c r="L63">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M63">
+        <f>M62-B63</f>
+        <v>194</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="58"/>
+        <v>10621.81</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="59"/>
+        <v>6621.8099999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>137</v>
+      </c>
+      <c r="K64">
+        <v>7900.24</v>
+      </c>
+      <c r="L64">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M64">
+        <f>M63-B64</f>
+        <v>174</v>
+      </c>
+      <c r="N64" s="23">
+        <f t="shared" ref="N64" si="60">SUM(K64:M64)</f>
+        <v>10601.81</v>
+      </c>
+      <c r="O64" s="23">
+        <f t="shared" ref="O64" si="61">N64-4000</f>
+        <v>6601.8099999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>139</v>
+      </c>
+      <c r="K65">
+        <v>7900.24</v>
+      </c>
+      <c r="L65">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M65">
+        <f>M64-B65</f>
+        <v>164</v>
+      </c>
+      <c r="N65" s="23">
+        <f t="shared" ref="N65" si="62">SUM(K65:M65)</f>
+        <v>10591.81</v>
+      </c>
+      <c r="O65" s="23">
+        <f t="shared" ref="O65" si="63">N65-4000</f>
+        <v>6591.8099999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>139</v>
+      </c>
+      <c r="K66">
+        <v>7900.24</v>
+      </c>
+      <c r="L66">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M66">
+        <f>M65-B66</f>
+        <v>144</v>
+      </c>
+      <c r="N66" s="23">
+        <f t="shared" ref="N66:N69" si="64">SUM(K66:M66)</f>
+        <v>10571.81</v>
+      </c>
+      <c r="O66" s="23">
+        <f t="shared" ref="O66:O69" si="65">N66-4000</f>
+        <v>6571.8099999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B67">
+        <v>102</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+      <c r="K67">
+        <v>7900.24</v>
+      </c>
+      <c r="L67">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M67">
+        <f>M66-B67</f>
+        <v>42</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="64"/>
+        <v>10469.81</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="65"/>
+        <v>6469.8099999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="K68">
+        <v>7900.24</v>
+      </c>
+      <c r="L68">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M68">
+        <f>M67+B68</f>
+        <v>92</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="64"/>
+        <v>10519.81</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="65"/>
+        <v>6519.8099999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>73</v>
+      </c>
+      <c r="K69">
+        <v>7900.24</v>
+      </c>
+      <c r="L69">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M69">
+        <f>M68+B69</f>
+        <v>192</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="64"/>
+        <v>10619.81</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="65"/>
+        <v>6619.8099999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K70">
+        <v>7900.24</v>
+      </c>
+      <c r="L70">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M70">
+        <f>M69-B70</f>
+        <v>182</v>
+      </c>
+      <c r="N70" s="23">
+        <f t="shared" ref="N70" si="66">SUM(K70:M70)</f>
+        <v>10609.81</v>
+      </c>
+      <c r="O70" s="23">
+        <f t="shared" ref="O70" si="67">N70-4000</f>
+        <v>6609.8099999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K71">
+        <v>7900.24</v>
+      </c>
+      <c r="L71">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M71">
+        <f>M70-B71</f>
+        <v>172</v>
+      </c>
+      <c r="N71" s="23">
+        <f t="shared" ref="N71" si="68">SUM(K71:M71)</f>
+        <v>10599.81</v>
+      </c>
+      <c r="O71" s="23">
+        <f t="shared" ref="O71" si="69">N71-4000</f>
+        <v>6599.8099999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3653,15 +4185,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DAB726-EDA2-4473-BEB0-70EBF8009D9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8285E82-9F48-476C-B47B-A6F03ACE96A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="158">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -496,6 +496,45 @@
   </si>
   <si>
     <t>Leon Centro</t>
+  </si>
+  <si>
+    <t>Gasolinería Mobil</t>
+  </si>
+  <si>
+    <t>Atún Dolores en Agua</t>
+  </si>
+  <si>
+    <t>Chorizo Casero</t>
+  </si>
+  <si>
+    <t>Pasta Dental Colgate</t>
+  </si>
+  <si>
+    <t>Higiene</t>
+  </si>
+  <si>
+    <t>Lata de Verduras Herdez</t>
+  </si>
+  <si>
+    <t>Frijoles con Chorizo</t>
+  </si>
+  <si>
+    <t>Huevo San Juan</t>
+  </si>
+  <si>
+    <t>Leche Santa Clara</t>
+  </si>
+  <si>
+    <t>Café Soluble Nescafe</t>
+  </si>
+  <si>
+    <t>Sopa La Moderna</t>
+  </si>
+  <si>
+    <t>Tortilla de Maiz</t>
+  </si>
+  <si>
+    <t>Plan AT&amp;T</t>
   </si>
 </sst>
 </file>
@@ -614,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -637,6 +676,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -923,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,21 +983,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3885,6 +3925,621 @@
       <c r="O71" s="23">
         <f t="shared" ref="O71" si="69">N71-4000</f>
         <v>6599.8099999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B72">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>145</v>
+      </c>
+      <c r="K72">
+        <v>7900.24</v>
+      </c>
+      <c r="L72">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M72">
+        <f>M71-B72</f>
+        <v>9</v>
+      </c>
+      <c r="N72" s="24">
+        <f t="shared" ref="N72" si="70">SUM(K72:M72)</f>
+        <v>10436.81</v>
+      </c>
+      <c r="O72" s="24">
+        <f t="shared" ref="O72" si="71">N72-4000</f>
+        <v>6436.8099999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B73">
+        <v>16.3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+      <c r="K73">
+        <f>K72-B73</f>
+        <v>7883.94</v>
+      </c>
+      <c r="L73">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M73">
+        <v>9</v>
+      </c>
+      <c r="N73" s="24">
+        <f t="shared" ref="N73" si="72">SUM(K73:M73)</f>
+        <v>10420.51</v>
+      </c>
+      <c r="O73" s="24">
+        <f t="shared" ref="O73" si="73">N73-4000</f>
+        <v>6420.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B74">
+        <v>13.9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>84</v>
+      </c>
+      <c r="K74">
+        <f>K73-B74</f>
+        <v>7870.04</v>
+      </c>
+      <c r="L74">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M74">
+        <v>9</v>
+      </c>
+      <c r="N74" s="24">
+        <f t="shared" ref="N74" si="74">SUM(K74:M74)</f>
+        <v>10406.61</v>
+      </c>
+      <c r="O74" s="24">
+        <f t="shared" ref="O74" si="75">N74-4000</f>
+        <v>6406.6100000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B75">
+        <v>31.25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+      <c r="K75">
+        <f>K74-B75</f>
+        <v>7838.79</v>
+      </c>
+      <c r="L75">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M75">
+        <v>9</v>
+      </c>
+      <c r="N75" s="24">
+        <f t="shared" ref="N75:N84" si="76">SUM(K75:M75)</f>
+        <v>10375.36</v>
+      </c>
+      <c r="O75" s="24">
+        <f t="shared" ref="O75:O84" si="77">N75-4000</f>
+        <v>6375.3600000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B76">
+        <v>43.28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="K76">
+        <f>K75-B76</f>
+        <v>7795.51</v>
+      </c>
+      <c r="L76">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M76">
+        <v>9</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="76"/>
+        <v>10332.08</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="77"/>
+        <v>6332.08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B77">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="K77">
+        <f>K76-B77</f>
+        <v>7782.51</v>
+      </c>
+      <c r="L77">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M77">
+        <v>9</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="76"/>
+        <v>10319.08</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="77"/>
+        <v>6319.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+      <c r="K78">
+        <f>K77-B78</f>
+        <v>7765.51</v>
+      </c>
+      <c r="L78">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M78">
+        <v>9</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="76"/>
+        <v>10302.08</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="77"/>
+        <v>6302.08</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B79">
+        <v>25.5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="K79">
+        <f>K78-B79</f>
+        <v>7740.01</v>
+      </c>
+      <c r="L79">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M79">
+        <v>9</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="76"/>
+        <v>10276.58</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="77"/>
+        <v>6276.58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B80">
+        <v>22.25</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>84</v>
+      </c>
+      <c r="K80">
+        <f>K79-B80</f>
+        <v>7717.76</v>
+      </c>
+      <c r="L80">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M80">
+        <v>9</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="76"/>
+        <v>10254.33</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="77"/>
+        <v>6254.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B81">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
+      <c r="K81">
+        <f>K80-B81</f>
+        <v>7637.8600000000006</v>
+      </c>
+      <c r="L81">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M81">
+        <v>9</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="76"/>
+        <v>10174.43</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="77"/>
+        <v>6174.43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B82">
+        <v>5.6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>84</v>
+      </c>
+      <c r="K82">
+        <f>K81-B82</f>
+        <v>7632.26</v>
+      </c>
+      <c r="L82">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M82">
+        <v>9</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="76"/>
+        <v>10168.83</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="77"/>
+        <v>6168.83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B83" s="24">
+        <v>5.6</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K83">
+        <f>K82-B83</f>
+        <v>7626.66</v>
+      </c>
+      <c r="L83">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M83">
+        <v>9</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="76"/>
+        <v>10163.23</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="77"/>
+        <v>6163.23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B84">
+        <v>24.75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>84</v>
+      </c>
+      <c r="K84">
+        <f>K83-B84</f>
+        <v>7601.91</v>
+      </c>
+      <c r="L84">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M84">
+        <v>9</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="76"/>
+        <v>10138.48</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="77"/>
+        <v>6138.48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="K85">
+        <v>7601.91</v>
+      </c>
+      <c r="L85">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M85">
+        <f>M84-B85</f>
+        <v>2</v>
+      </c>
+      <c r="N85" s="24">
+        <f t="shared" ref="N85" si="78">SUM(K85:M85)</f>
+        <v>10131.48</v>
+      </c>
+      <c r="O85" s="24">
+        <f t="shared" ref="O85" si="79">N85-4000</f>
+        <v>6131.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B86">
+        <v>240.07</v>
+      </c>
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>49</v>
+      </c>
+      <c r="K86">
+        <f>K85-B86</f>
+        <v>7361.84</v>
+      </c>
+      <c r="L86">
+        <v>2527.5700000000002</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86" s="24">
+        <f t="shared" ref="N86" si="80">SUM(K86:M86)</f>
+        <v>9891.41</v>
+      </c>
+      <c r="O86" s="24">
+        <f t="shared" ref="O86" si="81">N86-4000</f>
+        <v>5891.41</v>
       </c>
     </row>
   </sheetData>
@@ -4185,15 +4840,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8285E82-9F48-476C-B47B-A6F03ACE96A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6465D8-8B2E-4EFF-952F-0B7115E9024B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="160">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -535,13 +535,19 @@
   </si>
   <si>
     <t>Plan AT&amp;T</t>
+  </si>
+  <si>
+    <t>Disponible para Gastar</t>
+  </si>
+  <si>
+    <t>Churros de Harina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,8 +568,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +593,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -650,10 +668,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -680,11 +699,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -963,11 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R70" sqref="R70"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R88" sqref="R88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,21 +1006,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1035,6 +1058,9 @@
       </c>
       <c r="O3" t="s">
         <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -3991,7 +4017,7 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <f>K72-B73</f>
+        <f t="shared" ref="K73:K84" si="72">K72-B73</f>
         <v>7883.94</v>
       </c>
       <c r="L73">
@@ -4001,11 +4027,11 @@
         <v>9</v>
       </c>
       <c r="N73" s="24">
-        <f t="shared" ref="N73" si="72">SUM(K73:M73)</f>
+        <f t="shared" ref="N73" si="73">SUM(K73:M73)</f>
         <v>10420.51</v>
       </c>
       <c r="O73" s="24">
-        <f t="shared" ref="O73" si="73">N73-4000</f>
+        <f t="shared" ref="O73" si="74">N73-4000</f>
         <v>6420.51</v>
       </c>
     </row>
@@ -4032,7 +4058,7 @@
         <v>84</v>
       </c>
       <c r="K74">
-        <f>K73-B74</f>
+        <f t="shared" si="72"/>
         <v>7870.04</v>
       </c>
       <c r="L74">
@@ -4042,11 +4068,11 @@
         <v>9</v>
       </c>
       <c r="N74" s="24">
-        <f t="shared" ref="N74" si="74">SUM(K74:M74)</f>
+        <f t="shared" ref="N74" si="75">SUM(K74:M74)</f>
         <v>10406.61</v>
       </c>
       <c r="O74" s="24">
-        <f t="shared" ref="O74" si="75">N74-4000</f>
+        <f t="shared" ref="O74" si="76">N74-4000</f>
         <v>6406.6100000000006</v>
       </c>
     </row>
@@ -4073,7 +4099,7 @@
         <v>84</v>
       </c>
       <c r="K75">
-        <f>K74-B75</f>
+        <f t="shared" si="72"/>
         <v>7838.79</v>
       </c>
       <c r="L75">
@@ -4083,11 +4109,11 @@
         <v>9</v>
       </c>
       <c r="N75" s="24">
-        <f t="shared" ref="N75:N84" si="76">SUM(K75:M75)</f>
+        <f t="shared" ref="N75:N84" si="77">SUM(K75:M75)</f>
         <v>10375.36</v>
       </c>
       <c r="O75" s="24">
-        <f t="shared" ref="O75:O84" si="77">N75-4000</f>
+        <f t="shared" ref="O75:O84" si="78">N75-4000</f>
         <v>6375.3600000000006</v>
       </c>
     </row>
@@ -4114,7 +4140,7 @@
         <v>84</v>
       </c>
       <c r="K76">
-        <f>K75-B76</f>
+        <f t="shared" si="72"/>
         <v>7795.51</v>
       </c>
       <c r="L76">
@@ -4124,11 +4150,11 @@
         <v>9</v>
       </c>
       <c r="N76">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10332.08</v>
       </c>
       <c r="O76">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6332.08</v>
       </c>
     </row>
@@ -4155,7 +4181,7 @@
         <v>84</v>
       </c>
       <c r="K77">
-        <f>K76-B77</f>
+        <f t="shared" si="72"/>
         <v>7782.51</v>
       </c>
       <c r="L77">
@@ -4165,11 +4191,11 @@
         <v>9</v>
       </c>
       <c r="N77">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10319.08</v>
       </c>
       <c r="O77">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6319.08</v>
       </c>
     </row>
@@ -4196,7 +4222,7 @@
         <v>84</v>
       </c>
       <c r="K78">
-        <f>K77-B78</f>
+        <f t="shared" si="72"/>
         <v>7765.51</v>
       </c>
       <c r="L78">
@@ -4206,11 +4232,11 @@
         <v>9</v>
       </c>
       <c r="N78">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10302.08</v>
       </c>
       <c r="O78">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6302.08</v>
       </c>
     </row>
@@ -4237,7 +4263,7 @@
         <v>84</v>
       </c>
       <c r="K79">
-        <f>K78-B79</f>
+        <f t="shared" si="72"/>
         <v>7740.01</v>
       </c>
       <c r="L79">
@@ -4247,11 +4273,11 @@
         <v>9</v>
       </c>
       <c r="N79">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10276.58</v>
       </c>
       <c r="O79">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6276.58</v>
       </c>
     </row>
@@ -4278,7 +4304,7 @@
         <v>84</v>
       </c>
       <c r="K80">
-        <f>K79-B80</f>
+        <f t="shared" si="72"/>
         <v>7717.76</v>
       </c>
       <c r="L80">
@@ -4288,15 +4314,15 @@
         <v>9</v>
       </c>
       <c r="N80">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10254.33</v>
       </c>
       <c r="O80">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6254.33</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43575</v>
       </c>
@@ -4319,7 +4345,7 @@
         <v>84</v>
       </c>
       <c r="K81">
-        <f>K80-B81</f>
+        <f t="shared" si="72"/>
         <v>7637.8600000000006</v>
       </c>
       <c r="L81">
@@ -4329,15 +4355,15 @@
         <v>9</v>
       </c>
       <c r="N81">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10174.43</v>
       </c>
       <c r="O81">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6174.43</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43575</v>
       </c>
@@ -4360,7 +4386,7 @@
         <v>84</v>
       </c>
       <c r="K82">
-        <f>K81-B82</f>
+        <f t="shared" si="72"/>
         <v>7632.26</v>
       </c>
       <c r="L82">
@@ -4370,15 +4396,15 @@
         <v>9</v>
       </c>
       <c r="N82">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10168.83</v>
       </c>
       <c r="O82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6168.83</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43575</v>
       </c>
@@ -4401,7 +4427,7 @@
         <v>84</v>
       </c>
       <c r="K83">
-        <f>K82-B83</f>
+        <f t="shared" si="72"/>
         <v>7626.66</v>
       </c>
       <c r="L83">
@@ -4411,15 +4437,15 @@
         <v>9</v>
       </c>
       <c r="N83">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10163.23</v>
       </c>
       <c r="O83">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6163.23</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43575</v>
       </c>
@@ -4442,7 +4468,7 @@
         <v>84</v>
       </c>
       <c r="K84">
-        <f>K83-B84</f>
+        <f t="shared" si="72"/>
         <v>7601.91</v>
       </c>
       <c r="L84">
@@ -4452,15 +4478,15 @@
         <v>9</v>
       </c>
       <c r="N84">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10138.48</v>
       </c>
       <c r="O84">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6138.48</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43575</v>
       </c>
@@ -4493,15 +4519,15 @@
         <v>2</v>
       </c>
       <c r="N85" s="24">
-        <f t="shared" ref="N85" si="78">SUM(K85:M85)</f>
+        <f t="shared" ref="N85" si="79">SUM(K85:M85)</f>
         <v>10131.48</v>
       </c>
       <c r="O85" s="24">
-        <f t="shared" ref="O85" si="79">N85-4000</f>
+        <f t="shared" ref="O85" si="80">N85-4000</f>
         <v>6131.48</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43575</v>
       </c>
@@ -4534,12 +4560,102 @@
         <v>2</v>
       </c>
       <c r="N86" s="24">
-        <f t="shared" ref="N86" si="80">SUM(K86:M86)</f>
+        <f t="shared" ref="N86" si="81">SUM(K86:M86)</f>
         <v>9891.41</v>
       </c>
       <c r="O86" s="24">
-        <f t="shared" ref="O86" si="81">N86-4000</f>
+        <f t="shared" ref="O86" si="82">N86-4000</f>
         <v>5891.41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>93</v>
+      </c>
+      <c r="K87">
+        <v>7261.84</v>
+      </c>
+      <c r="L87">
+        <f>L86-B87</f>
+        <v>2442.5700000000002</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87" s="25">
+        <f t="shared" ref="N87" si="83">SUM(K87:M87)</f>
+        <v>9706.41</v>
+      </c>
+      <c r="O87" s="25">
+        <f t="shared" ref="O87" si="84">N87-4000</f>
+        <v>5706.41</v>
+      </c>
+      <c r="P87" s="27">
+        <f>O87-Ahorros!$E$4</f>
+        <v>1206.4099999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B88">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>84</v>
+      </c>
+      <c r="K88">
+        <f>K87-B88</f>
+        <v>7241.9400000000005</v>
+      </c>
+      <c r="L88">
+        <v>2442.5700000000002</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88" s="26">
+        <f t="shared" ref="N88" si="85">SUM(K88:M88)</f>
+        <v>9686.51</v>
+      </c>
+      <c r="O88" s="26">
+        <f t="shared" ref="O88" si="86">N88-4000</f>
+        <v>5686.51</v>
+      </c>
+      <c r="P88" s="27">
+        <f>O88-Ahorros!$E$4</f>
+        <v>1186.5100000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4840,15 +4956,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6465D8-8B2E-4EFF-952F-0B7115E9024B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C9D24B-55B7-4CD1-89D8-81F5CF2D4D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,8 +989,8 @@
   <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R88" sqref="R88"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,7 +4591,7 @@
         <v>93</v>
       </c>
       <c r="K87">
-        <v>7261.84</v>
+        <v>7361.84</v>
       </c>
       <c r="L87">
         <f>L86-B87</f>
@@ -4602,15 +4602,15 @@
       </c>
       <c r="N87" s="25">
         <f t="shared" ref="N87" si="83">SUM(K87:M87)</f>
-        <v>9706.41</v>
+        <v>9806.41</v>
       </c>
       <c r="O87" s="25">
         <f t="shared" ref="O87" si="84">N87-4000</f>
-        <v>5706.41</v>
+        <v>5806.41</v>
       </c>
       <c r="P87" s="27">
         <f>O87-Ahorros!$E$4</f>
-        <v>1206.4099999999999</v>
+        <v>1306.4099999999999</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="K88">
         <f>K87-B88</f>
-        <v>7241.9400000000005</v>
+        <v>7341.9400000000005</v>
       </c>
       <c r="L88">
         <v>2442.5700000000002</v>
@@ -4647,15 +4647,15 @@
       </c>
       <c r="N88" s="26">
         <f t="shared" ref="N88" si="85">SUM(K88:M88)</f>
-        <v>9686.51</v>
+        <v>9786.51</v>
       </c>
       <c r="O88" s="26">
         <f t="shared" ref="O88" si="86">N88-4000</f>
-        <v>5686.51</v>
+        <v>5786.51</v>
       </c>
       <c r="P88" s="27">
         <f>O88-Ahorros!$E$4</f>
-        <v>1186.5100000000002</v>
+        <v>1286.5100000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C9D24B-55B7-4CD1-89D8-81F5CF2D4D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F2BDA6-1E54-438D-97BB-03EBBF56EBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="164">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -541,6 +541,18 @@
   </si>
   <si>
     <t>Churros de Harina</t>
+  </si>
+  <si>
+    <t>Mes de Gimnasio</t>
+  </si>
+  <si>
+    <t>Mara Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca Cola </t>
+  </si>
+  <si>
+    <t>Oxxo</t>
   </si>
 </sst>
 </file>
@@ -672,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -701,6 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -986,11 +999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
+      <selection pane="bottomLeft" activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,21 +1019,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4646,16 +4659,106 @@
         <v>2</v>
       </c>
       <c r="N88" s="26">
-        <f t="shared" ref="N88" si="85">SUM(K88:M88)</f>
+        <f t="shared" ref="N88:N89" si="85">SUM(K88:M88)</f>
         <v>9786.51</v>
       </c>
       <c r="O88" s="26">
-        <f t="shared" ref="O88" si="86">N88-4000</f>
+        <f t="shared" ref="O88:O89" si="86">N88-4000</f>
         <v>5786.51</v>
       </c>
       <c r="P88" s="27">
         <f>O88-Ahorros!$E$4</f>
         <v>1286.5100000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B89">
+        <v>500</v>
+      </c>
+      <c r="C89" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>161</v>
+      </c>
+      <c r="K89">
+        <f>K88-B89</f>
+        <v>6841.9400000000005</v>
+      </c>
+      <c r="L89">
+        <v>2442.5700000000002</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="85"/>
+        <v>9286.51</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="86"/>
+        <v>5286.51</v>
+      </c>
+      <c r="P89" s="27">
+        <f>O89-Ahorros!$E$4</f>
+        <v>786.51000000000022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B90">
+        <v>13.5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>163</v>
+      </c>
+      <c r="K90">
+        <f>K89-B90</f>
+        <v>6828.4400000000005</v>
+      </c>
+      <c r="L90">
+        <v>2442.5700000000002</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90" s="28">
+        <f t="shared" ref="N90" si="87">SUM(K90:M90)</f>
+        <v>9273.01</v>
+      </c>
+      <c r="O90" s="28">
+        <f t="shared" ref="O90" si="88">N90-4000</f>
+        <v>5273.01</v>
+      </c>
+      <c r="P90" s="27">
+        <f>O90-Ahorros!$E$4</f>
+        <v>773.01000000000022</v>
       </c>
     </row>
   </sheetData>
@@ -4956,15 +5059,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F2BDA6-1E54-438D-97BB-03EBBF56EBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59A89A0-0FA0-4844-B35B-5E64F9E23220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="165">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>Oxxo</t>
+  </si>
+  <si>
+    <t>Burger King</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -713,6 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -999,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q90" sqref="Q90"/>
+      <selection pane="bottomLeft" activeCell="R91" sqref="R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,21 +1023,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4759,6 +4763,51 @@
       <c r="P90" s="27">
         <f>O90-Ahorros!$E$4</f>
         <v>773.01000000000022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B91">
+        <v>59</v>
+      </c>
+      <c r="C91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
+        <v>164</v>
+      </c>
+      <c r="K91">
+        <f>K90-B91</f>
+        <v>6769.4400000000005</v>
+      </c>
+      <c r="L91">
+        <v>2442.5700000000002</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91" s="29">
+        <f t="shared" ref="N91" si="89">SUM(K91:M91)</f>
+        <v>9214.01</v>
+      </c>
+      <c r="O91" s="29">
+        <f t="shared" ref="O91" si="90">N91-4000</f>
+        <v>5214.01</v>
+      </c>
+      <c r="P91" s="27">
+        <f>O91-Ahorros!$E$4</f>
+        <v>714.01000000000022</v>
       </c>
     </row>
   </sheetData>
@@ -5059,15 +5108,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59A89A0-0FA0-4844-B35B-5E64F9E23220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EA56A2-25FB-443B-8C12-5B52E4841796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="167">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>Burger King</t>
+  </si>
+  <si>
+    <t>Pago de Axtel</t>
+  </si>
+  <si>
+    <t>Axtel</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -716,6 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1003,11 +1010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R91" sqref="R91"/>
+      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,21 +1030,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4808,6 +4815,96 @@
       <c r="P91" s="27">
         <f>O91-Ahorros!$E$4</f>
         <v>714.01000000000022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B92">
+        <v>429</v>
+      </c>
+      <c r="C92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
+        <v>166</v>
+      </c>
+      <c r="K92">
+        <v>6769.44</v>
+      </c>
+      <c r="L92">
+        <f>L91-B92</f>
+        <v>2013.5700000000002</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92" s="30">
+        <f t="shared" ref="N92:N93" si="91">SUM(K92:M92)</f>
+        <v>8785.01</v>
+      </c>
+      <c r="O92" s="30">
+        <f t="shared" ref="O92:O93" si="92">N92-4000</f>
+        <v>4785.01</v>
+      </c>
+      <c r="P92" s="27">
+        <f>O92-Ahorros!$E$4</f>
+        <v>285.01000000000022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B93">
+        <v>285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="K93">
+        <v>6769.44</v>
+      </c>
+      <c r="L93">
+        <f>L92+B93</f>
+        <v>2298.5700000000002</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="91"/>
+        <v>9070.01</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="92"/>
+        <v>5070.01</v>
+      </c>
+      <c r="P93" s="27">
+        <f>O93-Ahorros!$E$4</f>
+        <v>570.01000000000022</v>
       </c>
     </row>
   </sheetData>
@@ -5108,15 +5205,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EA56A2-25FB-443B-8C12-5B52E4841796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B397696-BC45-42C7-87BC-7DD5D91FAB33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="169">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Axtel</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galletas </t>
   </si>
 </sst>
 </file>
@@ -693,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -722,6 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1010,11 +1017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P93" sqref="P93"/>
+      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,21 +1037,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4905,6 +4912,141 @@
       <c r="P93" s="27">
         <f>O93-Ahorros!$E$4</f>
         <v>570.01000000000022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>81</v>
+      </c>
+      <c r="K94">
+        <f>K93-B94</f>
+        <v>6756.44</v>
+      </c>
+      <c r="L94">
+        <v>2298.5700000000002</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94" s="31">
+        <f t="shared" ref="N94:N95" si="93">SUM(K94:M94)</f>
+        <v>9057.01</v>
+      </c>
+      <c r="O94" s="31">
+        <f t="shared" ref="O94:O95" si="94">N94-4000</f>
+        <v>5057.01</v>
+      </c>
+      <c r="P94" s="27">
+        <f>O94-Ahorros!$E$4</f>
+        <v>557.01000000000022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="K95">
+        <f>K94-B95</f>
+        <v>6556.44</v>
+      </c>
+      <c r="L95">
+        <v>2298.5700000000002</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="93"/>
+        <v>8857.01</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="94"/>
+        <v>4857.01</v>
+      </c>
+      <c r="P95" s="27">
+        <f>O95-Ahorros!$E$4</f>
+        <v>357.01000000000022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B96">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s">
+        <v>81</v>
+      </c>
+      <c r="K96">
+        <v>6556.44</v>
+      </c>
+      <c r="L96">
+        <f>L95-B96</f>
+        <v>2274.5700000000002</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96" s="31">
+        <f t="shared" ref="N96" si="95">SUM(K96:M96)</f>
+        <v>8833.01</v>
+      </c>
+      <c r="O96" s="31">
+        <f t="shared" ref="O96" si="96">N96-4000</f>
+        <v>4833.01</v>
+      </c>
+      <c r="P96" s="27">
+        <f>O96-Ahorros!$E$4</f>
+        <v>333.01000000000022</v>
       </c>
     </row>
   </sheetData>
@@ -5205,15 +5347,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B397696-BC45-42C7-87BC-7DD5D91FAB33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C0464F-8B37-4DED-BAC6-E38C56961931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="179">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -568,6 +568,36 @@
   </si>
   <si>
     <t xml:space="preserve">Galletas </t>
+  </si>
+  <si>
+    <t>Sangría</t>
+  </si>
+  <si>
+    <t>Pastes Kikos</t>
+  </si>
+  <si>
+    <t>Retiro de Banco Banamex</t>
+  </si>
+  <si>
+    <t>ATM Banamex</t>
+  </si>
+  <si>
+    <t>Avengers - Endgame</t>
+  </si>
+  <si>
+    <t>Estacionamiento Plaza Mayor</t>
+  </si>
+  <si>
+    <t>Plaza Mayor</t>
+  </si>
+  <si>
+    <t>Propina Soriana</t>
+  </si>
+  <si>
+    <t>Ahorro en Alcancía</t>
+  </si>
+  <si>
+    <t>Ahorro</t>
   </si>
 </sst>
 </file>
@@ -699,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -728,6 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1017,11 +1048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R96" sqref="R96"/>
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,21 +1068,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5009,13 +5040,13 @@
         <v>43581</v>
       </c>
       <c r="B96">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
         <v>168</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
         <v>22</v>
@@ -5031,22 +5062,407 @@
       </c>
       <c r="L96">
         <f>L95-B96</f>
-        <v>2274.5700000000002</v>
+        <v>2283.5700000000002</v>
       </c>
       <c r="M96">
         <v>2</v>
       </c>
       <c r="N96" s="31">
-        <f t="shared" ref="N96" si="95">SUM(K96:M96)</f>
-        <v>8833.01</v>
+        <f t="shared" ref="N96:N99" si="95">SUM(K96:M96)</f>
+        <v>8842.01</v>
       </c>
       <c r="O96" s="31">
-        <f t="shared" ref="O96" si="96">N96-4000</f>
-        <v>4833.01</v>
+        <f t="shared" ref="O96:O99" si="96">N96-4000</f>
+        <v>4842.01</v>
       </c>
       <c r="P96" s="27">
         <f>O96-Ahorros!$E$4</f>
-        <v>333.01000000000022</v>
+        <v>342.01000000000022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B97">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>163</v>
+      </c>
+      <c r="K97">
+        <v>6556.44</v>
+      </c>
+      <c r="L97">
+        <f>L96-B97</f>
+        <v>2270.5700000000002</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="95"/>
+        <v>8829.01</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="96"/>
+        <v>4829.01</v>
+      </c>
+      <c r="P97" s="27">
+        <f>O97-Ahorros!$E$4</f>
+        <v>329.01000000000022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>163</v>
+      </c>
+      <c r="K98">
+        <v>6556.44</v>
+      </c>
+      <c r="L98" s="32">
+        <f t="shared" ref="L98:L99" si="97">L97-B98</f>
+        <v>2260.5700000000002</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="95"/>
+        <v>8819.01</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="96"/>
+        <v>4819.01</v>
+      </c>
+      <c r="P98" s="27">
+        <f>O98-Ahorros!$E$4</f>
+        <v>319.01000000000022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>34</v>
+      </c>
+      <c r="C99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s">
+        <v>170</v>
+      </c>
+      <c r="K99">
+        <v>6556.44</v>
+      </c>
+      <c r="L99" s="32">
+        <f t="shared" si="97"/>
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="95"/>
+        <v>8785.01</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="96"/>
+        <v>4785.01</v>
+      </c>
+      <c r="P99" s="27">
+        <f>O99-Ahorros!$E$4</f>
+        <v>285.01000000000022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B100">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>93</v>
+      </c>
+      <c r="K100">
+        <f>K99-B100</f>
+        <v>6491.44</v>
+      </c>
+      <c r="L100">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100" s="32">
+        <f t="shared" ref="N100:N101" si="98">SUM(K100:M100)</f>
+        <v>8720.01</v>
+      </c>
+      <c r="O100" s="32">
+        <f t="shared" ref="O100:O101" si="99">N100-4000</f>
+        <v>4720.01</v>
+      </c>
+      <c r="P100" s="27">
+        <f>O100-Ahorros!$E$4</f>
+        <v>220.01000000000022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>172</v>
+      </c>
+      <c r="K101">
+        <f>K100-B101</f>
+        <v>6291.44</v>
+      </c>
+      <c r="L101">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M101">
+        <f>M100+B101</f>
+        <v>202</v>
+      </c>
+      <c r="N101" s="32">
+        <f t="shared" si="98"/>
+        <v>8720.01</v>
+      </c>
+      <c r="O101" s="32">
+        <f t="shared" si="99"/>
+        <v>4720.01</v>
+      </c>
+      <c r="P101" s="27">
+        <f>O101-Ahorros!$E$4</f>
+        <v>220.01000000000022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>94</v>
+      </c>
+      <c r="C102" t="s">
+        <v>173</v>
+      </c>
+      <c r="D102" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" t="s">
+        <v>134</v>
+      </c>
+      <c r="K102">
+        <v>6291.44</v>
+      </c>
+      <c r="L102">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M102">
+        <f>M101-B102</f>
+        <v>108</v>
+      </c>
+      <c r="N102" s="32">
+        <f t="shared" ref="N102:N103" si="100">SUM(K102:M102)</f>
+        <v>8626.01</v>
+      </c>
+      <c r="O102" s="32">
+        <f t="shared" ref="O102:O103" si="101">N102-4000</f>
+        <v>4626.01</v>
+      </c>
+      <c r="P102" s="27">
+        <f>O102-Ahorros!$E$4</f>
+        <v>126.01000000000022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>35</v>
+      </c>
+      <c r="C103" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" t="s">
+        <v>175</v>
+      </c>
+      <c r="K103">
+        <v>6291.44</v>
+      </c>
+      <c r="L103">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M103">
+        <f>M102-B103</f>
+        <v>73</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="100"/>
+        <v>8591.01</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="101"/>
+        <v>4591.01</v>
+      </c>
+      <c r="P103" s="27">
+        <f>O103-Ahorros!$E$4</f>
+        <v>91.010000000000218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" t="s">
+        <v>84</v>
+      </c>
+      <c r="K104">
+        <v>6291.44</v>
+      </c>
+      <c r="L104">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M104">
+        <f>M103-B104</f>
+        <v>68</v>
+      </c>
+      <c r="N104" s="32">
+        <f t="shared" ref="N104" si="102">SUM(K104:M104)</f>
+        <v>8586.01</v>
+      </c>
+      <c r="O104" s="32">
+        <f t="shared" ref="O104" si="103">N104-4000</f>
+        <v>4586.01</v>
+      </c>
+      <c r="P104" s="27">
+        <f>O104-Ahorros!$E$4</f>
+        <v>86.010000000000218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>177</v>
+      </c>
+      <c r="D105" t="s">
+        <v>178</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" t="s">
+        <v>44</v>
+      </c>
+      <c r="K105">
+        <v>6291.44</v>
+      </c>
+      <c r="L105">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M105">
+        <f>M104-B105</f>
+        <v>53</v>
+      </c>
+      <c r="N105" s="32">
+        <f t="shared" ref="N105" si="104">SUM(K105:M105)</f>
+        <v>8571.01</v>
+      </c>
+      <c r="O105" s="32">
+        <f t="shared" ref="O105" si="105">N105-4000</f>
+        <v>4571.01</v>
+      </c>
+      <c r="P105" s="27">
+        <f>O105-Ahorros!$E$4</f>
+        <v>71.010000000000218</v>
       </c>
     </row>
   </sheetData>
@@ -5347,15 +5763,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C0464F-8B37-4DED-BAC6-E38C56961931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33143A5-B995-4F37-9D15-25F800653B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="195">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -598,6 +598,54 @@
   </si>
   <si>
     <t>Ahorro</t>
+  </si>
+  <si>
+    <t>Total Restante</t>
+  </si>
+  <si>
+    <t>Botana Fritos</t>
+  </si>
+  <si>
+    <t>Cereal Corn Flakes</t>
+  </si>
+  <si>
+    <t>Ensalada Herdez</t>
+  </si>
+  <si>
+    <t>Leche Lala Light Deslactosada</t>
+  </si>
+  <si>
+    <t>Melón Chino Especial</t>
+  </si>
+  <si>
+    <t>Milanesa de Res</t>
+  </si>
+  <si>
+    <t>Pasta para Spaguetti</t>
+  </si>
+  <si>
+    <t>Salchicha Viena de Pavo</t>
+  </si>
+  <si>
+    <t>Torta ahogada</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>Cono Sencillo DQ</t>
+  </si>
+  <si>
+    <t>DQ</t>
+  </si>
+  <si>
+    <t>Propina Franelero</t>
+  </si>
+  <si>
+    <t>Salario Quincena</t>
+  </si>
+  <si>
+    <t>Té Sleepytime</t>
   </si>
 </sst>
 </file>
@@ -729,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -758,6 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1048,11 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="3" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R125" sqref="R125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,21 +1117,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4672,7 +4721,7 @@
       </c>
       <c r="P87" s="27">
         <f>O87-Ahorros!$E$4</f>
-        <v>1306.4099999999999</v>
+        <v>806.40999999999985</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -4717,7 +4766,7 @@
       </c>
       <c r="P88" s="27">
         <f>O88-Ahorros!$E$4</f>
-        <v>1286.5100000000002</v>
+        <v>786.51000000000022</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -4762,7 +4811,7 @@
       </c>
       <c r="P89" s="27">
         <f>O89-Ahorros!$E$4</f>
-        <v>786.51000000000022</v>
+        <v>286.51000000000022</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -4807,7 +4856,7 @@
       </c>
       <c r="P90" s="27">
         <f>O90-Ahorros!$E$4</f>
-        <v>773.01000000000022</v>
+        <v>273.01000000000022</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -4852,7 +4901,7 @@
       </c>
       <c r="P91" s="27">
         <f>O91-Ahorros!$E$4</f>
-        <v>714.01000000000022</v>
+        <v>214.01000000000022</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4897,7 +4946,7 @@
       </c>
       <c r="P92" s="27">
         <f>O92-Ahorros!$E$4</f>
-        <v>285.01000000000022</v>
+        <v>-214.98999999999978</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4942,7 +4991,7 @@
       </c>
       <c r="P93" s="27">
         <f>O93-Ahorros!$E$4</f>
-        <v>570.01000000000022</v>
+        <v>70.010000000000218</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4987,7 +5036,7 @@
       </c>
       <c r="P94" s="27">
         <f>O94-Ahorros!$E$4</f>
-        <v>557.01000000000022</v>
+        <v>57.010000000000218</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5032,7 +5081,7 @@
       </c>
       <c r="P95" s="27">
         <f>O95-Ahorros!$E$4</f>
-        <v>357.01000000000022</v>
+        <v>-142.98999999999978</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5077,7 +5126,7 @@
       </c>
       <c r="P96" s="27">
         <f>O96-Ahorros!$E$4</f>
-        <v>342.01000000000022</v>
+        <v>-157.98999999999978</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -5122,7 +5171,7 @@
       </c>
       <c r="P97" s="27">
         <f>O97-Ahorros!$E$4</f>
-        <v>329.01000000000022</v>
+        <v>-170.98999999999978</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -5167,7 +5216,7 @@
       </c>
       <c r="P98" s="27">
         <f>O98-Ahorros!$E$4</f>
-        <v>319.01000000000022</v>
+        <v>-180.98999999999978</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -5209,7 +5258,7 @@
       </c>
       <c r="P99" s="27">
         <f>O99-Ahorros!$E$4</f>
-        <v>285.01000000000022</v>
+        <v>-214.98999999999978</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -5251,7 +5300,7 @@
       </c>
       <c r="P100" s="27">
         <f>O100-Ahorros!$E$4</f>
-        <v>220.01000000000022</v>
+        <v>-279.98999999999978</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -5294,7 +5343,7 @@
       </c>
       <c r="P101" s="27">
         <f>O101-Ahorros!$E$4</f>
-        <v>220.01000000000022</v>
+        <v>-279.98999999999978</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -5336,7 +5385,7 @@
       </c>
       <c r="P102" s="27">
         <f>O102-Ahorros!$E$4</f>
-        <v>126.01000000000022</v>
+        <v>-373.98999999999978</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -5378,7 +5427,7 @@
       </c>
       <c r="P103" s="27">
         <f>O103-Ahorros!$E$4</f>
-        <v>91.010000000000218</v>
+        <v>-408.98999999999978</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -5420,7 +5469,7 @@
       </c>
       <c r="P104" s="27">
         <f>O104-Ahorros!$E$4</f>
-        <v>86.010000000000218</v>
+        <v>-413.98999999999978</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -5462,7 +5511,859 @@
       </c>
       <c r="P105" s="27">
         <f>O105-Ahorros!$E$4</f>
-        <v>71.010000000000218</v>
+        <v>-428.98999999999978</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B106">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" t="s">
+        <v>84</v>
+      </c>
+      <c r="K106">
+        <f>K105-B106</f>
+        <v>6267.44</v>
+      </c>
+      <c r="L106">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M106">
+        <v>53</v>
+      </c>
+      <c r="N106" s="33">
+        <f t="shared" ref="N106:N107" si="106">SUM(K106:M106)</f>
+        <v>8547.01</v>
+      </c>
+      <c r="O106" s="33">
+        <f t="shared" ref="O106:O107" si="107">N106-4000</f>
+        <v>4547.01</v>
+      </c>
+      <c r="P106" s="27">
+        <f>O106-Ahorros!$E$4</f>
+        <v>-452.98999999999978</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
+        <v>84</v>
+      </c>
+      <c r="K107">
+        <f>K106-B107</f>
+        <v>6233.44</v>
+      </c>
+      <c r="L107">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M107">
+        <v>53</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="106"/>
+        <v>8513.01</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="107"/>
+        <v>4513.01</v>
+      </c>
+      <c r="P107" s="27">
+        <f>O107-Ahorros!$E$4</f>
+        <v>-486.98999999999978</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>11.5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>84</v>
+      </c>
+      <c r="K108">
+        <f>K107-B108</f>
+        <v>6221.94</v>
+      </c>
+      <c r="L108">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M108">
+        <v>53</v>
+      </c>
+      <c r="N108" s="33">
+        <f t="shared" ref="N108:N116" si="108">SUM(K108:M108)</f>
+        <v>8501.51</v>
+      </c>
+      <c r="O108" s="33">
+        <f t="shared" ref="O108:O116" si="109">N108-4000</f>
+        <v>4501.51</v>
+      </c>
+      <c r="P108" s="27">
+        <f>O108-Ahorros!$E$4</f>
+        <v>-498.48999999999978</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>13.5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>84</v>
+      </c>
+      <c r="K109">
+        <f>K108-B109</f>
+        <v>6208.44</v>
+      </c>
+      <c r="L109">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M109">
+        <v>53</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="108"/>
+        <v>8488.01</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="109"/>
+        <v>4488.01</v>
+      </c>
+      <c r="P109" s="27">
+        <f>O109-Ahorros!$E$4</f>
+        <v>-511.98999999999978</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>25.5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>84</v>
+      </c>
+      <c r="K110">
+        <f>K109-B110</f>
+        <v>6182.94</v>
+      </c>
+      <c r="L110">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M110">
+        <v>53</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="108"/>
+        <v>8462.51</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="109"/>
+        <v>4462.51</v>
+      </c>
+      <c r="P110" s="27">
+        <f>O110-Ahorros!$E$4</f>
+        <v>-537.48999999999978</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>21.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>183</v>
+      </c>
+      <c r="D111" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
+        <v>84</v>
+      </c>
+      <c r="K111">
+        <f>K110-B111</f>
+        <v>6161.44</v>
+      </c>
+      <c r="L111">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M111">
+        <v>53</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="108"/>
+        <v>8441.01</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="109"/>
+        <v>4441.01</v>
+      </c>
+      <c r="P111" s="27">
+        <f>O111-Ahorros!$E$4</f>
+        <v>-558.98999999999978</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>14.95</v>
+      </c>
+      <c r="C112" t="s">
+        <v>184</v>
+      </c>
+      <c r="D112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
+        <v>84</v>
+      </c>
+      <c r="K112">
+        <f>K111-B112</f>
+        <v>6146.49</v>
+      </c>
+      <c r="L112">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M112">
+        <v>53</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="108"/>
+        <v>8426.06</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="109"/>
+        <v>4426.0599999999995</v>
+      </c>
+      <c r="P112" s="27">
+        <f>O112-Ahorros!$E$4</f>
+        <v>-573.94000000000051</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>53.16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" t="s">
+        <v>82</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>84</v>
+      </c>
+      <c r="K113">
+        <f>K112-B113</f>
+        <v>6093.33</v>
+      </c>
+      <c r="L113">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M113">
+        <v>53</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="108"/>
+        <v>8372.9</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="109"/>
+        <v>4372.8999999999996</v>
+      </c>
+      <c r="P113" s="27">
+        <f>O113-Ahorros!$E$4</f>
+        <v>-627.10000000000036</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>37.25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" t="s">
+        <v>82</v>
+      </c>
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>84</v>
+      </c>
+      <c r="K114">
+        <f>K113-B114</f>
+        <v>6056.08</v>
+      </c>
+      <c r="L114">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M114">
+        <v>53</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="108"/>
+        <v>8335.65</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="109"/>
+        <v>4335.6499999999996</v>
+      </c>
+      <c r="P114" s="27">
+        <f>O114-Ahorros!$E$4</f>
+        <v>-664.35000000000036</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115" t="s">
+        <v>82</v>
+      </c>
+      <c r="E115" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>84</v>
+      </c>
+      <c r="K115">
+        <f>K114-B115</f>
+        <v>6044.08</v>
+      </c>
+      <c r="L115">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M115">
+        <v>53</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="108"/>
+        <v>8323.65</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="109"/>
+        <v>4323.6499999999996</v>
+      </c>
+      <c r="P115" s="27">
+        <f>O115-Ahorros!$E$4</f>
+        <v>-676.35000000000036</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>23.5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" t="s">
+        <v>82</v>
+      </c>
+      <c r="E116" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="K116">
+        <f>K115-B116</f>
+        <v>6020.58</v>
+      </c>
+      <c r="L116">
+        <v>2226.5700000000002</v>
+      </c>
+      <c r="M116">
+        <v>53</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="108"/>
+        <v>8300.15</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="109"/>
+        <v>4300.1499999999996</v>
+      </c>
+      <c r="P116" s="27">
+        <f>O116-Ahorros!$E$4</f>
+        <v>-699.85000000000036</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B117">
+        <v>85</v>
+      </c>
+      <c r="C117" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s">
+        <v>189</v>
+      </c>
+      <c r="K117">
+        <v>6020.58</v>
+      </c>
+      <c r="L117">
+        <f>L116-B117</f>
+        <v>2141.5700000000002</v>
+      </c>
+      <c r="M117">
+        <v>53</v>
+      </c>
+      <c r="N117" s="33">
+        <f t="shared" ref="N117" si="110">SUM(K117:M117)</f>
+        <v>8215.15</v>
+      </c>
+      <c r="O117" s="33">
+        <f t="shared" ref="O117" si="111">N117-4000</f>
+        <v>4215.1499999999996</v>
+      </c>
+      <c r="P117" s="27">
+        <f>O117-Ahorros!$E$4</f>
+        <v>-784.85000000000036</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B118">
+        <v>13.5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" t="s">
+        <v>32</v>
+      </c>
+      <c r="G118" t="s">
+        <v>163</v>
+      </c>
+      <c r="K118">
+        <f>K117-B118</f>
+        <v>6007.08</v>
+      </c>
+      <c r="L118">
+        <v>2141.5700000000002</v>
+      </c>
+      <c r="M118">
+        <v>53</v>
+      </c>
+      <c r="N118" s="33">
+        <f t="shared" ref="N118:N119" si="112">SUM(K118:M118)</f>
+        <v>8201.65</v>
+      </c>
+      <c r="O118" s="33">
+        <f t="shared" ref="O118:O119" si="113">N118-4000</f>
+        <v>4201.6499999999996</v>
+      </c>
+      <c r="P118" s="27">
+        <f>O118-Ahorros!$E$4</f>
+        <v>-798.35000000000036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>190</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" t="s">
+        <v>32</v>
+      </c>
+      <c r="G119" t="s">
+        <v>191</v>
+      </c>
+      <c r="K119">
+        <f>K118-B119</f>
+        <v>5990.08</v>
+      </c>
+      <c r="L119">
+        <v>2141.5700000000002</v>
+      </c>
+      <c r="M119">
+        <v>53</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="112"/>
+        <v>8184.65</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="113"/>
+        <v>4184.6499999999996</v>
+      </c>
+      <c r="P119" s="27">
+        <f>O119-Ahorros!$E$4</f>
+        <v>-815.35000000000036</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>6640</v>
+      </c>
+      <c r="C120" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120">
+        <v>5990.08</v>
+      </c>
+      <c r="L120">
+        <f>L119+B120</f>
+        <v>8781.57</v>
+      </c>
+      <c r="M120">
+        <v>53</v>
+      </c>
+      <c r="N120" s="33">
+        <f t="shared" ref="N120" si="114">SUM(K120:M120)</f>
+        <v>14824.65</v>
+      </c>
+      <c r="O120" s="33">
+        <f t="shared" ref="O120" si="115">N120-4000</f>
+        <v>10824.65</v>
+      </c>
+      <c r="P120" s="27">
+        <f>O120-Ahorros!$E$4</f>
+        <v>5824.65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>174</v>
+      </c>
+      <c r="D121" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" t="s">
+        <v>175</v>
+      </c>
+      <c r="K121">
+        <v>5990.08</v>
+      </c>
+      <c r="L121">
+        <v>8781.57</v>
+      </c>
+      <c r="M121">
+        <f>M120-B121</f>
+        <v>38</v>
+      </c>
+      <c r="N121" s="33">
+        <f t="shared" ref="N121:N122" si="116">SUM(K121:M121)</f>
+        <v>14809.65</v>
+      </c>
+      <c r="O121" s="33">
+        <f t="shared" ref="O121:O122" si="117">N121-4000</f>
+        <v>10809.65</v>
+      </c>
+      <c r="P121" s="27">
+        <f>O121-Ahorros!$E$4</f>
+        <v>5809.65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>192</v>
+      </c>
+      <c r="D122" t="s">
+        <v>104</v>
+      </c>
+      <c r="E122" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" t="s">
+        <v>144</v>
+      </c>
+      <c r="K122">
+        <v>5990.08</v>
+      </c>
+      <c r="L122">
+        <v>8781.57</v>
+      </c>
+      <c r="M122">
+        <f>M121-B122</f>
+        <v>28</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="116"/>
+        <v>14799.65</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="117"/>
+        <v>10799.65</v>
+      </c>
+      <c r="P122" s="27">
+        <f>O122-Ahorros!$E$4</f>
+        <v>5799.65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B123">
+        <v>1900</v>
+      </c>
+      <c r="C123" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s">
+        <v>73</v>
+      </c>
+      <c r="K123">
+        <v>5990.08</v>
+      </c>
+      <c r="L123">
+        <f>L122-B123</f>
+        <v>6881.57</v>
+      </c>
+      <c r="M123">
+        <v>28</v>
+      </c>
+      <c r="N123" s="33">
+        <f t="shared" ref="N123" si="118">SUM(K123:M123)</f>
+        <v>12899.65</v>
+      </c>
+      <c r="O123" s="33">
+        <f t="shared" ref="O123" si="119">N123-4000</f>
+        <v>8899.65</v>
+      </c>
+      <c r="P123" s="27">
+        <f>O123-Ahorros!$E$4</f>
+        <v>3899.6499999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>177</v>
+      </c>
+      <c r="D124" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K124">
+        <v>5990.08</v>
+      </c>
+      <c r="L124">
+        <v>6881.57</v>
+      </c>
+      <c r="M124">
+        <f>M123-B124</f>
+        <v>23</v>
+      </c>
+      <c r="N124" s="33">
+        <f t="shared" ref="N124" si="120">SUM(K124:M124)</f>
+        <v>12894.65</v>
+      </c>
+      <c r="O124" s="33">
+        <f t="shared" ref="O124" si="121">N124-4000</f>
+        <v>8894.65</v>
+      </c>
+      <c r="P124" s="27">
+        <f>O124-Ahorros!$E$4</f>
+        <v>3894.6499999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>97.5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>194</v>
+      </c>
+      <c r="D125" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s">
+        <v>79</v>
+      </c>
+      <c r="K125">
+        <f>K124-B125</f>
+        <v>5892.58</v>
+      </c>
+      <c r="L125">
+        <v>6881.57</v>
+      </c>
+      <c r="M125">
+        <v>23</v>
+      </c>
+      <c r="N125" s="33">
+        <f t="shared" ref="N125" si="122">SUM(K125:M125)</f>
+        <v>12797.15</v>
+      </c>
+      <c r="O125" s="33">
+        <f t="shared" ref="O125" si="123">N125-4000</f>
+        <v>8797.15</v>
+      </c>
+      <c r="P125" s="27">
+        <f>O125-Ahorros!$E$4</f>
+        <v>3797.1499999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5754,24 +6655,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188E908-C67E-4904-B1C0-542BAD6863D7}">
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5786,7 +6687,7 @@
       </c>
       <c r="E4" s="13">
         <f>SUM(B:B)</f>
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>129</v>
@@ -5805,6 +6706,12 @@
       <c r="B5">
         <v>500</v>
       </c>
+      <c r="H5">
+        <v>3000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43585</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -5868,6 +6775,43 @@
       </c>
       <c r="B13">
         <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>6640</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19">
+        <f>M18-SUM(P:P)</f>
+        <v>1740</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19">
+        <v>1900</v>
       </c>
     </row>
   </sheetData>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33143A5-B995-4F37-9D15-25F800653B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C3FDEB-0E56-4AB1-BAAF-559A283457DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="199">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -646,6 +646,18 @@
   </si>
   <si>
     <t>Té Sleepytime</t>
+  </si>
+  <si>
+    <t>Pago Apple Music</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Salario base (Quincena)</t>
+  </si>
+  <si>
+    <t>Bono mensual</t>
   </si>
 </sst>
 </file>
@@ -706,7 +718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -772,12 +784,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -813,9 +840,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1097,11 +1126,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R125" sqref="R125"/>
+      <pane ySplit="3" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,21 +1146,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5271,6 +5300,9 @@
       <c r="C100" t="s">
         <v>93</v>
       </c>
+      <c r="D100" t="s">
+        <v>93</v>
+      </c>
       <c r="E100" t="s">
         <v>22</v>
       </c>
@@ -5537,7 +5569,7 @@
         <v>84</v>
       </c>
       <c r="K106">
-        <f>K105-B106</f>
+        <f t="shared" ref="K106:K116" si="106">K105-B106</f>
         <v>6267.44</v>
       </c>
       <c r="L106">
@@ -5547,11 +5579,11 @@
         <v>53</v>
       </c>
       <c r="N106" s="33">
-        <f t="shared" ref="N106:N107" si="106">SUM(K106:M106)</f>
+        <f t="shared" ref="N106:N107" si="107">SUM(K106:M106)</f>
         <v>8547.01</v>
       </c>
       <c r="O106" s="33">
-        <f t="shared" ref="O106:O107" si="107">N106-4000</f>
+        <f t="shared" ref="O106:O107" si="108">N106-4000</f>
         <v>4547.01</v>
       </c>
       <c r="P106" s="27">
@@ -5579,7 +5611,7 @@
         <v>84</v>
       </c>
       <c r="K107">
-        <f>K106-B107</f>
+        <f t="shared" si="106"/>
         <v>6233.44</v>
       </c>
       <c r="L107">
@@ -5589,11 +5621,11 @@
         <v>53</v>
       </c>
       <c r="N107">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8513.01</v>
       </c>
       <c r="O107">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>4513.01</v>
       </c>
       <c r="P107" s="27">
@@ -5621,7 +5653,7 @@
         <v>84</v>
       </c>
       <c r="K108">
-        <f>K107-B108</f>
+        <f t="shared" si="106"/>
         <v>6221.94</v>
       </c>
       <c r="L108">
@@ -5631,11 +5663,11 @@
         <v>53</v>
       </c>
       <c r="N108" s="33">
-        <f t="shared" ref="N108:N116" si="108">SUM(K108:M108)</f>
+        <f t="shared" ref="N108:N116" si="109">SUM(K108:M108)</f>
         <v>8501.51</v>
       </c>
       <c r="O108" s="33">
-        <f t="shared" ref="O108:O116" si="109">N108-4000</f>
+        <f t="shared" ref="O108:O116" si="110">N108-4000</f>
         <v>4501.51</v>
       </c>
       <c r="P108" s="27">
@@ -5663,7 +5695,7 @@
         <v>84</v>
       </c>
       <c r="K109">
-        <f>K108-B109</f>
+        <f t="shared" si="106"/>
         <v>6208.44</v>
       </c>
       <c r="L109">
@@ -5673,11 +5705,11 @@
         <v>53</v>
       </c>
       <c r="N109">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8488.01</v>
       </c>
       <c r="O109">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4488.01</v>
       </c>
       <c r="P109" s="27">
@@ -5705,7 +5737,7 @@
         <v>84</v>
       </c>
       <c r="K110">
-        <f>K109-B110</f>
+        <f t="shared" si="106"/>
         <v>6182.94</v>
       </c>
       <c r="L110">
@@ -5715,11 +5747,11 @@
         <v>53</v>
       </c>
       <c r="N110">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8462.51</v>
       </c>
       <c r="O110">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4462.51</v>
       </c>
       <c r="P110" s="27">
@@ -5747,7 +5779,7 @@
         <v>84</v>
       </c>
       <c r="K111">
-        <f>K110-B111</f>
+        <f t="shared" si="106"/>
         <v>6161.44</v>
       </c>
       <c r="L111">
@@ -5757,11 +5789,11 @@
         <v>53</v>
       </c>
       <c r="N111">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8441.01</v>
       </c>
       <c r="O111">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4441.01</v>
       </c>
       <c r="P111" s="27">
@@ -5789,7 +5821,7 @@
         <v>84</v>
       </c>
       <c r="K112">
-        <f>K111-B112</f>
+        <f t="shared" si="106"/>
         <v>6146.49</v>
       </c>
       <c r="L112">
@@ -5799,11 +5831,11 @@
         <v>53</v>
       </c>
       <c r="N112">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8426.06</v>
       </c>
       <c r="O112">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4426.0599999999995</v>
       </c>
       <c r="P112" s="27">
@@ -5811,7 +5843,7 @@
         <v>-573.94000000000051</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>53.16</v>
       </c>
@@ -5831,7 +5863,7 @@
         <v>84</v>
       </c>
       <c r="K113">
-        <f>K112-B113</f>
+        <f t="shared" si="106"/>
         <v>6093.33</v>
       </c>
       <c r="L113">
@@ -5841,11 +5873,11 @@
         <v>53</v>
       </c>
       <c r="N113">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8372.9</v>
       </c>
       <c r="O113">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4372.8999999999996</v>
       </c>
       <c r="P113" s="27">
@@ -5853,7 +5885,7 @@
         <v>-627.10000000000036</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>37.25</v>
       </c>
@@ -5873,7 +5905,7 @@
         <v>84</v>
       </c>
       <c r="K114">
-        <f>K113-B114</f>
+        <f t="shared" si="106"/>
         <v>6056.08</v>
       </c>
       <c r="L114">
@@ -5883,11 +5915,11 @@
         <v>53</v>
       </c>
       <c r="N114">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8335.65</v>
       </c>
       <c r="O114">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4335.6499999999996</v>
       </c>
       <c r="P114" s="27">
@@ -5895,7 +5927,7 @@
         <v>-664.35000000000036</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>12</v>
       </c>
@@ -5915,7 +5947,7 @@
         <v>84</v>
       </c>
       <c r="K115">
-        <f>K114-B115</f>
+        <f t="shared" si="106"/>
         <v>6044.08</v>
       </c>
       <c r="L115">
@@ -5925,11 +5957,11 @@
         <v>53</v>
       </c>
       <c r="N115">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8323.65</v>
       </c>
       <c r="O115">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4323.6499999999996</v>
       </c>
       <c r="P115" s="27">
@@ -5937,7 +5969,7 @@
         <v>-676.35000000000036</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>23.5</v>
       </c>
@@ -5957,7 +5989,7 @@
         <v>84</v>
       </c>
       <c r="K116">
-        <f>K115-B116</f>
+        <f t="shared" si="106"/>
         <v>6020.58</v>
       </c>
       <c r="L116">
@@ -5967,11 +5999,11 @@
         <v>53</v>
       </c>
       <c r="N116">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8300.15</v>
       </c>
       <c r="O116">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4300.1499999999996</v>
       </c>
       <c r="P116" s="27">
@@ -5979,7 +6011,7 @@
         <v>-699.85000000000036</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43584</v>
       </c>
@@ -6012,11 +6044,11 @@
         <v>53</v>
       </c>
       <c r="N117" s="33">
-        <f t="shared" ref="N117" si="110">SUM(K117:M117)</f>
+        <f t="shared" ref="N117" si="111">SUM(K117:M117)</f>
         <v>8215.15</v>
       </c>
       <c r="O117" s="33">
-        <f t="shared" ref="O117" si="111">N117-4000</f>
+        <f t="shared" ref="O117" si="112">N117-4000</f>
         <v>4215.1499999999996</v>
       </c>
       <c r="P117" s="27">
@@ -6024,7 +6056,7 @@
         <v>-784.85000000000036</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43585</v>
       </c>
@@ -6057,11 +6089,11 @@
         <v>53</v>
       </c>
       <c r="N118" s="33">
-        <f t="shared" ref="N118:N119" si="112">SUM(K118:M118)</f>
+        <f t="shared" ref="N118:N119" si="113">SUM(K118:M118)</f>
         <v>8201.65</v>
       </c>
       <c r="O118" s="33">
-        <f t="shared" ref="O118:O119" si="113">N118-4000</f>
+        <f t="shared" ref="O118:O119" si="114">N118-4000</f>
         <v>4201.6499999999996</v>
       </c>
       <c r="P118" s="27">
@@ -6069,7 +6101,7 @@
         <v>-798.35000000000036</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>17</v>
       </c>
@@ -6099,11 +6131,11 @@
         <v>53</v>
       </c>
       <c r="N119">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>8184.65</v>
       </c>
       <c r="O119">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>4184.6499999999996</v>
       </c>
       <c r="P119" s="27">
@@ -6111,7 +6143,7 @@
         <v>-815.35000000000036</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>6640</v>
       </c>
@@ -6141,11 +6173,11 @@
         <v>53</v>
       </c>
       <c r="N120" s="33">
-        <f t="shared" ref="N120" si="114">SUM(K120:M120)</f>
+        <f t="shared" ref="N120" si="115">SUM(K120:M120)</f>
         <v>14824.65</v>
       </c>
       <c r="O120" s="33">
-        <f t="shared" ref="O120" si="115">N120-4000</f>
+        <f t="shared" ref="O120" si="116">N120-4000</f>
         <v>10824.65</v>
       </c>
       <c r="P120" s="27">
@@ -6153,7 +6185,7 @@
         <v>5824.65</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>15</v>
       </c>
@@ -6183,11 +6215,11 @@
         <v>38</v>
       </c>
       <c r="N121" s="33">
-        <f t="shared" ref="N121:N122" si="116">SUM(K121:M121)</f>
+        <f t="shared" ref="N121:N122" si="117">SUM(K121:M121)</f>
         <v>14809.65</v>
       </c>
       <c r="O121" s="33">
-        <f t="shared" ref="O121:O122" si="117">N121-4000</f>
+        <f t="shared" ref="O121:O122" si="118">N121-4000</f>
         <v>10809.65</v>
       </c>
       <c r="P121" s="27">
@@ -6195,7 +6227,7 @@
         <v>5809.65</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>10</v>
       </c>
@@ -6225,11 +6257,11 @@
         <v>28</v>
       </c>
       <c r="N122">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>14799.65</v>
       </c>
       <c r="O122">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>10799.65</v>
       </c>
       <c r="P122" s="27">
@@ -6237,7 +6269,7 @@
         <v>5799.65</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43586</v>
       </c>
@@ -6270,11 +6302,11 @@
         <v>28</v>
       </c>
       <c r="N123" s="33">
-        <f t="shared" ref="N123" si="118">SUM(K123:M123)</f>
+        <f t="shared" ref="N123" si="119">SUM(K123:M123)</f>
         <v>12899.65</v>
       </c>
       <c r="O123" s="33">
-        <f t="shared" ref="O123" si="119">N123-4000</f>
+        <f t="shared" ref="O123" si="120">N123-4000</f>
         <v>8899.65</v>
       </c>
       <c r="P123" s="27">
@@ -6282,7 +6314,7 @@
         <v>3899.6499999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>5</v>
       </c>
@@ -6312,11 +6344,11 @@
         <v>23</v>
       </c>
       <c r="N124" s="33">
-        <f t="shared" ref="N124" si="120">SUM(K124:M124)</f>
+        <f t="shared" ref="N124" si="121">SUM(K124:M124)</f>
         <v>12894.65</v>
       </c>
       <c r="O124" s="33">
-        <f t="shared" ref="O124" si="121">N124-4000</f>
+        <f t="shared" ref="O124" si="122">N124-4000</f>
         <v>8894.65</v>
       </c>
       <c r="P124" s="27">
@@ -6324,7 +6356,7 @@
         <v>3894.6499999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>97.5</v>
       </c>
@@ -6354,16 +6386,146 @@
         <v>23</v>
       </c>
       <c r="N125" s="33">
-        <f t="shared" ref="N125" si="122">SUM(K125:M125)</f>
+        <f t="shared" ref="N125" si="123">SUM(K125:M125)</f>
         <v>12797.15</v>
       </c>
       <c r="O125" s="33">
-        <f t="shared" ref="O125" si="123">N125-4000</f>
+        <f t="shared" ref="O125" si="124">N125-4000</f>
         <v>8797.15</v>
       </c>
       <c r="P125" s="27">
         <f>O125-Ahorros!$E$4</f>
         <v>3797.1499999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>3000</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126">
+        <v>5892.58</v>
+      </c>
+      <c r="L126">
+        <f>L125-B126</f>
+        <v>3881.5699999999997</v>
+      </c>
+      <c r="M126">
+        <v>23</v>
+      </c>
+      <c r="N126" s="34">
+        <f t="shared" ref="N126:N127" si="125">SUM(K126:M126)</f>
+        <v>9797.15</v>
+      </c>
+      <c r="O126" s="34">
+        <f t="shared" ref="O126:O127" si="126">N126-4000</f>
+        <v>5797.15</v>
+      </c>
+      <c r="P126" s="27">
+        <f>O126-Ahorros!$E$4</f>
+        <v>797.14999999999964</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s">
+        <v>163</v>
+      </c>
+      <c r="K127">
+        <v>5892.58</v>
+      </c>
+      <c r="L127">
+        <f>L126-B127</f>
+        <v>3868.5699999999997</v>
+      </c>
+      <c r="M127">
+        <v>23</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="125"/>
+        <v>9784.15</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="126"/>
+        <v>5784.15</v>
+      </c>
+      <c r="P127" s="27">
+        <f>O127-Ahorros!$E$4</f>
+        <v>784.14999999999964</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>49</v>
+      </c>
+      <c r="C128" t="s">
+        <v>195</v>
+      </c>
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" t="s">
+        <v>32</v>
+      </c>
+      <c r="G128" t="s">
+        <v>196</v>
+      </c>
+      <c r="K128">
+        <f>K127-B128</f>
+        <v>5843.58</v>
+      </c>
+      <c r="L128">
+        <v>3868.57</v>
+      </c>
+      <c r="M128">
+        <v>23</v>
+      </c>
+      <c r="N128" s="34">
+        <f t="shared" ref="N128" si="127">SUM(K128:M128)</f>
+        <v>9735.15</v>
+      </c>
+      <c r="O128" s="34">
+        <f t="shared" ref="O128" si="128">N128-4000</f>
+        <v>5735.15</v>
+      </c>
+      <c r="P128" s="27">
+        <f>O128-Ahorros!$E$4</f>
+        <v>735.14999999999964</v>
+      </c>
+      <c r="T128">
+        <f>3845.57+27</f>
+        <v>3872.57</v>
       </c>
     </row>
   </sheetData>
@@ -6378,11 +6540,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D27017-4FBF-41C0-A2E3-E97A51044A46}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6397,7 +6559,7 @@
       </c>
       <c r="Q1" s="11">
         <f>SUM(J:J)</f>
-        <v>16900</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6440,7 +6602,7 @@
       </c>
       <c r="G3">
         <f>SUM(B:B)</f>
-        <v>58483</v>
+        <v>58735</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -6456,14 +6618,14 @@
       </c>
       <c r="N3" s="10">
         <f>G3-SUM(J:J)</f>
-        <v>41583</v>
+        <v>39835</v>
       </c>
       <c r="P3" t="s">
         <v>65</v>
       </c>
       <c r="Q3">
         <f>N3/Q2</f>
-        <v>10.39575</v>
+        <v>9.9587500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6608,7 +6770,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>10500</v>
+        <v>10752</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -6645,6 +6807,17 @@
         <v>2000</v>
       </c>
       <c r="K13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>43586</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6655,24 +6828,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188E908-C67E-4904-B1C0-542BAD6863D7}">
-  <dimension ref="A2:P19"/>
+  <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6707,7 +6884,7 @@
         <v>500</v>
       </c>
       <c r="H5">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="I5" s="1">
         <v>43585</v>
@@ -6785,7 +6962,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="S17" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="T17" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L18" t="s">
         <v>36</v>
       </c>
@@ -6798,20 +6983,52 @@
       <c r="P18">
         <v>3000</v>
       </c>
-    </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="R18" s="34">
+        <v>1871</v>
+      </c>
+      <c r="S18" s="11">
+        <f>SUM(R18:R20)</f>
+        <v>5827</v>
+      </c>
+      <c r="T18" s="11">
+        <f>M18-S18</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>179</v>
       </c>
       <c r="M19">
         <f>M18-SUM(P:P)</f>
-        <v>1740</v>
+        <v>643</v>
       </c>
       <c r="O19" t="s">
         <v>96</v>
       </c>
       <c r="P19">
         <v>1900</v>
+      </c>
+      <c r="R19" s="34">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>97</v>
+      </c>
+      <c r="R20" s="34">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C3FDEB-0E56-4AB1-BAAF-559A283457DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3635FC0-F666-44F0-9765-EEBBD409925E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="200">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>Bono mensual</t>
+  </si>
+  <si>
+    <t>Cuentas Mau</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -841,10 +844,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1126,11 +1130,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="3" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,21 +1150,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6526,6 +6530,51 @@
       <c r="T128">
         <f>3845.57+27</f>
         <v>3872.57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B129">
+        <v>75</v>
+      </c>
+      <c r="C129" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E129" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="K129">
+        <v>5843.58</v>
+      </c>
+      <c r="L129">
+        <f>L128-B129</f>
+        <v>3793.57</v>
+      </c>
+      <c r="M129">
+        <v>23</v>
+      </c>
+      <c r="N129" s="35">
+        <f t="shared" ref="N129" si="129">SUM(K129:M129)</f>
+        <v>9660.15</v>
+      </c>
+      <c r="O129" s="35">
+        <f t="shared" ref="O129" si="130">N129-4000</f>
+        <v>5660.15</v>
+      </c>
+      <c r="P129" s="27">
+        <f>O129-Ahorros!$E$4</f>
+        <v>660.14999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -6841,15 +6890,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6963,10 +7012,10 @@
       </c>
     </row>
     <row r="17" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="S17" s="37" t="s">
+      <c r="S17" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="T17" s="37" t="s">
+      <c r="T17" s="36" t="s">
         <v>198</v>
       </c>
     </row>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3635FC0-F666-44F0-9765-EEBBD409925E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A634A71-C2F0-4E35-9C25-8FE64EBA6F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="202">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -661,6 +661,12 @@
   </si>
   <si>
     <t>Cuentas Mau</t>
+  </si>
+  <si>
+    <t>Pizza Costco</t>
+  </si>
+  <si>
+    <t>Pago de Pizza</t>
   </si>
 </sst>
 </file>
@@ -696,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -807,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -820,7 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -829,7 +840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -846,9 +856,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1130,11 +1143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M130" sqref="M130"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,21 +1163,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2569,11 +2582,11 @@
       <c r="M35">
         <v>504</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="13">
         <f t="shared" ref="N35" si="28">SUM(K35:M35)</f>
         <v>7908.64</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="13">
         <f t="shared" ref="O35" si="29">N35-4000</f>
         <v>3908.6400000000003</v>
       </c>
@@ -2610,11 +2623,11 @@
       <c r="M36">
         <v>504</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="13">
         <f t="shared" ref="N36" si="30">SUM(K36:M36)</f>
         <v>7895.14</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="13">
         <f t="shared" ref="O36" si="31">N36-4000</f>
         <v>3895.1400000000003</v>
       </c>
@@ -2651,11 +2664,11 @@
       <c r="M37">
         <v>504</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="14">
         <f t="shared" ref="N37:N38" si="32">SUM(K37:M37)</f>
         <v>7652.38</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="14">
         <f t="shared" ref="O37:O38" si="33">N37-4000</f>
         <v>3652.38</v>
       </c>
@@ -2733,11 +2746,11 @@
         <f>M38-B39</f>
         <v>492</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="14">
         <f t="shared" ref="N39:N41" si="34">SUM(K39:M39)</f>
         <v>7560.38</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="14">
         <f t="shared" ref="O39:O41" si="35">N39-4000</f>
         <v>3560.38</v>
       </c>
@@ -2856,11 +2869,11 @@
         <f>M41-B42</f>
         <v>432</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="14">
         <f t="shared" ref="N42" si="36">SUM(K42:M42)</f>
         <v>7500.38</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O42" s="14">
         <f t="shared" ref="O42" si="37">N42-4000</f>
         <v>3500.38</v>
       </c>
@@ -2897,11 +2910,11 @@
       <c r="M43">
         <v>432</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="15">
         <f t="shared" ref="N43:N44" si="38">SUM(K43:M43)</f>
         <v>7470.4800000000005</v>
       </c>
-      <c r="O43" s="16">
+      <c r="O43" s="15">
         <f t="shared" ref="O43:O44" si="39">N43-4000</f>
         <v>3470.4800000000005</v>
       </c>
@@ -2979,11 +2992,11 @@
       <c r="M45">
         <v>432</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="15">
         <f t="shared" ref="N45:N46" si="40">SUM(K45:M45)</f>
         <v>7399.9800000000005</v>
       </c>
-      <c r="O45" s="16">
+      <c r="O45" s="15">
         <f t="shared" ref="O45:O46" si="41">N45-4000</f>
         <v>3399.9800000000005</v>
       </c>
@@ -3061,11 +3074,11 @@
         <f>M46-B47</f>
         <v>189</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N47" s="15">
         <f t="shared" ref="N47:N48" si="42">SUM(K47:M47)</f>
         <v>7105.98</v>
       </c>
-      <c r="O47" s="16">
+      <c r="O47" s="15">
         <f t="shared" ref="O47:O48" si="43">N47-4000</f>
         <v>3105.9799999999996</v>
       </c>
@@ -3143,11 +3156,11 @@
       <c r="M49">
         <v>181</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N49" s="15">
         <f t="shared" ref="N49:N51" si="44">SUM(K49:M49)</f>
         <v>8968.98</v>
       </c>
-      <c r="O49" s="16">
+      <c r="O49" s="15">
         <f t="shared" ref="O49:O51" si="45">N49-4000</f>
         <v>4968.9799999999996</v>
       </c>
@@ -3285,11 +3298,11 @@
         <f>M51</f>
         <v>181</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="16">
         <f t="shared" ref="N52:N53" si="46">SUM(K52:M52)</f>
         <v>12915.48</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O52" s="16">
         <f t="shared" ref="O52:O53" si="47">N52-4000</f>
         <v>8915.48</v>
       </c>
@@ -3383,11 +3396,11 @@
       <c r="M54">
         <v>181</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N54" s="16">
         <f t="shared" ref="N54:N55" si="48">SUM(K54:M54)</f>
         <v>12831.81</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O54" s="16">
         <f t="shared" ref="O54:O55" si="49">N54-4000</f>
         <v>8831.81</v>
       </c>
@@ -3472,11 +3485,11 @@
         <f>M55-B56</f>
         <v>175</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="16">
         <f t="shared" ref="N56" si="50">SUM(K56:M56)</f>
         <v>12803.81</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="16">
         <f t="shared" ref="O56" si="51">N56-4000</f>
         <v>8803.81</v>
       </c>
@@ -3513,11 +3526,11 @@
       <c r="M57">
         <v>175</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="16">
         <f t="shared" ref="N57" si="52">SUM(K57:M57)</f>
         <v>10803.81</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="16">
         <f t="shared" ref="O57" si="53">N57-4000</f>
         <v>6803.8099999999995</v>
       </c>
@@ -3555,11 +3568,11 @@
       <c r="M58">
         <v>175</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N58" s="17">
         <f t="shared" ref="N58" si="54">SUM(K58:M58)</f>
         <v>10803.81</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O58" s="17">
         <f t="shared" ref="O58" si="55">N58-4000</f>
         <v>6803.8099999999995</v>
       </c>
@@ -3596,11 +3609,11 @@
       <c r="M59">
         <v>175</v>
       </c>
-      <c r="N59" s="22">
+      <c r="N59" s="20">
         <f t="shared" ref="N59:N60" si="56">SUM(K59:M59)</f>
         <v>10788.81</v>
       </c>
-      <c r="O59" s="22">
+      <c r="O59" s="20">
         <f t="shared" ref="O59:O60" si="57">N59-4000</f>
         <v>6788.8099999999995</v>
       </c>
@@ -3678,11 +3691,11 @@
         <f>M60+B61</f>
         <v>237</v>
       </c>
-      <c r="N61" s="23">
+      <c r="N61" s="21">
         <f t="shared" ref="N61:N63" si="58">SUM(K61:M61)</f>
         <v>10664.81</v>
       </c>
-      <c r="O61" s="23">
+      <c r="O61" s="21">
         <f t="shared" ref="O61:O63" si="59">N61-4000</f>
         <v>6664.8099999999995</v>
       </c>
@@ -3694,19 +3707,19 @@
       <c r="B62">
         <v>40</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="21" t="s">
         <v>73</v>
       </c>
       <c r="K62">
@@ -3801,11 +3814,11 @@
         <f>M63-B64</f>
         <v>174</v>
       </c>
-      <c r="N64" s="23">
+      <c r="N64" s="21">
         <f t="shared" ref="N64" si="60">SUM(K64:M64)</f>
         <v>10601.81</v>
       </c>
-      <c r="O64" s="23">
+      <c r="O64" s="21">
         <f t="shared" ref="O64" si="61">N64-4000</f>
         <v>6601.8099999999995</v>
       </c>
@@ -3842,11 +3855,11 @@
         <f>M64-B65</f>
         <v>164</v>
       </c>
-      <c r="N65" s="23">
+      <c r="N65" s="21">
         <f t="shared" ref="N65" si="62">SUM(K65:M65)</f>
         <v>10591.81</v>
       </c>
-      <c r="O65" s="23">
+      <c r="O65" s="21">
         <f t="shared" ref="O65" si="63">N65-4000</f>
         <v>6591.8099999999995</v>
       </c>
@@ -3883,11 +3896,11 @@
         <f>M65-B66</f>
         <v>144</v>
       </c>
-      <c r="N66" s="23">
+      <c r="N66" s="21">
         <f t="shared" ref="N66:N69" si="64">SUM(K66:M66)</f>
         <v>10571.81</v>
       </c>
-      <c r="O66" s="23">
+      <c r="O66" s="21">
         <f t="shared" ref="O66:O69" si="65">N66-4000</f>
         <v>6571.8099999999995</v>
       </c>
@@ -4047,11 +4060,11 @@
         <f>M69-B70</f>
         <v>182</v>
       </c>
-      <c r="N70" s="23">
+      <c r="N70" s="21">
         <f t="shared" ref="N70" si="66">SUM(K70:M70)</f>
         <v>10609.81</v>
       </c>
-      <c r="O70" s="23">
+      <c r="O70" s="21">
         <f t="shared" ref="O70" si="67">N70-4000</f>
         <v>6609.8099999999995</v>
       </c>
@@ -4063,19 +4076,19 @@
       <c r="B71">
         <v>10</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="23" t="s">
+      <c r="E71" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="21" t="s">
         <v>44</v>
       </c>
       <c r="K71">
@@ -4088,11 +4101,11 @@
         <f>M70-B71</f>
         <v>172</v>
       </c>
-      <c r="N71" s="23">
+      <c r="N71" s="21">
         <f t="shared" ref="N71" si="68">SUM(K71:M71)</f>
         <v>10599.81</v>
       </c>
-      <c r="O71" s="23">
+      <c r="O71" s="21">
         <f t="shared" ref="O71" si="69">N71-4000</f>
         <v>6599.8099999999995</v>
       </c>
@@ -4129,11 +4142,11 @@
         <f>M71-B72</f>
         <v>9</v>
       </c>
-      <c r="N72" s="24">
+      <c r="N72" s="22">
         <f t="shared" ref="N72" si="70">SUM(K72:M72)</f>
         <v>10436.81</v>
       </c>
-      <c r="O72" s="24">
+      <c r="O72" s="22">
         <f t="shared" ref="O72" si="71">N72-4000</f>
         <v>6436.8099999999995</v>
       </c>
@@ -4170,11 +4183,11 @@
       <c r="M73">
         <v>9</v>
       </c>
-      <c r="N73" s="24">
+      <c r="N73" s="22">
         <f t="shared" ref="N73" si="73">SUM(K73:M73)</f>
         <v>10420.51</v>
       </c>
-      <c r="O73" s="24">
+      <c r="O73" s="22">
         <f t="shared" ref="O73" si="74">N73-4000</f>
         <v>6420.51</v>
       </c>
@@ -4211,11 +4224,11 @@
       <c r="M74">
         <v>9</v>
       </c>
-      <c r="N74" s="24">
+      <c r="N74" s="22">
         <f t="shared" ref="N74" si="75">SUM(K74:M74)</f>
         <v>10406.61</v>
       </c>
-      <c r="O74" s="24">
+      <c r="O74" s="22">
         <f t="shared" ref="O74" si="76">N74-4000</f>
         <v>6406.6100000000006</v>
       </c>
@@ -4252,11 +4265,11 @@
       <c r="M75">
         <v>9</v>
       </c>
-      <c r="N75" s="24">
+      <c r="N75" s="22">
         <f t="shared" ref="N75:N84" si="77">SUM(K75:M75)</f>
         <v>10375.36</v>
       </c>
-      <c r="O75" s="24">
+      <c r="O75" s="22">
         <f t="shared" ref="O75:O84" si="78">N75-4000</f>
         <v>6375.3600000000006</v>
       </c>
@@ -4552,22 +4565,22 @@
       <c r="A83" s="1">
         <v>43575</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B83" s="22">
         <v>5.6</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E83" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="24" t="s">
+      <c r="E83" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="22" t="s">
         <v>84</v>
       </c>
       <c r="K83">
@@ -4662,11 +4675,11 @@
         <f>M84-B85</f>
         <v>2</v>
       </c>
-      <c r="N85" s="24">
+      <c r="N85" s="22">
         <f t="shared" ref="N85" si="79">SUM(K85:M85)</f>
         <v>10131.48</v>
       </c>
-      <c r="O85" s="24">
+      <c r="O85" s="22">
         <f t="shared" ref="O85" si="80">N85-4000</f>
         <v>6131.48</v>
       </c>
@@ -4703,11 +4716,11 @@
       <c r="M86">
         <v>2</v>
       </c>
-      <c r="N86" s="24">
+      <c r="N86" s="22">
         <f t="shared" ref="N86" si="81">SUM(K86:M86)</f>
         <v>9891.41</v>
       </c>
-      <c r="O86" s="24">
+      <c r="O86" s="22">
         <f t="shared" ref="O86" si="82">N86-4000</f>
         <v>5891.41</v>
       </c>
@@ -4744,15 +4757,15 @@
       <c r="M87">
         <v>2</v>
       </c>
-      <c r="N87" s="25">
+      <c r="N87" s="23">
         <f t="shared" ref="N87" si="83">SUM(K87:M87)</f>
         <v>9806.41</v>
       </c>
-      <c r="O87" s="25">
+      <c r="O87" s="23">
         <f t="shared" ref="O87" si="84">N87-4000</f>
         <v>5806.41</v>
       </c>
-      <c r="P87" s="27">
+      <c r="P87" s="25">
         <f>O87-Ahorros!$E$4</f>
         <v>806.40999999999985</v>
       </c>
@@ -4789,15 +4802,15 @@
       <c r="M88">
         <v>2</v>
       </c>
-      <c r="N88" s="26">
+      <c r="N88" s="24">
         <f t="shared" ref="N88:N89" si="85">SUM(K88:M88)</f>
         <v>9786.51</v>
       </c>
-      <c r="O88" s="26">
+      <c r="O88" s="24">
         <f t="shared" ref="O88:O89" si="86">N88-4000</f>
         <v>5786.51</v>
       </c>
-      <c r="P88" s="27">
+      <c r="P88" s="25">
         <f>O88-Ahorros!$E$4</f>
         <v>786.51000000000022</v>
       </c>
@@ -4842,7 +4855,7 @@
         <f t="shared" si="86"/>
         <v>5286.51</v>
       </c>
-      <c r="P89" s="27">
+      <c r="P89" s="25">
         <f>O89-Ahorros!$E$4</f>
         <v>286.51000000000022</v>
       </c>
@@ -4879,15 +4892,15 @@
       <c r="M90">
         <v>2</v>
       </c>
-      <c r="N90" s="28">
+      <c r="N90" s="26">
         <f t="shared" ref="N90" si="87">SUM(K90:M90)</f>
         <v>9273.01</v>
       </c>
-      <c r="O90" s="28">
+      <c r="O90" s="26">
         <f t="shared" ref="O90" si="88">N90-4000</f>
         <v>5273.01</v>
       </c>
-      <c r="P90" s="27">
+      <c r="P90" s="25">
         <f>O90-Ahorros!$E$4</f>
         <v>273.01000000000022</v>
       </c>
@@ -4924,15 +4937,15 @@
       <c r="M91">
         <v>2</v>
       </c>
-      <c r="N91" s="29">
+      <c r="N91" s="27">
         <f t="shared" ref="N91" si="89">SUM(K91:M91)</f>
         <v>9214.01</v>
       </c>
-      <c r="O91" s="29">
+      <c r="O91" s="27">
         <f t="shared" ref="O91" si="90">N91-4000</f>
         <v>5214.01</v>
       </c>
-      <c r="P91" s="27">
+      <c r="P91" s="25">
         <f>O91-Ahorros!$E$4</f>
         <v>214.01000000000022</v>
       </c>
@@ -4969,15 +4982,15 @@
       <c r="M92">
         <v>2</v>
       </c>
-      <c r="N92" s="30">
+      <c r="N92" s="28">
         <f t="shared" ref="N92:N93" si="91">SUM(K92:M92)</f>
         <v>8785.01</v>
       </c>
-      <c r="O92" s="30">
+      <c r="O92" s="28">
         <f t="shared" ref="O92:O93" si="92">N92-4000</f>
         <v>4785.01</v>
       </c>
-      <c r="P92" s="27">
+      <c r="P92" s="25">
         <f>O92-Ahorros!$E$4</f>
         <v>-214.98999999999978</v>
       </c>
@@ -5022,7 +5035,7 @@
         <f t="shared" si="92"/>
         <v>5070.01</v>
       </c>
-      <c r="P93" s="27">
+      <c r="P93" s="25">
         <f>O93-Ahorros!$E$4</f>
         <v>70.010000000000218</v>
       </c>
@@ -5059,15 +5072,15 @@
       <c r="M94">
         <v>2</v>
       </c>
-      <c r="N94" s="31">
+      <c r="N94" s="29">
         <f t="shared" ref="N94:N95" si="93">SUM(K94:M94)</f>
         <v>9057.01</v>
       </c>
-      <c r="O94" s="31">
+      <c r="O94" s="29">
         <f t="shared" ref="O94:O95" si="94">N94-4000</f>
         <v>5057.01</v>
       </c>
-      <c r="P94" s="27">
+      <c r="P94" s="25">
         <f>O94-Ahorros!$E$4</f>
         <v>57.010000000000218</v>
       </c>
@@ -5112,7 +5125,7 @@
         <f t="shared" si="94"/>
         <v>4857.01</v>
       </c>
-      <c r="P95" s="27">
+      <c r="P95" s="25">
         <f>O95-Ahorros!$E$4</f>
         <v>-142.98999999999978</v>
       </c>
@@ -5149,15 +5162,15 @@
       <c r="M96">
         <v>2</v>
       </c>
-      <c r="N96" s="31">
+      <c r="N96" s="29">
         <f t="shared" ref="N96:N99" si="95">SUM(K96:M96)</f>
         <v>8842.01</v>
       </c>
-      <c r="O96" s="31">
+      <c r="O96" s="29">
         <f t="shared" ref="O96:O99" si="96">N96-4000</f>
         <v>4842.01</v>
       </c>
-      <c r="P96" s="27">
+      <c r="P96" s="25">
         <f>O96-Ahorros!$E$4</f>
         <v>-157.98999999999978</v>
       </c>
@@ -5202,7 +5215,7 @@
         <f t="shared" si="96"/>
         <v>4829.01</v>
       </c>
-      <c r="P97" s="27">
+      <c r="P97" s="25">
         <f>O97-Ahorros!$E$4</f>
         <v>-170.98999999999978</v>
       </c>
@@ -5232,7 +5245,7 @@
       <c r="K98">
         <v>6556.44</v>
       </c>
-      <c r="L98" s="32">
+      <c r="L98" s="30">
         <f t="shared" ref="L98:L99" si="97">L97-B98</f>
         <v>2260.5700000000002</v>
       </c>
@@ -5247,7 +5260,7 @@
         <f t="shared" si="96"/>
         <v>4819.01</v>
       </c>
-      <c r="P98" s="27">
+      <c r="P98" s="25">
         <f>O98-Ahorros!$E$4</f>
         <v>-180.98999999999978</v>
       </c>
@@ -5274,7 +5287,7 @@
       <c r="K99">
         <v>6556.44</v>
       </c>
-      <c r="L99" s="32">
+      <c r="L99" s="30">
         <f t="shared" si="97"/>
         <v>2226.5700000000002</v>
       </c>
@@ -5289,7 +5302,7 @@
         <f t="shared" si="96"/>
         <v>4785.01</v>
       </c>
-      <c r="P99" s="27">
+      <c r="P99" s="25">
         <f>O99-Ahorros!$E$4</f>
         <v>-214.98999999999978</v>
       </c>
@@ -5326,15 +5339,15 @@
       <c r="M100">
         <v>2</v>
       </c>
-      <c r="N100" s="32">
+      <c r="N100" s="30">
         <f t="shared" ref="N100:N101" si="98">SUM(K100:M100)</f>
         <v>8720.01</v>
       </c>
-      <c r="O100" s="32">
+      <c r="O100" s="30">
         <f t="shared" ref="O100:O101" si="99">N100-4000</f>
         <v>4720.01</v>
       </c>
-      <c r="P100" s="27">
+      <c r="P100" s="25">
         <f>O100-Ahorros!$E$4</f>
         <v>-279.98999999999978</v>
       </c>
@@ -5369,15 +5382,15 @@
         <f>M100+B101</f>
         <v>202</v>
       </c>
-      <c r="N101" s="32">
+      <c r="N101" s="30">
         <f t="shared" si="98"/>
         <v>8720.01</v>
       </c>
-      <c r="O101" s="32">
+      <c r="O101" s="30">
         <f t="shared" si="99"/>
         <v>4720.01</v>
       </c>
-      <c r="P101" s="27">
+      <c r="P101" s="25">
         <f>O101-Ahorros!$E$4</f>
         <v>-279.98999999999978</v>
       </c>
@@ -5411,15 +5424,15 @@
         <f>M101-B102</f>
         <v>108</v>
       </c>
-      <c r="N102" s="32">
+      <c r="N102" s="30">
         <f t="shared" ref="N102:N103" si="100">SUM(K102:M102)</f>
         <v>8626.01</v>
       </c>
-      <c r="O102" s="32">
+      <c r="O102" s="30">
         <f t="shared" ref="O102:O103" si="101">N102-4000</f>
         <v>4626.01</v>
       </c>
-      <c r="P102" s="27">
+      <c r="P102" s="25">
         <f>O102-Ahorros!$E$4</f>
         <v>-373.98999999999978</v>
       </c>
@@ -5461,7 +5474,7 @@
         <f t="shared" si="101"/>
         <v>4591.01</v>
       </c>
-      <c r="P103" s="27">
+      <c r="P103" s="25">
         <f>O103-Ahorros!$E$4</f>
         <v>-408.98999999999978</v>
       </c>
@@ -5495,15 +5508,15 @@
         <f>M103-B104</f>
         <v>68</v>
       </c>
-      <c r="N104" s="32">
+      <c r="N104" s="30">
         <f t="shared" ref="N104" si="102">SUM(K104:M104)</f>
         <v>8586.01</v>
       </c>
-      <c r="O104" s="32">
+      <c r="O104" s="30">
         <f t="shared" ref="O104" si="103">N104-4000</f>
         <v>4586.01</v>
       </c>
-      <c r="P104" s="27">
+      <c r="P104" s="25">
         <f>O104-Ahorros!$E$4</f>
         <v>-413.98999999999978</v>
       </c>
@@ -5537,15 +5550,15 @@
         <f>M104-B105</f>
         <v>53</v>
       </c>
-      <c r="N105" s="32">
+      <c r="N105" s="30">
         <f t="shared" ref="N105" si="104">SUM(K105:M105)</f>
         <v>8571.01</v>
       </c>
-      <c r="O105" s="32">
+      <c r="O105" s="30">
         <f t="shared" ref="O105" si="105">N105-4000</f>
         <v>4571.01</v>
       </c>
-      <c r="P105" s="27">
+      <c r="P105" s="25">
         <f>O105-Ahorros!$E$4</f>
         <v>-428.98999999999978</v>
       </c>
@@ -5582,15 +5595,15 @@
       <c r="M106">
         <v>53</v>
       </c>
-      <c r="N106" s="33">
+      <c r="N106" s="31">
         <f t="shared" ref="N106:N107" si="107">SUM(K106:M106)</f>
         <v>8547.01</v>
       </c>
-      <c r="O106" s="33">
+      <c r="O106" s="31">
         <f t="shared" ref="O106:O107" si="108">N106-4000</f>
         <v>4547.01</v>
       </c>
-      <c r="P106" s="27">
+      <c r="P106" s="25">
         <f>O106-Ahorros!$E$4</f>
         <v>-452.98999999999978</v>
       </c>
@@ -5632,7 +5645,7 @@
         <f t="shared" si="108"/>
         <v>4513.01</v>
       </c>
-      <c r="P107" s="27">
+      <c r="P107" s="25">
         <f>O107-Ahorros!$E$4</f>
         <v>-486.98999999999978</v>
       </c>
@@ -5666,15 +5679,15 @@
       <c r="M108">
         <v>53</v>
       </c>
-      <c r="N108" s="33">
+      <c r="N108" s="31">
         <f t="shared" ref="N108:N116" si="109">SUM(K108:M108)</f>
         <v>8501.51</v>
       </c>
-      <c r="O108" s="33">
+      <c r="O108" s="31">
         <f t="shared" ref="O108:O116" si="110">N108-4000</f>
         <v>4501.51</v>
       </c>
-      <c r="P108" s="27">
+      <c r="P108" s="25">
         <f>O108-Ahorros!$E$4</f>
         <v>-498.48999999999978</v>
       </c>
@@ -5716,7 +5729,7 @@
         <f t="shared" si="110"/>
         <v>4488.01</v>
       </c>
-      <c r="P109" s="27">
+      <c r="P109" s="25">
         <f>O109-Ahorros!$E$4</f>
         <v>-511.98999999999978</v>
       </c>
@@ -5758,7 +5771,7 @@
         <f t="shared" si="110"/>
         <v>4462.51</v>
       </c>
-      <c r="P110" s="27">
+      <c r="P110" s="25">
         <f>O110-Ahorros!$E$4</f>
         <v>-537.48999999999978</v>
       </c>
@@ -5800,7 +5813,7 @@
         <f t="shared" si="110"/>
         <v>4441.01</v>
       </c>
-      <c r="P111" s="27">
+      <c r="P111" s="25">
         <f>O111-Ahorros!$E$4</f>
         <v>-558.98999999999978</v>
       </c>
@@ -5842,7 +5855,7 @@
         <f t="shared" si="110"/>
         <v>4426.0599999999995</v>
       </c>
-      <c r="P112" s="27">
+      <c r="P112" s="25">
         <f>O112-Ahorros!$E$4</f>
         <v>-573.94000000000051</v>
       </c>
@@ -5884,7 +5897,7 @@
         <f t="shared" si="110"/>
         <v>4372.8999999999996</v>
       </c>
-      <c r="P113" s="27">
+      <c r="P113" s="25">
         <f>O113-Ahorros!$E$4</f>
         <v>-627.10000000000036</v>
       </c>
@@ -5926,7 +5939,7 @@
         <f t="shared" si="110"/>
         <v>4335.6499999999996</v>
       </c>
-      <c r="P114" s="27">
+      <c r="P114" s="25">
         <f>O114-Ahorros!$E$4</f>
         <v>-664.35000000000036</v>
       </c>
@@ -5968,7 +5981,7 @@
         <f t="shared" si="110"/>
         <v>4323.6499999999996</v>
       </c>
-      <c r="P115" s="27">
+      <c r="P115" s="25">
         <f>O115-Ahorros!$E$4</f>
         <v>-676.35000000000036</v>
       </c>
@@ -6010,7 +6023,7 @@
         <f t="shared" si="110"/>
         <v>4300.1499999999996</v>
       </c>
-      <c r="P116" s="27">
+      <c r="P116" s="25">
         <f>O116-Ahorros!$E$4</f>
         <v>-699.85000000000036</v>
       </c>
@@ -6047,15 +6060,15 @@
       <c r="M117">
         <v>53</v>
       </c>
-      <c r="N117" s="33">
+      <c r="N117" s="31">
         <f t="shared" ref="N117" si="111">SUM(K117:M117)</f>
         <v>8215.15</v>
       </c>
-      <c r="O117" s="33">
+      <c r="O117" s="31">
         <f t="shared" ref="O117" si="112">N117-4000</f>
         <v>4215.1499999999996</v>
       </c>
-      <c r="P117" s="27">
+      <c r="P117" s="25">
         <f>O117-Ahorros!$E$4</f>
         <v>-784.85000000000036</v>
       </c>
@@ -6092,15 +6105,15 @@
       <c r="M118">
         <v>53</v>
       </c>
-      <c r="N118" s="33">
+      <c r="N118" s="31">
         <f t="shared" ref="N118:N119" si="113">SUM(K118:M118)</f>
         <v>8201.65</v>
       </c>
-      <c r="O118" s="33">
+      <c r="O118" s="31">
         <f t="shared" ref="O118:O119" si="114">N118-4000</f>
         <v>4201.6499999999996</v>
       </c>
-      <c r="P118" s="27">
+      <c r="P118" s="25">
         <f>O118-Ahorros!$E$4</f>
         <v>-798.35000000000036</v>
       </c>
@@ -6142,7 +6155,7 @@
         <f t="shared" si="114"/>
         <v>4184.6499999999996</v>
       </c>
-      <c r="P119" s="27">
+      <c r="P119" s="25">
         <f>O119-Ahorros!$E$4</f>
         <v>-815.35000000000036</v>
       </c>
@@ -6176,15 +6189,15 @@
       <c r="M120">
         <v>53</v>
       </c>
-      <c r="N120" s="33">
+      <c r="N120" s="31">
         <f t="shared" ref="N120" si="115">SUM(K120:M120)</f>
         <v>14824.65</v>
       </c>
-      <c r="O120" s="33">
+      <c r="O120" s="31">
         <f t="shared" ref="O120" si="116">N120-4000</f>
         <v>10824.65</v>
       </c>
-      <c r="P120" s="27">
+      <c r="P120" s="25">
         <f>O120-Ahorros!$E$4</f>
         <v>5824.65</v>
       </c>
@@ -6218,15 +6231,15 @@
         <f>M120-B121</f>
         <v>38</v>
       </c>
-      <c r="N121" s="33">
+      <c r="N121" s="31">
         <f t="shared" ref="N121:N122" si="117">SUM(K121:M121)</f>
         <v>14809.65</v>
       </c>
-      <c r="O121" s="33">
+      <c r="O121" s="31">
         <f t="shared" ref="O121:O122" si="118">N121-4000</f>
         <v>10809.65</v>
       </c>
-      <c r="P121" s="27">
+      <c r="P121" s="25">
         <f>O121-Ahorros!$E$4</f>
         <v>5809.65</v>
       </c>
@@ -6268,7 +6281,7 @@
         <f t="shared" si="118"/>
         <v>10799.65</v>
       </c>
-      <c r="P122" s="27">
+      <c r="P122" s="25">
         <f>O122-Ahorros!$E$4</f>
         <v>5799.65</v>
       </c>
@@ -6305,15 +6318,15 @@
       <c r="M123">
         <v>28</v>
       </c>
-      <c r="N123" s="33">
+      <c r="N123" s="31">
         <f t="shared" ref="N123" si="119">SUM(K123:M123)</f>
         <v>12899.65</v>
       </c>
-      <c r="O123" s="33">
+      <c r="O123" s="31">
         <f t="shared" ref="O123" si="120">N123-4000</f>
         <v>8899.65</v>
       </c>
-      <c r="P123" s="27">
+      <c r="P123" s="25">
         <f>O123-Ahorros!$E$4</f>
         <v>3899.6499999999996</v>
       </c>
@@ -6347,15 +6360,15 @@
         <f>M123-B124</f>
         <v>23</v>
       </c>
-      <c r="N124" s="33">
+      <c r="N124" s="31">
         <f t="shared" ref="N124" si="121">SUM(K124:M124)</f>
         <v>12894.65</v>
       </c>
-      <c r="O124" s="33">
+      <c r="O124" s="31">
         <f t="shared" ref="O124" si="122">N124-4000</f>
         <v>8894.65</v>
       </c>
-      <c r="P124" s="27">
+      <c r="P124" s="25">
         <f>O124-Ahorros!$E$4</f>
         <v>3894.6499999999996</v>
       </c>
@@ -6389,15 +6402,15 @@
       <c r="M125">
         <v>23</v>
       </c>
-      <c r="N125" s="33">
+      <c r="N125" s="31">
         <f t="shared" ref="N125" si="123">SUM(K125:M125)</f>
         <v>12797.15</v>
       </c>
-      <c r="O125" s="33">
+      <c r="O125" s="31">
         <f t="shared" ref="O125" si="124">N125-4000</f>
         <v>8797.15</v>
       </c>
-      <c r="P125" s="27">
+      <c r="P125" s="25">
         <f>O125-Ahorros!$E$4</f>
         <v>3797.1499999999996</v>
       </c>
@@ -6431,15 +6444,15 @@
       <c r="M126">
         <v>23</v>
       </c>
-      <c r="N126" s="34">
+      <c r="N126" s="32">
         <f t="shared" ref="N126:N127" si="125">SUM(K126:M126)</f>
         <v>9797.15</v>
       </c>
-      <c r="O126" s="34">
+      <c r="O126" s="32">
         <f t="shared" ref="O126:O127" si="126">N126-4000</f>
         <v>5797.15</v>
       </c>
-      <c r="P126" s="27">
+      <c r="P126" s="25">
         <f>O126-Ahorros!$E$4</f>
         <v>797.14999999999964</v>
       </c>
@@ -6481,7 +6494,7 @@
         <f t="shared" si="126"/>
         <v>5784.15</v>
       </c>
-      <c r="P127" s="27">
+      <c r="P127" s="25">
         <f>O127-Ahorros!$E$4</f>
         <v>784.14999999999964</v>
       </c>
@@ -6515,15 +6528,15 @@
       <c r="M128">
         <v>23</v>
       </c>
-      <c r="N128" s="34">
+      <c r="N128" s="32">
         <f t="shared" ref="N128" si="127">SUM(K128:M128)</f>
         <v>9735.15</v>
       </c>
-      <c r="O128" s="34">
+      <c r="O128" s="32">
         <f t="shared" ref="O128" si="128">N128-4000</f>
         <v>5735.15</v>
       </c>
-      <c r="P128" s="27">
+      <c r="P128" s="25">
         <f>O128-Ahorros!$E$4</f>
         <v>735.14999999999964</v>
       </c>
@@ -6564,17 +6577,143 @@
       <c r="M129">
         <v>23</v>
       </c>
-      <c r="N129" s="35">
+      <c r="N129" s="33">
         <f t="shared" ref="N129" si="129">SUM(K129:M129)</f>
         <v>9660.15</v>
       </c>
-      <c r="O129" s="35">
+      <c r="O129" s="33">
         <f t="shared" ref="O129" si="130">N129-4000</f>
         <v>5660.15</v>
       </c>
-      <c r="P129" s="27">
+      <c r="P129" s="25">
         <f>O129-Ahorros!$E$4</f>
         <v>660.14999999999964</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>200</v>
+      </c>
+      <c r="C130" t="s">
+        <v>200</v>
+      </c>
+      <c r="D130" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s">
+        <v>79</v>
+      </c>
+      <c r="K130">
+        <f>K129-B130</f>
+        <v>5643.58</v>
+      </c>
+      <c r="L130">
+        <v>3793.57</v>
+      </c>
+      <c r="M130">
+        <v>23</v>
+      </c>
+      <c r="N130" s="35">
+        <f t="shared" ref="N130" si="131">SUM(K130:M130)</f>
+        <v>9460.15</v>
+      </c>
+      <c r="O130" s="35">
+        <f t="shared" ref="O130" si="132">N130-4000</f>
+        <v>5460.15</v>
+      </c>
+      <c r="P130" s="25">
+        <f>O130-Ahorros!$E$4</f>
+        <v>460.14999999999964</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" t="s">
+        <v>73</v>
+      </c>
+      <c r="K131">
+        <v>5643.58</v>
+      </c>
+      <c r="L131">
+        <v>3793.57</v>
+      </c>
+      <c r="M131">
+        <f>M130+B131</f>
+        <v>89</v>
+      </c>
+      <c r="N131" s="35">
+        <f t="shared" ref="N131" si="133">SUM(K131:M131)</f>
+        <v>9526.15</v>
+      </c>
+      <c r="O131" s="35">
+        <f t="shared" ref="O131" si="134">N131-4000</f>
+        <v>5526.15</v>
+      </c>
+      <c r="P131" s="25">
+        <f>O131-Ahorros!$E$4</f>
+        <v>526.14999999999964</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>53</v>
+      </c>
+      <c r="C132" t="s">
+        <v>201</v>
+      </c>
+      <c r="D132" t="s">
+        <v>78</v>
+      </c>
+      <c r="E132" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s">
+        <v>73</v>
+      </c>
+      <c r="K132">
+        <v>5643.58</v>
+      </c>
+      <c r="L132">
+        <f>L131+B132</f>
+        <v>3846.57</v>
+      </c>
+      <c r="M132">
+        <v>89</v>
+      </c>
+      <c r="N132" s="35">
+        <f t="shared" ref="N132" si="135">SUM(K132:M132)</f>
+        <v>9579.15</v>
+      </c>
+      <c r="O132" s="35">
+        <f t="shared" ref="O132" si="136">N132-4000</f>
+        <v>5579.15</v>
+      </c>
+      <c r="P132" s="25">
+        <f>O132-Ahorros!$E$4</f>
+        <v>579.14999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -6879,8 +7018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188E908-C67E-4904-B1C0-542BAD6863D7}">
   <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6890,38 +7029,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>SUM(B:B)</f>
         <v>5000</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>2000</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>43570</v>
       </c>
     </row>
@@ -7012,10 +7151,10 @@
       </c>
     </row>
     <row r="17" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="S17" s="36" t="s">
+      <c r="S17" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="T17" s="36" t="s">
+      <c r="T17" s="34" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7032,7 +7171,7 @@
       <c r="P18">
         <v>3000</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="32">
         <v>1871</v>
       </c>
       <c r="S18" s="11">
@@ -7058,7 +7197,7 @@
       <c r="P19">
         <v>1900</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="32">
         <v>2258</v>
       </c>
     </row>
@@ -7066,7 +7205,7 @@
       <c r="P20">
         <v>97</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="32">
         <v>1698</v>
       </c>
     </row>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A634A71-C2F0-4E35-9C25-8FE64EBA6F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D06A9E-95CB-446C-9027-268FD8DE5308}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="204">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -667,6 +667,12 @@
   </si>
   <si>
     <t>Pago de Pizza</t>
+  </si>
+  <si>
+    <t>Barra de Fruta</t>
+  </si>
+  <si>
+    <t>Ligerisimo</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -857,11 +863,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1143,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V132"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,21 +1170,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6714,6 +6721,51 @@
       <c r="P132" s="25">
         <f>O132-Ahorros!$E$4</f>
         <v>579.14999999999964</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>43588</v>
+      </c>
+      <c r="B133">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>202</v>
+      </c>
+      <c r="D133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" t="s">
+        <v>203</v>
+      </c>
+      <c r="K133">
+        <v>5643.58</v>
+      </c>
+      <c r="L133">
+        <v>3846.57</v>
+      </c>
+      <c r="M133">
+        <f>M132-B133</f>
+        <v>69</v>
+      </c>
+      <c r="N133" s="36">
+        <f t="shared" ref="N133" si="137">SUM(K133:M133)</f>
+        <v>9559.15</v>
+      </c>
+      <c r="O133" s="36">
+        <f t="shared" ref="O133" si="138">N133-4000</f>
+        <v>5559.15</v>
+      </c>
+      <c r="P133" s="25">
+        <f>O133-Ahorros!$E$4</f>
+        <v>559.14999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -7018,7 +7070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188E908-C67E-4904-B1C0-542BAD6863D7}">
   <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -7029,32 +7081,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="12">
         <f>SUM(B:B)</f>
         <v>5000</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>129</v>
       </c>
       <c r="H4" s="19">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D06A9E-95CB-446C-9027-268FD8DE5308}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86A45C-9CCA-403E-B3C1-096A927DA43B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="213">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -673,6 +673,33 @@
   </si>
   <si>
     <t>Ligerisimo</t>
+  </si>
+  <si>
+    <t>Atun</t>
+  </si>
+  <si>
+    <t>Barritas</t>
+  </si>
+  <si>
+    <t>Barritas de Pescado</t>
+  </si>
+  <si>
+    <t>Paketaxo</t>
+  </si>
+  <si>
+    <t>Chuleta de Cerdo</t>
+  </si>
+  <si>
+    <t>Ensalda de Vegetales</t>
+  </si>
+  <si>
+    <t>Jamón de Pavo</t>
+  </si>
+  <si>
+    <t>Frijoles la Sierra</t>
+  </si>
+  <si>
+    <t>Queso Chihuahua</t>
   </si>
 </sst>
 </file>
@@ -825,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -865,6 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1150,11 +1178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <pane ySplit="3" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R149" sqref="R149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,21 +1198,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5273,6 +5301,9 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43582</v>
+      </c>
       <c r="B99">
         <v>34</v>
       </c>
@@ -5360,6 +5391,9 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43583</v>
+      </c>
       <c r="B101">
         <v>200</v>
       </c>
@@ -5403,6 +5437,9 @@
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43583</v>
+      </c>
       <c r="B102">
         <v>94</v>
       </c>
@@ -5445,6 +5482,9 @@
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43583</v>
+      </c>
       <c r="B103">
         <v>35</v>
       </c>
@@ -5487,6 +5527,9 @@
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43583</v>
+      </c>
       <c r="B104">
         <v>5</v>
       </c>
@@ -5529,6 +5572,9 @@
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43583</v>
+      </c>
       <c r="B105">
         <v>15</v>
       </c>
@@ -5616,6 +5662,9 @@
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43583</v>
+      </c>
       <c r="B107">
         <v>34</v>
       </c>
@@ -5658,6 +5707,9 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43583</v>
+      </c>
       <c r="B108">
         <v>11.5</v>
       </c>
@@ -5700,6 +5752,9 @@
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43583</v>
+      </c>
       <c r="B109">
         <v>13.5</v>
       </c>
@@ -5742,6 +5797,9 @@
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43583</v>
+      </c>
       <c r="B110">
         <v>25.5</v>
       </c>
@@ -5784,6 +5842,9 @@
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43583</v>
+      </c>
       <c r="B111">
         <v>21.5</v>
       </c>
@@ -5826,6 +5887,9 @@
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43583</v>
+      </c>
       <c r="B112">
         <v>14.95</v>
       </c>
@@ -5868,6 +5932,9 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43583</v>
+      </c>
       <c r="B113">
         <v>53.16</v>
       </c>
@@ -5910,6 +5977,9 @@
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43583</v>
+      </c>
       <c r="B114">
         <v>37.25</v>
       </c>
@@ -5952,6 +6022,9 @@
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43583</v>
+      </c>
       <c r="B115">
         <v>12</v>
       </c>
@@ -5994,6 +6067,9 @@
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43583</v>
+      </c>
       <c r="B116">
         <v>23.5</v>
       </c>
@@ -6126,6 +6202,9 @@
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>43585</v>
+      </c>
       <c r="B119">
         <v>17</v>
       </c>
@@ -6168,6 +6247,9 @@
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>43585</v>
+      </c>
       <c r="B120">
         <v>6640</v>
       </c>
@@ -6210,6 +6292,9 @@
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>43585</v>
+      </c>
       <c r="B121">
         <v>15</v>
       </c>
@@ -6252,6 +6337,9 @@
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43585</v>
+      </c>
       <c r="B122">
         <v>10</v>
       </c>
@@ -6339,6 +6427,9 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43586</v>
+      </c>
       <c r="B124">
         <v>5</v>
       </c>
@@ -6381,6 +6472,9 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43586</v>
+      </c>
       <c r="B125">
         <v>97.5</v>
       </c>
@@ -6423,6 +6517,9 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43586</v>
+      </c>
       <c r="B126">
         <v>3000</v>
       </c>
@@ -6465,6 +6562,9 @@
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>43586</v>
+      </c>
       <c r="B127">
         <v>13</v>
       </c>
@@ -6507,6 +6607,9 @@
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>43586</v>
+      </c>
       <c r="B128">
         <v>49</v>
       </c>
@@ -6598,6 +6701,9 @@
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>43587</v>
+      </c>
       <c r="B130">
         <v>200</v>
       </c>
@@ -6640,6 +6746,9 @@
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>43587</v>
+      </c>
       <c r="B131">
         <v>66</v>
       </c>
@@ -6682,6 +6791,9 @@
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>43587</v>
+      </c>
       <c r="B132">
         <v>53</v>
       </c>
@@ -6756,16 +6868,737 @@
         <v>69</v>
       </c>
       <c r="N133" s="36">
-        <f t="shared" ref="N133" si="137">SUM(K133:M133)</f>
+        <f t="shared" ref="N133:N134" si="137">SUM(K133:M133)</f>
         <v>9559.15</v>
       </c>
       <c r="O133" s="36">
-        <f t="shared" ref="O133" si="138">N133-4000</f>
+        <f t="shared" ref="O133:O134" si="138">N133-4000</f>
         <v>5559.15</v>
       </c>
       <c r="P133" s="25">
         <f>O133-Ahorros!$E$4</f>
         <v>559.14999999999964</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>177</v>
+      </c>
+      <c r="D134" t="s">
+        <v>43</v>
+      </c>
+      <c r="E134" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" t="s">
+        <v>44</v>
+      </c>
+      <c r="K134">
+        <v>5643.58</v>
+      </c>
+      <c r="L134">
+        <v>3846.57</v>
+      </c>
+      <c r="M134">
+        <f>M133-B134</f>
+        <v>59</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="137"/>
+        <v>9549.15</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="138"/>
+        <v>5549.15</v>
+      </c>
+      <c r="P134" s="25">
+        <f>O134-Ahorros!$E$4</f>
+        <v>549.14999999999964</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B135">
+        <v>19.55</v>
+      </c>
+      <c r="C135" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135" t="s">
+        <v>82</v>
+      </c>
+      <c r="E135" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s">
+        <v>84</v>
+      </c>
+      <c r="K135">
+        <f>5643.58</f>
+        <v>5643.58</v>
+      </c>
+      <c r="L135">
+        <f>L134-B135</f>
+        <v>3827.02</v>
+      </c>
+      <c r="M135">
+        <v>59</v>
+      </c>
+      <c r="N135" s="39">
+        <f t="shared" ref="N135" si="139">SUM(K135:M135)</f>
+        <v>9529.6</v>
+      </c>
+      <c r="O135" s="39">
+        <f t="shared" ref="O135" si="140">N135-4000</f>
+        <v>5529.6</v>
+      </c>
+      <c r="P135" s="25">
+        <f>O135-Ahorros!$E$4</f>
+        <v>529.60000000000036</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>84</v>
+      </c>
+      <c r="K136">
+        <v>5643.58</v>
+      </c>
+      <c r="L136">
+        <f>L135-B136</f>
+        <v>3802.02</v>
+      </c>
+      <c r="M136">
+        <v>59</v>
+      </c>
+      <c r="N136" s="39">
+        <f t="shared" ref="N136:N147" si="141">SUM(K136:M136)</f>
+        <v>9504.6</v>
+      </c>
+      <c r="O136" s="39">
+        <f t="shared" ref="O136:O147" si="142">N136-4000</f>
+        <v>5504.6</v>
+      </c>
+      <c r="P136" s="25">
+        <f>O136-Ahorros!$E$4</f>
+        <v>504.60000000000036</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B137">
+        <v>33.54</v>
+      </c>
+      <c r="C137" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" t="s">
+        <v>82</v>
+      </c>
+      <c r="E137" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>84</v>
+      </c>
+      <c r="K137">
+        <v>5643.58</v>
+      </c>
+      <c r="L137">
+        <f>L136-B137</f>
+        <v>3768.48</v>
+      </c>
+      <c r="M137">
+        <v>59</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="141"/>
+        <v>9471.06</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="142"/>
+        <v>5471.0599999999995</v>
+      </c>
+      <c r="P137" s="25">
+        <f>O137-Ahorros!$E$4</f>
+        <v>471.05999999999949</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B138">
+        <v>25</v>
+      </c>
+      <c r="C138" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>84</v>
+      </c>
+      <c r="K138">
+        <v>5643.58</v>
+      </c>
+      <c r="L138">
+        <f>L137-B138</f>
+        <v>3743.48</v>
+      </c>
+      <c r="M138">
+        <v>59</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="141"/>
+        <v>9446.06</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="142"/>
+        <v>5446.0599999999995</v>
+      </c>
+      <c r="P138" s="25">
+        <f>O138-Ahorros!$E$4</f>
+        <v>446.05999999999949</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B139">
+        <v>13.9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" t="s">
+        <v>82</v>
+      </c>
+      <c r="E139" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>84</v>
+      </c>
+      <c r="K139">
+        <v>5643.58</v>
+      </c>
+      <c r="L139">
+        <f>L138-B139</f>
+        <v>3729.58</v>
+      </c>
+      <c r="M139">
+        <v>59</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="141"/>
+        <v>9432.16</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="142"/>
+        <v>5432.16</v>
+      </c>
+      <c r="P139" s="25">
+        <f>O139-Ahorros!$E$4</f>
+        <v>432.15999999999985</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B140">
+        <v>35.33</v>
+      </c>
+      <c r="C140" t="s">
+        <v>208</v>
+      </c>
+      <c r="D140" t="s">
+        <v>82</v>
+      </c>
+      <c r="E140" t="s">
+        <v>22</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>84</v>
+      </c>
+      <c r="K140">
+        <v>5643.58</v>
+      </c>
+      <c r="L140">
+        <f>L139-B140</f>
+        <v>3694.25</v>
+      </c>
+      <c r="M140">
+        <v>59</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="141"/>
+        <v>9396.83</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="142"/>
+        <v>5396.83</v>
+      </c>
+      <c r="P140" s="25">
+        <f>O140-Ahorros!$E$4</f>
+        <v>396.82999999999993</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B141">
+        <v>11.5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>84</v>
+      </c>
+      <c r="K141">
+        <v>5643.58</v>
+      </c>
+      <c r="L141">
+        <f>L140-B141</f>
+        <v>3682.75</v>
+      </c>
+      <c r="M141">
+        <v>59</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="141"/>
+        <v>9385.33</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="142"/>
+        <v>5385.33</v>
+      </c>
+      <c r="P141" s="25">
+        <f>O141-Ahorros!$E$4</f>
+        <v>385.32999999999993</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B142">
+        <v>13.5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>209</v>
+      </c>
+      <c r="D142" t="s">
+        <v>82</v>
+      </c>
+      <c r="E142" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>84</v>
+      </c>
+      <c r="K142">
+        <v>5643.58</v>
+      </c>
+      <c r="L142">
+        <f>L141-B142</f>
+        <v>3669.25</v>
+      </c>
+      <c r="M142">
+        <v>59</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="141"/>
+        <v>9371.83</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="142"/>
+        <v>5371.83</v>
+      </c>
+      <c r="P142" s="25">
+        <f>O142-Ahorros!$E$4</f>
+        <v>371.82999999999993</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B143">
+        <v>29.5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>210</v>
+      </c>
+      <c r="D143" t="s">
+        <v>82</v>
+      </c>
+      <c r="E143" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>84</v>
+      </c>
+      <c r="K143">
+        <v>5643.58</v>
+      </c>
+      <c r="L143">
+        <f>L142-B143</f>
+        <v>3639.75</v>
+      </c>
+      <c r="M143">
+        <v>59</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="141"/>
+        <v>9342.33</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="142"/>
+        <v>5342.33</v>
+      </c>
+      <c r="P143" s="25">
+        <f>O143-Ahorros!$E$4</f>
+        <v>342.32999999999993</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B144">
+        <v>11.05</v>
+      </c>
+      <c r="C144" t="s">
+        <v>211</v>
+      </c>
+      <c r="D144" t="s">
+        <v>82</v>
+      </c>
+      <c r="E144" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>84</v>
+      </c>
+      <c r="K144">
+        <v>5643.58</v>
+      </c>
+      <c r="L144">
+        <f>L143-B144</f>
+        <v>3628.7</v>
+      </c>
+      <c r="M144">
+        <v>59</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="141"/>
+        <v>9331.2799999999988</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="142"/>
+        <v>5331.2799999999988</v>
+      </c>
+      <c r="P144" s="25">
+        <f>O144-Ahorros!$E$4</f>
+        <v>331.27999999999884</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B145">
+        <v>21.5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>183</v>
+      </c>
+      <c r="D145" t="s">
+        <v>82</v>
+      </c>
+      <c r="E145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>84</v>
+      </c>
+      <c r="K145">
+        <v>5643.58</v>
+      </c>
+      <c r="L145">
+        <f>L144-B145</f>
+        <v>3607.2</v>
+      </c>
+      <c r="M145">
+        <v>59</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="141"/>
+        <v>9309.7799999999988</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="142"/>
+        <v>5309.7799999999988</v>
+      </c>
+      <c r="P145" s="25">
+        <f>O145-Ahorros!$E$4</f>
+        <v>309.77999999999884</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B146">
+        <v>37.25</v>
+      </c>
+      <c r="C146" t="s">
+        <v>87</v>
+      </c>
+      <c r="D146" t="s">
+        <v>82</v>
+      </c>
+      <c r="E146" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s">
+        <v>84</v>
+      </c>
+      <c r="K146">
+        <v>5643.58</v>
+      </c>
+      <c r="L146">
+        <f>L145-B146</f>
+        <v>3569.95</v>
+      </c>
+      <c r="M146">
+        <v>59</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="141"/>
+        <v>9272.5299999999988</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="142"/>
+        <v>5272.5299999999988</v>
+      </c>
+      <c r="P146" s="25">
+        <f>O146-Ahorros!$E$4</f>
+        <v>272.52999999999884</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B147">
+        <v>22.83</v>
+      </c>
+      <c r="C147" t="s">
+        <v>212</v>
+      </c>
+      <c r="D147" t="s">
+        <v>82</v>
+      </c>
+      <c r="E147" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" t="s">
+        <v>84</v>
+      </c>
+      <c r="K147">
+        <v>5643.58</v>
+      </c>
+      <c r="L147">
+        <f>L146-B147</f>
+        <v>3547.12</v>
+      </c>
+      <c r="M147">
+        <v>59</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="141"/>
+        <v>9249.7000000000007</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="142"/>
+        <v>5249.7000000000007</v>
+      </c>
+      <c r="P147" s="25">
+        <f>O147-Ahorros!$E$4</f>
+        <v>249.70000000000073</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43589</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>128</v>
+      </c>
+      <c r="D148" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" t="s">
+        <v>84</v>
+      </c>
+      <c r="K148">
+        <v>5643.58</v>
+      </c>
+      <c r="L148">
+        <v>3547.12</v>
+      </c>
+      <c r="M148">
+        <f>M147-B148</f>
+        <v>53</v>
+      </c>
+      <c r="N148" s="39">
+        <f t="shared" ref="N148" si="143">SUM(K148:M148)</f>
+        <v>9243.7000000000007</v>
+      </c>
+      <c r="O148" s="39">
+        <f t="shared" ref="O148" si="144">N148-4000</f>
+        <v>5243.7000000000007</v>
+      </c>
+      <c r="P148" s="25">
+        <f>O148-Ahorros!$E$4</f>
+        <v>243.70000000000073</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B149">
+        <v>85</v>
+      </c>
+      <c r="C149" t="s">
+        <v>93</v>
+      </c>
+      <c r="D149" t="s">
+        <v>93</v>
+      </c>
+      <c r="E149" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" t="s">
+        <v>131</v>
+      </c>
+      <c r="G149" t="s">
+        <v>93</v>
+      </c>
+      <c r="K149">
+        <f>K148-B149</f>
+        <v>5558.58</v>
+      </c>
+      <c r="L149">
+        <v>3547.12</v>
+      </c>
+      <c r="M149">
+        <v>53</v>
+      </c>
+      <c r="N149" s="39">
+        <f t="shared" ref="N149" si="145">SUM(K149:M149)</f>
+        <v>9158.7000000000007</v>
+      </c>
+      <c r="O149" s="39">
+        <f t="shared" ref="O149" si="146">N149-4000</f>
+        <v>5158.7000000000007</v>
+      </c>
+      <c r="P149" s="25">
+        <f>O149-Ahorros!$E$4</f>
+        <v>158.70000000000073</v>
       </c>
     </row>
   </sheetData>
@@ -7081,15 +7914,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86A45C-9CCA-403E-B3C1-096A927DA43B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B89B8B-732F-4FAA-82DC-B53574214992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="219">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -700,6 +700,24 @@
   </si>
   <si>
     <t>Queso Chihuahua</t>
+  </si>
+  <si>
+    <t>Perfume Zara</t>
+  </si>
+  <si>
+    <t>Regalos</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Lego Personaje</t>
+  </si>
+  <si>
+    <t>Juguetes</t>
+  </si>
+  <si>
+    <t>Lego Store</t>
   </si>
 </sst>
 </file>
@@ -1178,11 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R149" sqref="R149"/>
+      <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P150" sqref="P150:P151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6952,18 +6970,18 @@
         <v>5643.58</v>
       </c>
       <c r="L135">
-        <f>L134-B135</f>
+        <f t="shared" ref="L135:L147" si="139">L134-B135</f>
         <v>3827.02</v>
       </c>
       <c r="M135">
         <v>59</v>
       </c>
       <c r="N135" s="39">
-        <f t="shared" ref="N135" si="139">SUM(K135:M135)</f>
+        <f t="shared" ref="N135" si="140">SUM(K135:M135)</f>
         <v>9529.6</v>
       </c>
       <c r="O135" s="39">
-        <f t="shared" ref="O135" si="140">N135-4000</f>
+        <f t="shared" ref="O135" si="141">N135-4000</f>
         <v>5529.6</v>
       </c>
       <c r="P135" s="25">
@@ -6997,18 +7015,18 @@
         <v>5643.58</v>
       </c>
       <c r="L136">
-        <f>L135-B136</f>
+        <f t="shared" si="139"/>
         <v>3802.02</v>
       </c>
       <c r="M136">
         <v>59</v>
       </c>
       <c r="N136" s="39">
-        <f t="shared" ref="N136:N147" si="141">SUM(K136:M136)</f>
+        <f t="shared" ref="N136:N147" si="142">SUM(K136:M136)</f>
         <v>9504.6</v>
       </c>
       <c r="O136" s="39">
-        <f t="shared" ref="O136:O147" si="142">N136-4000</f>
+        <f t="shared" ref="O136:O147" si="143">N136-4000</f>
         <v>5504.6</v>
       </c>
       <c r="P136" s="25">
@@ -7042,18 +7060,18 @@
         <v>5643.58</v>
       </c>
       <c r="L137">
-        <f>L136-B137</f>
+        <f t="shared" si="139"/>
         <v>3768.48</v>
       </c>
       <c r="M137">
         <v>59</v>
       </c>
       <c r="N137">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9471.06</v>
       </c>
       <c r="O137">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5471.0599999999995</v>
       </c>
       <c r="P137" s="25">
@@ -7087,18 +7105,18 @@
         <v>5643.58</v>
       </c>
       <c r="L138">
-        <f>L137-B138</f>
+        <f t="shared" si="139"/>
         <v>3743.48</v>
       </c>
       <c r="M138">
         <v>59</v>
       </c>
       <c r="N138">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9446.06</v>
       </c>
       <c r="O138">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5446.0599999999995</v>
       </c>
       <c r="P138" s="25">
@@ -7132,18 +7150,18 @@
         <v>5643.58</v>
       </c>
       <c r="L139">
-        <f>L138-B139</f>
+        <f t="shared" si="139"/>
         <v>3729.58</v>
       </c>
       <c r="M139">
         <v>59</v>
       </c>
       <c r="N139">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9432.16</v>
       </c>
       <c r="O139">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5432.16</v>
       </c>
       <c r="P139" s="25">
@@ -7177,18 +7195,18 @@
         <v>5643.58</v>
       </c>
       <c r="L140">
-        <f>L139-B140</f>
+        <f t="shared" si="139"/>
         <v>3694.25</v>
       </c>
       <c r="M140">
         <v>59</v>
       </c>
       <c r="N140">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9396.83</v>
       </c>
       <c r="O140">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5396.83</v>
       </c>
       <c r="P140" s="25">
@@ -7222,18 +7240,18 @@
         <v>5643.58</v>
       </c>
       <c r="L141">
-        <f>L140-B141</f>
+        <f t="shared" si="139"/>
         <v>3682.75</v>
       </c>
       <c r="M141">
         <v>59</v>
       </c>
       <c r="N141">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9385.33</v>
       </c>
       <c r="O141">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5385.33</v>
       </c>
       <c r="P141" s="25">
@@ -7267,18 +7285,18 @@
         <v>5643.58</v>
       </c>
       <c r="L142">
-        <f>L141-B142</f>
+        <f t="shared" si="139"/>
         <v>3669.25</v>
       </c>
       <c r="M142">
         <v>59</v>
       </c>
       <c r="N142">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9371.83</v>
       </c>
       <c r="O142">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5371.83</v>
       </c>
       <c r="P142" s="25">
@@ -7312,18 +7330,18 @@
         <v>5643.58</v>
       </c>
       <c r="L143">
-        <f>L142-B143</f>
+        <f t="shared" si="139"/>
         <v>3639.75</v>
       </c>
       <c r="M143">
         <v>59</v>
       </c>
       <c r="N143">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9342.33</v>
       </c>
       <c r="O143">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5342.33</v>
       </c>
       <c r="P143" s="25">
@@ -7357,18 +7375,18 @@
         <v>5643.58</v>
       </c>
       <c r="L144">
-        <f>L143-B144</f>
+        <f t="shared" si="139"/>
         <v>3628.7</v>
       </c>
       <c r="M144">
         <v>59</v>
       </c>
       <c r="N144">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9331.2799999999988</v>
       </c>
       <c r="O144">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5331.2799999999988</v>
       </c>
       <c r="P144" s="25">
@@ -7402,18 +7420,18 @@
         <v>5643.58</v>
       </c>
       <c r="L145">
-        <f>L144-B145</f>
+        <f t="shared" si="139"/>
         <v>3607.2</v>
       </c>
       <c r="M145">
         <v>59</v>
       </c>
       <c r="N145">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9309.7799999999988</v>
       </c>
       <c r="O145">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5309.7799999999988</v>
       </c>
       <c r="P145" s="25">
@@ -7447,18 +7465,18 @@
         <v>5643.58</v>
       </c>
       <c r="L146">
-        <f>L145-B146</f>
+        <f t="shared" si="139"/>
         <v>3569.95</v>
       </c>
       <c r="M146">
         <v>59</v>
       </c>
       <c r="N146">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9272.5299999999988</v>
       </c>
       <c r="O146">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5272.5299999999988</v>
       </c>
       <c r="P146" s="25">
@@ -7492,18 +7510,18 @@
         <v>5643.58</v>
       </c>
       <c r="L147">
-        <f>L146-B147</f>
+        <f t="shared" si="139"/>
         <v>3547.12</v>
       </c>
       <c r="M147">
         <v>59</v>
       </c>
       <c r="N147">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>9249.7000000000007</v>
       </c>
       <c r="O147">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>5249.7000000000007</v>
       </c>
       <c r="P147" s="25">
@@ -7544,11 +7562,11 @@
         <v>53</v>
       </c>
       <c r="N148" s="39">
-        <f t="shared" ref="N148" si="143">SUM(K148:M148)</f>
+        <f t="shared" ref="N148" si="144">SUM(K148:M148)</f>
         <v>9243.7000000000007</v>
       </c>
       <c r="O148" s="39">
-        <f t="shared" ref="O148" si="144">N148-4000</f>
+        <f t="shared" ref="O148" si="145">N148-4000</f>
         <v>5243.7000000000007</v>
       </c>
       <c r="P148" s="25">
@@ -7589,16 +7607,106 @@
         <v>53</v>
       </c>
       <c r="N149" s="39">
-        <f t="shared" ref="N149" si="145">SUM(K149:M149)</f>
+        <f t="shared" ref="N149:N151" si="146">SUM(K149:M149)</f>
         <v>9158.7000000000007</v>
       </c>
       <c r="O149" s="39">
-        <f t="shared" ref="O149" si="146">N149-4000</f>
+        <f t="shared" ref="O149:O151" si="147">N149-4000</f>
         <v>5158.7000000000007</v>
       </c>
       <c r="P149" s="25">
         <f>O149-Ahorros!$E$4</f>
         <v>158.70000000000073</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B150">
+        <v>350</v>
+      </c>
+      <c r="C150" t="s">
+        <v>213</v>
+      </c>
+      <c r="D150" t="s">
+        <v>214</v>
+      </c>
+      <c r="E150" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>215</v>
+      </c>
+      <c r="K150">
+        <f>K149-B150</f>
+        <v>5208.58</v>
+      </c>
+      <c r="L150">
+        <v>3547.12</v>
+      </c>
+      <c r="M150">
+        <v>53</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="146"/>
+        <v>8808.7000000000007</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="147"/>
+        <v>4808.7000000000007</v>
+      </c>
+      <c r="P150" s="25">
+        <f>O150-Ahorros!$E$4</f>
+        <v>-191.29999999999927</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B151">
+        <v>80</v>
+      </c>
+      <c r="C151" t="s">
+        <v>216</v>
+      </c>
+      <c r="D151" t="s">
+        <v>217</v>
+      </c>
+      <c r="E151" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" t="s">
+        <v>218</v>
+      </c>
+      <c r="K151">
+        <f>K150-B151</f>
+        <v>5128.58</v>
+      </c>
+      <c r="L151">
+        <v>3547.12</v>
+      </c>
+      <c r="M151">
+        <v>53</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="146"/>
+        <v>8728.7000000000007</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="147"/>
+        <v>4728.7000000000007</v>
+      </c>
+      <c r="P151" s="25">
+        <f>O151-Ahorros!$E$4</f>
+        <v>-271.29999999999927</v>
       </c>
     </row>
   </sheetData>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B89B8B-732F-4FAA-82DC-B53574214992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA0C164-B3BE-48F8-9F88-D95A0520E85A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="224">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -718,6 +718,21 @@
   </si>
   <si>
     <t>Lego Store</t>
+  </si>
+  <si>
+    <t>Bolsa para basura</t>
+  </si>
+  <si>
+    <t>Limpieza</t>
+  </si>
+  <si>
+    <t>Chips Jalapeño</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Dr. Pepper</t>
   </si>
 </sst>
 </file>
@@ -870,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -910,6 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1196,11 +1212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P150" sqref="P150:P151"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,21 +1232,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7607,11 +7623,11 @@
         <v>53</v>
       </c>
       <c r="N149" s="39">
-        <f t="shared" ref="N149:N151" si="146">SUM(K149:M149)</f>
+        <f t="shared" ref="N149:N154" si="146">SUM(K149:M149)</f>
         <v>9158.7000000000007</v>
       </c>
       <c r="O149" s="39">
-        <f t="shared" ref="O149:O151" si="147">N149-4000</f>
+        <f t="shared" ref="O149:O154" si="147">N149-4000</f>
         <v>5158.7000000000007</v>
       </c>
       <c r="P149" s="25">
@@ -7707,6 +7723,231 @@
       <c r="P151" s="25">
         <f>O151-Ahorros!$E$4</f>
         <v>-271.29999999999927</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B152">
+        <v>17.5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>219</v>
+      </c>
+      <c r="D152" t="s">
+        <v>220</v>
+      </c>
+      <c r="E152" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" t="s">
+        <v>131</v>
+      </c>
+      <c r="G152" t="s">
+        <v>84</v>
+      </c>
+      <c r="K152">
+        <f>K151-B152</f>
+        <v>5111.08</v>
+      </c>
+      <c r="L152">
+        <v>3547.12</v>
+      </c>
+      <c r="M152">
+        <v>53</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="146"/>
+        <v>8711.2000000000007</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="147"/>
+        <v>4711.2000000000007</v>
+      </c>
+      <c r="P152" s="25">
+        <f>O152-Ahorros!$E$4</f>
+        <v>-288.79999999999927</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B153">
+        <v>15.6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>221</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" t="s">
+        <v>131</v>
+      </c>
+      <c r="G153" t="s">
+        <v>84</v>
+      </c>
+      <c r="K153">
+        <f>K152-B153</f>
+        <v>5095.4799999999996</v>
+      </c>
+      <c r="L153">
+        <v>3547.12</v>
+      </c>
+      <c r="M153">
+        <v>53</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="146"/>
+        <v>8695.5999999999985</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="147"/>
+        <v>4695.5999999999985</v>
+      </c>
+      <c r="P153" s="25">
+        <f>O153-Ahorros!$E$4</f>
+        <v>-304.40000000000146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B154">
+        <v>31.3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>222</v>
+      </c>
+      <c r="D154" t="s">
+        <v>82</v>
+      </c>
+      <c r="E154" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" t="s">
+        <v>32</v>
+      </c>
+      <c r="G154" t="s">
+        <v>84</v>
+      </c>
+      <c r="K154">
+        <f>K153-B154</f>
+        <v>5064.1799999999994</v>
+      </c>
+      <c r="L154">
+        <v>3547.12</v>
+      </c>
+      <c r="M154">
+        <v>53</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="146"/>
+        <v>8664.2999999999993</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="147"/>
+        <v>4664.2999999999993</v>
+      </c>
+      <c r="P154" s="25">
+        <f>O154-Ahorros!$E$4</f>
+        <v>-335.70000000000073</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>43592</v>
+      </c>
+      <c r="B155">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>223</v>
+      </c>
+      <c r="D155" t="s">
+        <v>82</v>
+      </c>
+      <c r="E155" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>81</v>
+      </c>
+      <c r="K155">
+        <v>5064.18</v>
+      </c>
+      <c r="L155">
+        <f>L154-B155</f>
+        <v>3538.12</v>
+      </c>
+      <c r="M155">
+        <v>53</v>
+      </c>
+      <c r="N155" s="40">
+        <f t="shared" ref="N155:N156" si="148">SUM(K155:M155)</f>
+        <v>8655.2999999999993</v>
+      </c>
+      <c r="O155" s="40">
+        <f t="shared" ref="O155:O156" si="149">N155-4000</f>
+        <v>4655.2999999999993</v>
+      </c>
+      <c r="P155" s="25">
+        <f>O155-Ahorros!$E$4</f>
+        <v>-344.70000000000073</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>43592</v>
+      </c>
+      <c r="B156">
+        <v>79</v>
+      </c>
+      <c r="C156" t="s">
+        <v>216</v>
+      </c>
+      <c r="D156" t="s">
+        <v>217</v>
+      </c>
+      <c r="E156" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>218</v>
+      </c>
+      <c r="K156">
+        <v>5064.18</v>
+      </c>
+      <c r="L156">
+        <f>L155-B156</f>
+        <v>3459.12</v>
+      </c>
+      <c r="M156">
+        <v>53</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="148"/>
+        <v>8576.2999999999993</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="149"/>
+        <v>4576.2999999999993</v>
+      </c>
+      <c r="P156" s="25">
+        <f>O156-Ahorros!$E$4</f>
+        <v>-423.70000000000073</v>
       </c>
     </row>
   </sheetData>
@@ -8022,15 +8263,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA0C164-B3BE-48F8-9F88-D95A0520E85A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B53D87F-E9AF-4146-91C6-CE72CD6331D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="224">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -885,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -925,6 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1212,11 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V156"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,21 +1233,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7613,7 +7614,7 @@
         <v>93</v>
       </c>
       <c r="K149">
-        <f>K148-B149</f>
+        <f t="shared" ref="K149:K154" si="146">K148-B149</f>
         <v>5558.58</v>
       </c>
       <c r="L149">
@@ -7623,11 +7624,11 @@
         <v>53</v>
       </c>
       <c r="N149" s="39">
-        <f t="shared" ref="N149:N154" si="146">SUM(K149:M149)</f>
+        <f t="shared" ref="N149:N154" si="147">SUM(K149:M149)</f>
         <v>9158.7000000000007</v>
       </c>
       <c r="O149" s="39">
-        <f t="shared" ref="O149:O154" si="147">N149-4000</f>
+        <f t="shared" ref="O149:O154" si="148">N149-4000</f>
         <v>5158.7000000000007</v>
       </c>
       <c r="P149" s="25">
@@ -7658,7 +7659,7 @@
         <v>215</v>
       </c>
       <c r="K150">
-        <f>K149-B150</f>
+        <f t="shared" si="146"/>
         <v>5208.58</v>
       </c>
       <c r="L150">
@@ -7668,11 +7669,11 @@
         <v>53</v>
       </c>
       <c r="N150">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>8808.7000000000007</v>
       </c>
       <c r="O150">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>4808.7000000000007</v>
       </c>
       <c r="P150" s="25">
@@ -7703,7 +7704,7 @@
         <v>218</v>
       </c>
       <c r="K151">
-        <f>K150-B151</f>
+        <f t="shared" si="146"/>
         <v>5128.58</v>
       </c>
       <c r="L151">
@@ -7713,11 +7714,11 @@
         <v>53</v>
       </c>
       <c r="N151">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>8728.7000000000007</v>
       </c>
       <c r="O151">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>4728.7000000000007</v>
       </c>
       <c r="P151" s="25">
@@ -7748,7 +7749,7 @@
         <v>84</v>
       </c>
       <c r="K152">
-        <f>K151-B152</f>
+        <f t="shared" si="146"/>
         <v>5111.08</v>
       </c>
       <c r="L152">
@@ -7758,11 +7759,11 @@
         <v>53</v>
       </c>
       <c r="N152">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>8711.2000000000007</v>
       </c>
       <c r="O152">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>4711.2000000000007</v>
       </c>
       <c r="P152" s="25">
@@ -7793,7 +7794,7 @@
         <v>84</v>
       </c>
       <c r="K153">
-        <f>K152-B153</f>
+        <f t="shared" si="146"/>
         <v>5095.4799999999996</v>
       </c>
       <c r="L153">
@@ -7803,11 +7804,11 @@
         <v>53</v>
       </c>
       <c r="N153">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>8695.5999999999985</v>
       </c>
       <c r="O153">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>4695.5999999999985</v>
       </c>
       <c r="P153" s="25">
@@ -7838,7 +7839,7 @@
         <v>84</v>
       </c>
       <c r="K154">
-        <f>K153-B154</f>
+        <f t="shared" si="146"/>
         <v>5064.1799999999994</v>
       </c>
       <c r="L154">
@@ -7848,11 +7849,11 @@
         <v>53</v>
       </c>
       <c r="N154">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>8664.2999999999993</v>
       </c>
       <c r="O154">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>4664.2999999999993</v>
       </c>
       <c r="P154" s="25">
@@ -7893,11 +7894,11 @@
         <v>53</v>
       </c>
       <c r="N155" s="40">
-        <f t="shared" ref="N155:N156" si="148">SUM(K155:M155)</f>
+        <f t="shared" ref="N155:N156" si="149">SUM(K155:M155)</f>
         <v>8655.2999999999993</v>
       </c>
       <c r="O155" s="40">
-        <f t="shared" ref="O155:O156" si="149">N155-4000</f>
+        <f t="shared" ref="O155:O156" si="150">N155-4000</f>
         <v>4655.2999999999993</v>
       </c>
       <c r="P155" s="25">
@@ -7938,16 +7939,61 @@
         <v>53</v>
       </c>
       <c r="N156">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>8576.2999999999993</v>
       </c>
       <c r="O156">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>4576.2999999999993</v>
       </c>
       <c r="P156" s="25">
         <f>O156-Ahorros!$E$4</f>
         <v>-423.70000000000073</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>43593</v>
+      </c>
+      <c r="B157">
+        <v>38</v>
+      </c>
+      <c r="C157" t="s">
+        <v>99</v>
+      </c>
+      <c r="D157" t="s">
+        <v>82</v>
+      </c>
+      <c r="E157" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" t="s">
+        <v>7</v>
+      </c>
+      <c r="G157" t="s">
+        <v>81</v>
+      </c>
+      <c r="K157">
+        <v>5064.18</v>
+      </c>
+      <c r="L157">
+        <v>3459.12</v>
+      </c>
+      <c r="M157">
+        <f>M156-B157</f>
+        <v>15</v>
+      </c>
+      <c r="N157" s="41">
+        <f t="shared" ref="N157" si="151">SUM(K157:M157)</f>
+        <v>8538.2999999999993</v>
+      </c>
+      <c r="O157" s="41">
+        <f t="shared" ref="O157" si="152">N157-4000</f>
+        <v>4538.2999999999993</v>
+      </c>
+      <c r="P157" s="25">
+        <f>O157-Ahorros!$E$4</f>
+        <v>-461.70000000000073</v>
       </c>
     </row>
   </sheetData>
@@ -8263,15 +8309,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B53D87F-E9AF-4146-91C6-CE72CD6331D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7F931-12D4-42DE-B2D3-F98AAECC6840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="225">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t>Dr. Pepper</t>
+  </si>
+  <si>
+    <t>Icee</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -925,6 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1213,11 +1217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,21 +1237,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7994,6 +7998,96 @@
       <c r="P157" s="25">
         <f>O157-Ahorros!$E$4</f>
         <v>-461.70000000000073</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B158">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>224</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>81</v>
+      </c>
+      <c r="K158">
+        <v>5064.18</v>
+      </c>
+      <c r="L158">
+        <f>L157-B158</f>
+        <v>3439.12</v>
+      </c>
+      <c r="M158">
+        <v>15</v>
+      </c>
+      <c r="N158" s="42">
+        <f t="shared" ref="N158" si="153">SUM(K158:M158)</f>
+        <v>8518.2999999999993</v>
+      </c>
+      <c r="O158" s="42">
+        <f t="shared" ref="O158" si="154">N158-4000</f>
+        <v>4518.2999999999993</v>
+      </c>
+      <c r="P158" s="25">
+        <f>O158-Ahorros!$E$4</f>
+        <v>-481.70000000000073</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>177</v>
+      </c>
+      <c r="D159" t="s">
+        <v>43</v>
+      </c>
+      <c r="E159" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" t="s">
+        <v>44</v>
+      </c>
+      <c r="K159">
+        <v>5064.18</v>
+      </c>
+      <c r="L159">
+        <v>3439.12</v>
+      </c>
+      <c r="M159">
+        <f>M158-B159</f>
+        <v>5</v>
+      </c>
+      <c r="N159" s="42">
+        <f t="shared" ref="N159" si="155">SUM(K159:M159)</f>
+        <v>8508.2999999999993</v>
+      </c>
+      <c r="O159" s="42">
+        <f t="shared" ref="O159" si="156">N159-4000</f>
+        <v>4508.2999999999993</v>
+      </c>
+      <c r="P159" s="25">
+        <f>O159-Ahorros!$E$4</f>
+        <v>-491.70000000000073</v>
       </c>
     </row>
   </sheetData>
@@ -8309,15 +8403,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7F931-12D4-42DE-B2D3-F98AAECC6840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE42B0-543E-4E1A-AE2D-720ACE415EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="233">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -736,6 +736,30 @@
   </si>
   <si>
     <t>Icee</t>
+  </si>
+  <si>
+    <t>Almuerzo Foraneo</t>
+  </si>
+  <si>
+    <t>Paleta Magnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrescos </t>
+  </si>
+  <si>
+    <t>Tarjeta Micro SD 16 GB</t>
+  </si>
+  <si>
+    <t>Electrónicos</t>
+  </si>
+  <si>
+    <t>Coppel</t>
+  </si>
+  <si>
+    <t>Agua Mineral</t>
+  </si>
+  <si>
+    <t>Galletas Gamesa</t>
   </si>
 </sst>
 </file>
@@ -888,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -928,6 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1217,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V159"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
+      <pane ySplit="3" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P125" sqref="P125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,21 +1262,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8088,6 +8113,591 @@
       <c r="P159" s="25">
         <f>O159-Ahorros!$E$4</f>
         <v>-491.70000000000073</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>43595</v>
+      </c>
+      <c r="B160">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C160" t="s">
+        <v>225</v>
+      </c>
+      <c r="D160" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>81</v>
+      </c>
+      <c r="K160">
+        <v>5064.18</v>
+      </c>
+      <c r="L160">
+        <f>L159-B160</f>
+        <v>3420.22</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160" s="43">
+        <f t="shared" ref="N160:N161" si="157">SUM(K160:M160)</f>
+        <v>8489.4</v>
+      </c>
+      <c r="O160" s="43">
+        <f t="shared" ref="O160:O161" si="158">N160-4000</f>
+        <v>4489.3999999999996</v>
+      </c>
+      <c r="P160" s="25">
+        <f>O160-Ahorros!$E$4</f>
+        <v>-510.60000000000036</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>43595</v>
+      </c>
+      <c r="B161">
+        <v>223.96</v>
+      </c>
+      <c r="C161" t="s">
+        <v>72</v>
+      </c>
+      <c r="D161" t="s">
+        <v>72</v>
+      </c>
+      <c r="E161" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>145</v>
+      </c>
+      <c r="K161">
+        <v>5064.18</v>
+      </c>
+      <c r="L161">
+        <f>L160-B161</f>
+        <v>3196.2599999999998</v>
+      </c>
+      <c r="M161">
+        <v>5</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="157"/>
+        <v>8265.44</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="158"/>
+        <v>4265.4400000000005</v>
+      </c>
+      <c r="P161" s="25">
+        <f>O161-Ahorros!$E$4</f>
+        <v>-734.55999999999949</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>43596</v>
+      </c>
+      <c r="B162">
+        <v>32.5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>226</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" t="s">
+        <v>32</v>
+      </c>
+      <c r="G162" t="s">
+        <v>163</v>
+      </c>
+      <c r="K162">
+        <f>K161-B162</f>
+        <v>5031.68</v>
+      </c>
+      <c r="L162">
+        <v>3196.26</v>
+      </c>
+      <c r="M162">
+        <v>5</v>
+      </c>
+      <c r="N162" s="43">
+        <f t="shared" ref="N162:N164" si="159">SUM(K162:M162)</f>
+        <v>8232.94</v>
+      </c>
+      <c r="O162" s="43">
+        <f t="shared" ref="O162:O164" si="160">N162-4000</f>
+        <v>4232.9400000000005</v>
+      </c>
+      <c r="P162" s="25">
+        <f>O162-Ahorros!$E$4</f>
+        <v>-767.05999999999949</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>43596</v>
+      </c>
+      <c r="B163">
+        <v>26.5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>227</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" t="s">
+        <v>22</v>
+      </c>
+      <c r="F163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G163" t="s">
+        <v>113</v>
+      </c>
+      <c r="K163">
+        <f>K162-B163</f>
+        <v>5005.18</v>
+      </c>
+      <c r="L163">
+        <v>3196.26</v>
+      </c>
+      <c r="M163">
+        <v>5</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="159"/>
+        <v>8206.44</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="160"/>
+        <v>4206.4400000000005</v>
+      </c>
+      <c r="P163" s="25">
+        <f>O163-Ahorros!$E$4</f>
+        <v>-793.55999999999949</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>43596</v>
+      </c>
+      <c r="B164">
+        <v>149</v>
+      </c>
+      <c r="C164" t="s">
+        <v>228</v>
+      </c>
+      <c r="D164" t="s">
+        <v>229</v>
+      </c>
+      <c r="E164" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G164" t="s">
+        <v>230</v>
+      </c>
+      <c r="K164">
+        <f>K163-B164</f>
+        <v>4856.18</v>
+      </c>
+      <c r="L164">
+        <v>3196.26</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="159"/>
+        <v>8057.4400000000005</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="160"/>
+        <v>4057.4400000000005</v>
+      </c>
+      <c r="P164" s="25">
+        <f>O164-Ahorros!$E$4</f>
+        <v>-942.55999999999949</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B165">
+        <v>25.9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>225</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" t="s">
+        <v>81</v>
+      </c>
+      <c r="K165">
+        <v>4856.18</v>
+      </c>
+      <c r="L165">
+        <f>L164-B165</f>
+        <v>3170.36</v>
+      </c>
+      <c r="M165">
+        <v>5</v>
+      </c>
+      <c r="N165" s="43">
+        <f t="shared" ref="N165:N172" si="161">SUM(K165:M165)</f>
+        <v>8031.5400000000009</v>
+      </c>
+      <c r="O165" s="43">
+        <f t="shared" ref="O165:O172" si="162">N165-4000</f>
+        <v>4031.5400000000009</v>
+      </c>
+      <c r="P165" s="25">
+        <f>O165-Ahorros!$E$4</f>
+        <v>-968.45999999999913</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B166">
+        <v>12.5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>231</v>
+      </c>
+      <c r="D166" t="s">
+        <v>82</v>
+      </c>
+      <c r="E166" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" t="s">
+        <v>84</v>
+      </c>
+      <c r="K166">
+        <v>4856.18</v>
+      </c>
+      <c r="L166">
+        <f>L165-B166</f>
+        <v>3157.86</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="161"/>
+        <v>8019.0400000000009</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="162"/>
+        <v>4019.0400000000009</v>
+      </c>
+      <c r="P166" s="25">
+        <f>O166-Ahorros!$E$4</f>
+        <v>-980.95999999999913</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B167">
+        <v>22.76</v>
+      </c>
+      <c r="C167" t="s">
+        <v>208</v>
+      </c>
+      <c r="D167" t="s">
+        <v>82</v>
+      </c>
+      <c r="E167" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
+        <v>84</v>
+      </c>
+      <c r="K167">
+        <v>4856.18</v>
+      </c>
+      <c r="L167" s="43">
+        <f>L166-B167</f>
+        <v>3135.1</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="161"/>
+        <v>7996.2800000000007</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="162"/>
+        <v>3996.2800000000007</v>
+      </c>
+      <c r="P167" s="25">
+        <f>O167-Ahorros!$E$4</f>
+        <v>-1003.7199999999993</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B168">
+        <v>38.21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" t="s">
+        <v>82</v>
+      </c>
+      <c r="E168" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" t="s">
+        <v>84</v>
+      </c>
+      <c r="K168">
+        <v>4856.18</v>
+      </c>
+      <c r="L168" s="43">
+        <f>L167-B168</f>
+        <v>3096.89</v>
+      </c>
+      <c r="M168">
+        <v>5</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="161"/>
+        <v>7958.07</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="162"/>
+        <v>3958.0699999999997</v>
+      </c>
+      <c r="P168" s="25">
+        <f>O168-Ahorros!$E$4</f>
+        <v>-1041.9300000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>232</v>
+      </c>
+      <c r="D169" t="s">
+        <v>82</v>
+      </c>
+      <c r="E169" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" t="s">
+        <v>84</v>
+      </c>
+      <c r="K169">
+        <v>4856.18</v>
+      </c>
+      <c r="L169" s="43">
+        <f>L168-B169</f>
+        <v>3084.89</v>
+      </c>
+      <c r="M169">
+        <v>5</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="161"/>
+        <v>7946.07</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="162"/>
+        <v>3946.0699999999997</v>
+      </c>
+      <c r="P169" s="25">
+        <f>O169-Ahorros!$E$4</f>
+        <v>-1053.9300000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B170">
+        <v>22</v>
+      </c>
+      <c r="C170" t="s">
+        <v>153</v>
+      </c>
+      <c r="D170" t="s">
+        <v>82</v>
+      </c>
+      <c r="E170" t="s">
+        <v>22</v>
+      </c>
+      <c r="F170" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>84</v>
+      </c>
+      <c r="K170">
+        <v>4856.18</v>
+      </c>
+      <c r="L170" s="43">
+        <f>L169-B170</f>
+        <v>3062.89</v>
+      </c>
+      <c r="M170">
+        <v>5</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="161"/>
+        <v>7924.07</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="162"/>
+        <v>3924.0699999999997</v>
+      </c>
+      <c r="P170" s="25">
+        <f>O170-Ahorros!$E$4</f>
+        <v>-1075.9300000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B171">
+        <v>15.16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D171" t="s">
+        <v>82</v>
+      </c>
+      <c r="E171" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>84</v>
+      </c>
+      <c r="K171">
+        <v>4856.18</v>
+      </c>
+      <c r="L171" s="43">
+        <f>L170-B171</f>
+        <v>3047.73</v>
+      </c>
+      <c r="M171">
+        <v>5</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="161"/>
+        <v>7908.91</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="162"/>
+        <v>3908.91</v>
+      </c>
+      <c r="P171" s="25">
+        <f>O171-Ahorros!$E$4</f>
+        <v>-1091.0900000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B172">
+        <v>36.25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" t="s">
+        <v>82</v>
+      </c>
+      <c r="E172" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>84</v>
+      </c>
+      <c r="K172">
+        <v>4856.18</v>
+      </c>
+      <c r="L172" s="43">
+        <f>L171-B172</f>
+        <v>3011.48</v>
+      </c>
+      <c r="M172">
+        <v>5</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="161"/>
+        <v>7872.66</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="162"/>
+        <v>3872.66</v>
+      </c>
+      <c r="P172" s="25">
+        <f>O172-Ahorros!$E$4</f>
+        <v>-1127.3400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8403,15 +9013,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE42B0-543E-4E1A-AE2D-720ACE415EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7B4D9-DF99-4331-B53F-CC054797035C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="236">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -760,6 +760,15 @@
   </si>
   <si>
     <t>Galletas Gamesa</t>
+  </si>
+  <si>
+    <t>Pocky Green Tea</t>
+  </si>
+  <si>
+    <t>Toyo Foods</t>
+  </si>
+  <si>
+    <t>Acecook Insta Soup</t>
   </si>
 </sst>
 </file>
@@ -912,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -952,6 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1242,11 +1252,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V172"/>
+  <dimension ref="A1:V175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P125" sqref="P125"/>
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,21 +1272,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8366,18 +8376,18 @@
         <v>4856.18</v>
       </c>
       <c r="L165">
-        <f>L164-B165</f>
+        <f t="shared" ref="L165:L172" si="161">L164-B165</f>
         <v>3170.36</v>
       </c>
       <c r="M165">
         <v>5</v>
       </c>
       <c r="N165" s="43">
-        <f t="shared" ref="N165:N172" si="161">SUM(K165:M165)</f>
+        <f t="shared" ref="N165:N175" si="162">SUM(K165:M165)</f>
         <v>8031.5400000000009</v>
       </c>
       <c r="O165" s="43">
-        <f t="shared" ref="O165:O172" si="162">N165-4000</f>
+        <f t="shared" ref="O165:O175" si="163">N165-4000</f>
         <v>4031.5400000000009</v>
       </c>
       <c r="P165" s="25">
@@ -8411,18 +8421,18 @@
         <v>4856.18</v>
       </c>
       <c r="L166">
-        <f>L165-B166</f>
+        <f t="shared" si="161"/>
         <v>3157.86</v>
       </c>
       <c r="M166">
         <v>5</v>
       </c>
       <c r="N166">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>8019.0400000000009</v>
       </c>
       <c r="O166">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>4019.0400000000009</v>
       </c>
       <c r="P166" s="25">
@@ -8456,18 +8466,18 @@
         <v>4856.18</v>
       </c>
       <c r="L167" s="43">
-        <f>L166-B167</f>
+        <f t="shared" si="161"/>
         <v>3135.1</v>
       </c>
       <c r="M167">
         <v>5</v>
       </c>
       <c r="N167">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7996.2800000000007</v>
       </c>
       <c r="O167">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>3996.2800000000007</v>
       </c>
       <c r="P167" s="25">
@@ -8501,18 +8511,18 @@
         <v>4856.18</v>
       </c>
       <c r="L168" s="43">
-        <f>L167-B168</f>
+        <f t="shared" si="161"/>
         <v>3096.89</v>
       </c>
       <c r="M168">
         <v>5</v>
       </c>
       <c r="N168">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7958.07</v>
       </c>
       <c r="O168">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>3958.0699999999997</v>
       </c>
       <c r="P168" s="25">
@@ -8546,18 +8556,18 @@
         <v>4856.18</v>
       </c>
       <c r="L169" s="43">
-        <f>L168-B169</f>
+        <f t="shared" si="161"/>
         <v>3084.89</v>
       </c>
       <c r="M169">
         <v>5</v>
       </c>
       <c r="N169">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7946.07</v>
       </c>
       <c r="O169">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>3946.0699999999997</v>
       </c>
       <c r="P169" s="25">
@@ -8591,18 +8601,18 @@
         <v>4856.18</v>
       </c>
       <c r="L170" s="43">
-        <f>L169-B170</f>
+        <f t="shared" si="161"/>
         <v>3062.89</v>
       </c>
       <c r="M170">
         <v>5</v>
       </c>
       <c r="N170">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7924.07</v>
       </c>
       <c r="O170">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>3924.0699999999997</v>
       </c>
       <c r="P170" s="25">
@@ -8636,18 +8646,18 @@
         <v>4856.18</v>
       </c>
       <c r="L171" s="43">
-        <f>L170-B171</f>
+        <f t="shared" si="161"/>
         <v>3047.73</v>
       </c>
       <c r="M171">
         <v>5</v>
       </c>
       <c r="N171">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7908.91</v>
       </c>
       <c r="O171">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>3908.91</v>
       </c>
       <c r="P171" s="25">
@@ -8681,23 +8691,158 @@
         <v>4856.18</v>
       </c>
       <c r="L172" s="43">
-        <f>L171-B172</f>
+        <f t="shared" si="161"/>
         <v>3011.48</v>
       </c>
       <c r="M172">
         <v>5</v>
       </c>
       <c r="N172">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7872.66</v>
       </c>
       <c r="O172">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>3872.66</v>
       </c>
       <c r="P172" s="25">
         <f>O172-Ahorros!$E$4</f>
         <v>-1127.3400000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B173">
+        <v>27.71</v>
+      </c>
+      <c r="C173" t="s">
+        <v>233</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>234</v>
+      </c>
+      <c r="K173">
+        <v>4856.18</v>
+      </c>
+      <c r="L173">
+        <f>L172-B173</f>
+        <v>2983.77</v>
+      </c>
+      <c r="M173">
+        <v>5</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="162"/>
+        <v>7844.9500000000007</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="163"/>
+        <v>3844.9500000000007</v>
+      </c>
+      <c r="P173" s="25">
+        <f>O173-Ahorros!$E$4</f>
+        <v>-1155.0499999999993</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B174">
+        <v>62.54</v>
+      </c>
+      <c r="C174" t="s">
+        <v>235</v>
+      </c>
+      <c r="D174" t="s">
+        <v>31</v>
+      </c>
+      <c r="E174" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>234</v>
+      </c>
+      <c r="K174">
+        <v>4856.18</v>
+      </c>
+      <c r="L174">
+        <f>L173-B174</f>
+        <v>2921.23</v>
+      </c>
+      <c r="M174">
+        <v>5</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="162"/>
+        <v>7782.41</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="163"/>
+        <v>3782.41</v>
+      </c>
+      <c r="P174" s="25">
+        <f>O174-Ahorros!$E$4</f>
+        <v>-1217.5900000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B175">
+        <v>9.5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>125</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>163</v>
+      </c>
+      <c r="K175">
+        <v>4856.18</v>
+      </c>
+      <c r="L175" s="44">
+        <f>L174-B175</f>
+        <v>2911.73</v>
+      </c>
+      <c r="M175">
+        <v>5</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="162"/>
+        <v>7772.91</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="163"/>
+        <v>3772.91</v>
+      </c>
+      <c r="P175" s="25">
+        <f>O175-Ahorros!$E$4</f>
+        <v>-1227.0900000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9013,15 +9158,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7B4D9-DF99-4331-B53F-CC054797035C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24369B93-1308-4A72-87D4-58B48AF88A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="236">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -1252,11 +1252,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V175"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
+      <pane ySplit="3" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q177" sqref="Q177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="P87" s="25">
         <f>O87-Ahorros!$E$4</f>
-        <v>806.40999999999985</v>
+        <v>306.40999999999985</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="P88" s="25">
         <f>O88-Ahorros!$E$4</f>
-        <v>786.51000000000022</v>
+        <v>286.51000000000022</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="P89" s="25">
         <f>O89-Ahorros!$E$4</f>
-        <v>286.51000000000022</v>
+        <v>-213.48999999999978</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="P90" s="25">
         <f>O90-Ahorros!$E$4</f>
-        <v>273.01000000000022</v>
+        <v>-226.98999999999978</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="P91" s="25">
         <f>O91-Ahorros!$E$4</f>
-        <v>214.01000000000022</v>
+        <v>-285.98999999999978</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="P92" s="25">
         <f>O92-Ahorros!$E$4</f>
-        <v>-214.98999999999978</v>
+        <v>-714.98999999999978</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="P93" s="25">
         <f>O93-Ahorros!$E$4</f>
-        <v>70.010000000000218</v>
+        <v>-429.98999999999978</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="P94" s="25">
         <f>O94-Ahorros!$E$4</f>
-        <v>57.010000000000218</v>
+        <v>-442.98999999999978</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="P95" s="25">
         <f>O95-Ahorros!$E$4</f>
-        <v>-142.98999999999978</v>
+        <v>-642.98999999999978</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="P96" s="25">
         <f>O96-Ahorros!$E$4</f>
-        <v>-157.98999999999978</v>
+        <v>-657.98999999999978</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="P97" s="25">
         <f>O97-Ahorros!$E$4</f>
-        <v>-170.98999999999978</v>
+        <v>-670.98999999999978</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="P98" s="25">
         <f>O98-Ahorros!$E$4</f>
-        <v>-180.98999999999978</v>
+        <v>-680.98999999999978</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="P99" s="25">
         <f>O99-Ahorros!$E$4</f>
-        <v>-214.98999999999978</v>
+        <v>-714.98999999999978</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="P100" s="25">
         <f>O100-Ahorros!$E$4</f>
-        <v>-279.98999999999978</v>
+        <v>-779.98999999999978</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="P101" s="25">
         <f>O101-Ahorros!$E$4</f>
-        <v>-279.98999999999978</v>
+        <v>-779.98999999999978</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="P102" s="25">
         <f>O102-Ahorros!$E$4</f>
-        <v>-373.98999999999978</v>
+        <v>-873.98999999999978</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="P103" s="25">
         <f>O103-Ahorros!$E$4</f>
-        <v>-408.98999999999978</v>
+        <v>-908.98999999999978</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="P104" s="25">
         <f>O104-Ahorros!$E$4</f>
-        <v>-413.98999999999978</v>
+        <v>-913.98999999999978</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="P105" s="25">
         <f>O105-Ahorros!$E$4</f>
-        <v>-428.98999999999978</v>
+        <v>-928.98999999999978</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="P106" s="25">
         <f>O106-Ahorros!$E$4</f>
-        <v>-452.98999999999978</v>
+        <v>-952.98999999999978</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="P107" s="25">
         <f>O107-Ahorros!$E$4</f>
-        <v>-486.98999999999978</v>
+        <v>-986.98999999999978</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="P108" s="25">
         <f>O108-Ahorros!$E$4</f>
-        <v>-498.48999999999978</v>
+        <v>-998.48999999999978</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="P109" s="25">
         <f>O109-Ahorros!$E$4</f>
-        <v>-511.98999999999978</v>
+        <v>-1011.9899999999998</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="P110" s="25">
         <f>O110-Ahorros!$E$4</f>
-        <v>-537.48999999999978</v>
+        <v>-1037.4899999999998</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="P111" s="25">
         <f>O111-Ahorros!$E$4</f>
-        <v>-558.98999999999978</v>
+        <v>-1058.9899999999998</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="P112" s="25">
         <f>O112-Ahorros!$E$4</f>
-        <v>-573.94000000000051</v>
+        <v>-1073.9400000000005</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="P113" s="25">
         <f>O113-Ahorros!$E$4</f>
-        <v>-627.10000000000036</v>
+        <v>-1127.1000000000004</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="P114" s="25">
         <f>O114-Ahorros!$E$4</f>
-        <v>-664.35000000000036</v>
+        <v>-1164.3500000000004</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="P115" s="25">
         <f>O115-Ahorros!$E$4</f>
-        <v>-676.35000000000036</v>
+        <v>-1176.3500000000004</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="P116" s="25">
         <f>O116-Ahorros!$E$4</f>
-        <v>-699.85000000000036</v>
+        <v>-1199.8500000000004</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="P117" s="25">
         <f>O117-Ahorros!$E$4</f>
-        <v>-784.85000000000036</v>
+        <v>-1284.8500000000004</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="P118" s="25">
         <f>O118-Ahorros!$E$4</f>
-        <v>-798.35000000000036</v>
+        <v>-1298.3500000000004</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="P119" s="25">
         <f>O119-Ahorros!$E$4</f>
-        <v>-815.35000000000036</v>
+        <v>-1315.3500000000004</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="P120" s="25">
         <f>O120-Ahorros!$E$4</f>
-        <v>5824.65</v>
+        <v>5324.65</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="P121" s="25">
         <f>O121-Ahorros!$E$4</f>
-        <v>5809.65</v>
+        <v>5309.65</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="P122" s="25">
         <f>O122-Ahorros!$E$4</f>
-        <v>5799.65</v>
+        <v>5299.65</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="P123" s="25">
         <f>O123-Ahorros!$E$4</f>
-        <v>3899.6499999999996</v>
+        <v>3399.6499999999996</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="P124" s="25">
         <f>O124-Ahorros!$E$4</f>
-        <v>3894.6499999999996</v>
+        <v>3394.6499999999996</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="P125" s="25">
         <f>O125-Ahorros!$E$4</f>
-        <v>3797.1499999999996</v>
+        <v>3297.1499999999996</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="P126" s="25">
         <f>O126-Ahorros!$E$4</f>
-        <v>797.14999999999964</v>
+        <v>297.14999999999964</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="P127" s="25">
         <f>O127-Ahorros!$E$4</f>
-        <v>784.14999999999964</v>
+        <v>284.14999999999964</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="P128" s="25">
         <f>O128-Ahorros!$E$4</f>
-        <v>735.14999999999964</v>
+        <v>235.14999999999964</v>
       </c>
       <c r="T128">
         <f>3845.57+27</f>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="P129" s="25">
         <f>O129-Ahorros!$E$4</f>
-        <v>660.14999999999964</v>
+        <v>160.14999999999964</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="P130" s="25">
         <f>O130-Ahorros!$E$4</f>
-        <v>460.14999999999964</v>
+        <v>-39.850000000000364</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="P131" s="25">
         <f>O131-Ahorros!$E$4</f>
-        <v>526.14999999999964</v>
+        <v>26.149999999999636</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="P132" s="25">
         <f>O132-Ahorros!$E$4</f>
-        <v>579.14999999999964</v>
+        <v>79.149999999999636</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="P133" s="25">
         <f>O133-Ahorros!$E$4</f>
-        <v>559.14999999999964</v>
+        <v>59.149999999999636</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="P134" s="25">
         <f>O134-Ahorros!$E$4</f>
-        <v>549.14999999999964</v>
+        <v>49.149999999999636</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="P135" s="25">
         <f>O135-Ahorros!$E$4</f>
-        <v>529.60000000000036</v>
+        <v>29.600000000000364</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="P136" s="25">
         <f>O136-Ahorros!$E$4</f>
-        <v>504.60000000000036</v>
+        <v>4.6000000000003638</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="P137" s="25">
         <f>O137-Ahorros!$E$4</f>
-        <v>471.05999999999949</v>
+        <v>-28.940000000000509</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="P138" s="25">
         <f>O138-Ahorros!$E$4</f>
-        <v>446.05999999999949</v>
+        <v>-53.940000000000509</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="P139" s="25">
         <f>O139-Ahorros!$E$4</f>
-        <v>432.15999999999985</v>
+        <v>-67.840000000000146</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="P140" s="25">
         <f>O140-Ahorros!$E$4</f>
-        <v>396.82999999999993</v>
+        <v>-103.17000000000007</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="P141" s="25">
         <f>O141-Ahorros!$E$4</f>
-        <v>385.32999999999993</v>
+        <v>-114.67000000000007</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="P142" s="25">
         <f>O142-Ahorros!$E$4</f>
-        <v>371.82999999999993</v>
+        <v>-128.17000000000007</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="P143" s="25">
         <f>O143-Ahorros!$E$4</f>
-        <v>342.32999999999993</v>
+        <v>-157.67000000000007</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="P144" s="25">
         <f>O144-Ahorros!$E$4</f>
-        <v>331.27999999999884</v>
+        <v>-168.72000000000116</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="P145" s="25">
         <f>O145-Ahorros!$E$4</f>
-        <v>309.77999999999884</v>
+        <v>-190.22000000000116</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="P146" s="25">
         <f>O146-Ahorros!$E$4</f>
-        <v>272.52999999999884</v>
+        <v>-227.47000000000116</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="P147" s="25">
         <f>O147-Ahorros!$E$4</f>
-        <v>249.70000000000073</v>
+        <v>-250.29999999999927</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="P148" s="25">
         <f>O148-Ahorros!$E$4</f>
-        <v>243.70000000000073</v>
+        <v>-256.29999999999927</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="P149" s="25">
         <f>O149-Ahorros!$E$4</f>
-        <v>158.70000000000073</v>
+        <v>-341.29999999999927</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="P150" s="25">
         <f>O150-Ahorros!$E$4</f>
-        <v>-191.29999999999927</v>
+        <v>-691.29999999999927</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="P151" s="25">
         <f>O151-Ahorros!$E$4</f>
-        <v>-271.29999999999927</v>
+        <v>-771.29999999999927</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="P152" s="25">
         <f>O152-Ahorros!$E$4</f>
-        <v>-288.79999999999927</v>
+        <v>-788.79999999999927</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="P153" s="25">
         <f>O153-Ahorros!$E$4</f>
-        <v>-304.40000000000146</v>
+        <v>-804.40000000000146</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="P154" s="25">
         <f>O154-Ahorros!$E$4</f>
-        <v>-335.70000000000073</v>
+        <v>-835.70000000000073</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="P155" s="25">
         <f>O155-Ahorros!$E$4</f>
-        <v>-344.70000000000073</v>
+        <v>-844.70000000000073</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="P156" s="25">
         <f>O156-Ahorros!$E$4</f>
-        <v>-423.70000000000073</v>
+        <v>-923.70000000000073</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="P157" s="25">
         <f>O157-Ahorros!$E$4</f>
-        <v>-461.70000000000073</v>
+        <v>-961.70000000000073</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="P158" s="25">
         <f>O158-Ahorros!$E$4</f>
-        <v>-481.70000000000073</v>
+        <v>-981.70000000000073</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="P159" s="25">
         <f>O159-Ahorros!$E$4</f>
-        <v>-491.70000000000073</v>
+        <v>-991.70000000000073</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="P160" s="25">
         <f>O160-Ahorros!$E$4</f>
-        <v>-510.60000000000036</v>
+        <v>-1010.6000000000004</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -8212,7 +8212,7 @@
       </c>
       <c r="P161" s="25">
         <f>O161-Ahorros!$E$4</f>
-        <v>-734.55999999999949</v>
+        <v>-1234.5599999999995</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="P162" s="25">
         <f>O162-Ahorros!$E$4</f>
-        <v>-767.05999999999949</v>
+        <v>-1267.0599999999995</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="P163" s="25">
         <f>O163-Ahorros!$E$4</f>
-        <v>-793.55999999999949</v>
+        <v>-1293.5599999999995</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="P164" s="25">
         <f>O164-Ahorros!$E$4</f>
-        <v>-942.55999999999949</v>
+        <v>-1442.5599999999995</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -8383,16 +8383,16 @@
         <v>5</v>
       </c>
       <c r="N165" s="43">
-        <f t="shared" ref="N165:N175" si="162">SUM(K165:M165)</f>
+        <f t="shared" ref="N165:N177" si="162">SUM(K165:M165)</f>
         <v>8031.5400000000009</v>
       </c>
       <c r="O165" s="43">
-        <f t="shared" ref="O165:O175" si="163">N165-4000</f>
+        <f t="shared" ref="O165:O177" si="163">N165-4000</f>
         <v>4031.5400000000009</v>
       </c>
       <c r="P165" s="25">
         <f>O165-Ahorros!$E$4</f>
-        <v>-968.45999999999913</v>
+        <v>-1468.4599999999991</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="P166" s="25">
         <f>O166-Ahorros!$E$4</f>
-        <v>-980.95999999999913</v>
+        <v>-1480.9599999999991</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="P167" s="25">
         <f>O167-Ahorros!$E$4</f>
-        <v>-1003.7199999999993</v>
+        <v>-1503.7199999999993</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="P168" s="25">
         <f>O168-Ahorros!$E$4</f>
-        <v>-1041.9300000000003</v>
+        <v>-1541.9300000000003</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="P169" s="25">
         <f>O169-Ahorros!$E$4</f>
-        <v>-1053.9300000000003</v>
+        <v>-1553.9300000000003</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="P170" s="25">
         <f>O170-Ahorros!$E$4</f>
-        <v>-1075.9300000000003</v>
+        <v>-1575.9300000000003</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="P171" s="25">
         <f>O171-Ahorros!$E$4</f>
-        <v>-1091.0900000000001</v>
+        <v>-1591.0900000000001</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="P172" s="25">
         <f>O172-Ahorros!$E$4</f>
-        <v>-1127.3400000000001</v>
+        <v>-1627.3400000000001</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="P173" s="25">
         <f>O173-Ahorros!$E$4</f>
-        <v>-1155.0499999999993</v>
+        <v>-1655.0499999999993</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="P174" s="25">
         <f>O174-Ahorros!$E$4</f>
-        <v>-1217.5900000000001</v>
+        <v>-1717.5900000000001</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -8842,7 +8842,97 @@
       </c>
       <c r="P175" s="25">
         <f>O175-Ahorros!$E$4</f>
-        <v>-1227.0900000000001</v>
+        <v>-1727.0900000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B176">
+        <v>5827</v>
+      </c>
+      <c r="C176" t="s">
+        <v>193</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176">
+        <v>4856.18</v>
+      </c>
+      <c r="L176">
+        <f>L175+B176</f>
+        <v>8738.73</v>
+      </c>
+      <c r="M176">
+        <v>5</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="162"/>
+        <v>13599.91</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="163"/>
+        <v>9599.91</v>
+      </c>
+      <c r="P176" s="25">
+        <f>O176-Ahorros!$E$4</f>
+        <v>4099.91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B177">
+        <v>2000</v>
+      </c>
+      <c r="C177" t="s">
+        <v>119</v>
+      </c>
+      <c r="D177" t="s">
+        <v>78</v>
+      </c>
+      <c r="E177" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>73</v>
+      </c>
+      <c r="K177">
+        <v>4856.18</v>
+      </c>
+      <c r="L177">
+        <f>L176-B177</f>
+        <v>6738.73</v>
+      </c>
+      <c r="M177">
+        <v>5</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="162"/>
+        <v>11599.91</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="163"/>
+        <v>7599.91</v>
+      </c>
+      <c r="P177" s="25">
+        <f>O177-Ahorros!$E$4</f>
+        <v>2099.91</v>
       </c>
     </row>
   </sheetData>
@@ -8857,11 +8947,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D27017-4FBF-41C0-A2E3-E97A51044A46}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8876,7 +8966,7 @@
       </c>
       <c r="Q1" s="11">
         <f>SUM(J:J)</f>
-        <v>18900</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -8935,14 +9025,14 @@
       </c>
       <c r="N3" s="10">
         <f>G3-SUM(J:J)</f>
-        <v>39835</v>
+        <v>37835</v>
       </c>
       <c r="P3" t="s">
         <v>65</v>
       </c>
       <c r="Q3">
         <f>N3/Q2</f>
-        <v>9.9587500000000002</v>
+        <v>9.4587500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -9135,6 +9225,17 @@
         <v>2000</v>
       </c>
       <c r="K14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>43600</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="K15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9148,7 +9249,7 @@
   <dimension ref="A2:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9181,7 +9282,7 @@
       </c>
       <c r="E4" s="12">
         <f>SUM(B:B)</f>
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>129</v>
@@ -9214,6 +9315,12 @@
       <c r="B6">
         <v>500</v>
       </c>
+      <c r="H6">
+        <v>6000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43600</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -9276,6 +9383,14 @@
         <v>43585</v>
       </c>
       <c r="B14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B15">
         <v>500</v>
       </c>
     </row>

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24369B93-1308-4A72-87D4-58B48AF88A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D682FD7C-B4B0-4CF7-9777-B92E1EAB9CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="239">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -769,6 +769,15 @@
   </si>
   <si>
     <t>Acecook Insta Soup</t>
+  </si>
+  <si>
+    <t>Panquecitos</t>
+  </si>
+  <si>
+    <t>Café Olé</t>
+  </si>
+  <si>
+    <t>Rufles</t>
   </si>
 </sst>
 </file>
@@ -921,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -961,6 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1252,11 +1262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q177" sqref="Q177"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q181" sqref="Q181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,21 +1282,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8383,11 +8393,11 @@
         <v>5</v>
       </c>
       <c r="N165" s="43">
-        <f t="shared" ref="N165:N177" si="162">SUM(K165:M165)</f>
+        <f t="shared" ref="N165:N181" si="162">SUM(K165:M165)</f>
         <v>8031.5400000000009</v>
       </c>
       <c r="O165" s="43">
-        <f t="shared" ref="O165:O177" si="163">N165-4000</f>
+        <f t="shared" ref="O165:O181" si="163">N165-4000</f>
         <v>4031.5400000000009</v>
       </c>
       <c r="P165" s="25">
@@ -8811,7 +8821,7 @@
         <v>125</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E175" t="s">
         <v>22</v>
@@ -8933,6 +8943,186 @@
       <c r="P177" s="25">
         <f>O177-Ahorros!$E$4</f>
         <v>2099.91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B178">
+        <v>19.5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>236</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>81</v>
+      </c>
+      <c r="K178">
+        <v>4856.18</v>
+      </c>
+      <c r="L178">
+        <f>L177-B178</f>
+        <v>6719.23</v>
+      </c>
+      <c r="M178">
+        <v>5</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="162"/>
+        <v>11580.41</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="163"/>
+        <v>7580.41</v>
+      </c>
+      <c r="P178" s="25">
+        <f>O178-Ahorros!$E$4</f>
+        <v>2080.41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B179">
+        <v>24</v>
+      </c>
+      <c r="C179" t="s">
+        <v>237</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>81</v>
+      </c>
+      <c r="K179">
+        <v>4856.18</v>
+      </c>
+      <c r="L179" s="45">
+        <f>L178-B179</f>
+        <v>6695.23</v>
+      </c>
+      <c r="M179">
+        <v>5</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="162"/>
+        <v>11556.41</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="163"/>
+        <v>7556.41</v>
+      </c>
+      <c r="P179" s="25">
+        <f>O179-Ahorros!$E$4</f>
+        <v>2056.41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B180">
+        <v>18</v>
+      </c>
+      <c r="C180" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>81</v>
+      </c>
+      <c r="K180">
+        <v>4856.18</v>
+      </c>
+      <c r="L180" s="45">
+        <f>L179-B180</f>
+        <v>6677.23</v>
+      </c>
+      <c r="M180">
+        <v>5</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="162"/>
+        <v>11538.41</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="163"/>
+        <v>7538.41</v>
+      </c>
+      <c r="P180" s="25">
+        <f>O180-Ahorros!$E$4</f>
+        <v>2038.4099999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B181">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>223</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>81</v>
+      </c>
+      <c r="K181">
+        <v>4856.18</v>
+      </c>
+      <c r="L181" s="45">
+        <f>L180-B181</f>
+        <v>6668.23</v>
+      </c>
+      <c r="M181">
+        <v>5</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="162"/>
+        <v>11529.41</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="163"/>
+        <v>7529.41</v>
+      </c>
+      <c r="P181" s="25">
+        <f>O181-Ahorros!$E$4</f>
+        <v>2029.4099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9259,15 +9449,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D682FD7C-B4B0-4CF7-9777-B92E1EAB9CAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1E6BA-F754-4179-AC7C-43585843AC7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="252">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -778,6 +778,45 @@
   </si>
   <si>
     <t>Rufles</t>
+  </si>
+  <si>
+    <t>Galletas</t>
+  </si>
+  <si>
+    <t>Ratón Logitech</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>Librero</t>
+  </si>
+  <si>
+    <t>Mobiliario</t>
+  </si>
+  <si>
+    <t>Mesa Auxiliar</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Azúcar</t>
+  </si>
+  <si>
+    <t>Sazonador Knorr</t>
+  </si>
+  <si>
+    <t>Palomitas Act II</t>
+  </si>
+  <si>
+    <t>Maruchan Camaron</t>
+  </si>
+  <si>
+    <t>Maruchan Res</t>
+  </si>
+  <si>
+    <t>Toalla de Cocina</t>
   </si>
 </sst>
 </file>
@@ -930,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -970,6 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1262,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V181"/>
+  <dimension ref="A1:V208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q181" sqref="Q181"/>
+      <pane ySplit="3" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,21 +1322,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8393,11 +8433,11 @@
         <v>5</v>
       </c>
       <c r="N165" s="43">
-        <f t="shared" ref="N165:N181" si="162">SUM(K165:M165)</f>
+        <f t="shared" ref="N165:N183" si="162">SUM(K165:M165)</f>
         <v>8031.5400000000009</v>
       </c>
       <c r="O165" s="43">
-        <f t="shared" ref="O165:O181" si="163">N165-4000</f>
+        <f t="shared" ref="O165:O183" si="163">N165-4000</f>
         <v>4031.5400000000009</v>
       </c>
       <c r="P165" s="25">
@@ -9123,6 +9163,1222 @@
       <c r="P181" s="25">
         <f>O181-Ahorros!$E$4</f>
         <v>2029.4099999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B182">
+        <v>122.22</v>
+      </c>
+      <c r="C182" t="s">
+        <v>72</v>
+      </c>
+      <c r="D182" t="s">
+        <v>72</v>
+      </c>
+      <c r="E182" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" t="s">
+        <v>145</v>
+      </c>
+      <c r="K182">
+        <v>4856.18</v>
+      </c>
+      <c r="L182">
+        <f>L181-B182</f>
+        <v>6546.0099999999993</v>
+      </c>
+      <c r="M182">
+        <v>5</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="162"/>
+        <v>11407.189999999999</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="163"/>
+        <v>7407.1899999999987</v>
+      </c>
+      <c r="P182" s="25">
+        <f>O182-Ahorros!$E$4</f>
+        <v>1907.1899999999987</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B183">
+        <v>15</v>
+      </c>
+      <c r="C183" t="s">
+        <v>239</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" t="s">
+        <v>81</v>
+      </c>
+      <c r="K183">
+        <v>4856.18</v>
+      </c>
+      <c r="L183" s="46">
+        <f>L182-B183</f>
+        <v>6531.0099999999993</v>
+      </c>
+      <c r="M183">
+        <v>5</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="162"/>
+        <v>11392.189999999999</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="163"/>
+        <v>7392.1899999999987</v>
+      </c>
+      <c r="P183" s="25">
+        <f>O183-Ahorros!$E$4</f>
+        <v>1892.1899999999987</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B184">
+        <v>194</v>
+      </c>
+      <c r="C184" t="s">
+        <v>240</v>
+      </c>
+      <c r="D184" t="s">
+        <v>229</v>
+      </c>
+      <c r="E184" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s">
+        <v>241</v>
+      </c>
+      <c r="K184">
+        <f>K183-B184</f>
+        <v>4662.18</v>
+      </c>
+      <c r="L184">
+        <v>6531.01</v>
+      </c>
+      <c r="M184">
+        <v>5</v>
+      </c>
+      <c r="N184" s="46">
+        <f t="shared" ref="N184" si="164">SUM(K184:M184)</f>
+        <v>11198.19</v>
+      </c>
+      <c r="O184" s="46">
+        <f t="shared" ref="O184" si="165">N184-4000</f>
+        <v>7198.1900000000005</v>
+      </c>
+      <c r="P184" s="25">
+        <f>O184-Ahorros!$E$4</f>
+        <v>1698.1900000000005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B185">
+        <v>200</v>
+      </c>
+      <c r="C185" t="s">
+        <v>171</v>
+      </c>
+      <c r="D185" t="s">
+        <v>25</v>
+      </c>
+      <c r="E185" t="s">
+        <v>25</v>
+      </c>
+      <c r="F185" t="s">
+        <v>32</v>
+      </c>
+      <c r="G185" t="s">
+        <v>172</v>
+      </c>
+      <c r="K185">
+        <f>K184-B185</f>
+        <v>4462.18</v>
+      </c>
+      <c r="L185">
+        <v>6531.01</v>
+      </c>
+      <c r="M185">
+        <f>M184+B185</f>
+        <v>205</v>
+      </c>
+      <c r="N185" s="46">
+        <f t="shared" ref="N185" si="166">SUM(K185:M185)</f>
+        <v>11198.19</v>
+      </c>
+      <c r="O185" s="46">
+        <f t="shared" ref="O185" si="167">N185-4000</f>
+        <v>7198.1900000000005</v>
+      </c>
+      <c r="P185" s="25">
+        <f>O185-Ahorros!$E$4</f>
+        <v>1698.1900000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B186">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>174</v>
+      </c>
+      <c r="D186" t="s">
+        <v>104</v>
+      </c>
+      <c r="E186" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" t="s">
+        <v>7</v>
+      </c>
+      <c r="G186" t="s">
+        <v>175</v>
+      </c>
+      <c r="K186">
+        <v>4462.18</v>
+      </c>
+      <c r="L186">
+        <v>6531.01</v>
+      </c>
+      <c r="M186">
+        <f>M185-B186</f>
+        <v>190</v>
+      </c>
+      <c r="N186" s="46">
+        <f t="shared" ref="N186" si="168">SUM(K186:M186)</f>
+        <v>11183.19</v>
+      </c>
+      <c r="O186" s="46">
+        <f t="shared" ref="O186" si="169">N186-4000</f>
+        <v>7183.1900000000005</v>
+      </c>
+      <c r="P186" s="25">
+        <f>O186-Ahorros!$E$4</f>
+        <v>1683.1900000000005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B187">
+        <v>459</v>
+      </c>
+      <c r="C187" t="s">
+        <v>242</v>
+      </c>
+      <c r="D187" t="s">
+        <v>243</v>
+      </c>
+      <c r="E187" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" t="s">
+        <v>84</v>
+      </c>
+      <c r="K187">
+        <v>4462.18</v>
+      </c>
+      <c r="L187">
+        <f>L186-B187</f>
+        <v>6072.01</v>
+      </c>
+      <c r="M187">
+        <v>190</v>
+      </c>
+      <c r="N187" s="46">
+        <f t="shared" ref="N187:N188" si="170">SUM(K187:M187)</f>
+        <v>10724.19</v>
+      </c>
+      <c r="O187" s="46">
+        <f t="shared" ref="O187:O188" si="171">N187-4000</f>
+        <v>6724.1900000000005</v>
+      </c>
+      <c r="P187" s="25">
+        <f>O187-Ahorros!$E$4</f>
+        <v>1224.1900000000005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B188">
+        <v>239</v>
+      </c>
+      <c r="C188" t="s">
+        <v>244</v>
+      </c>
+      <c r="D188" t="s">
+        <v>243</v>
+      </c>
+      <c r="E188" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" t="s">
+        <v>84</v>
+      </c>
+      <c r="K188">
+        <v>4462.18</v>
+      </c>
+      <c r="L188" s="46">
+        <f>L187-B188</f>
+        <v>5833.01</v>
+      </c>
+      <c r="M188">
+        <v>190</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="170"/>
+        <v>10485.19</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="171"/>
+        <v>6485.1900000000005</v>
+      </c>
+      <c r="P188" s="25">
+        <f>O188-Ahorros!$E$4</f>
+        <v>985.19000000000051</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B189">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>231</v>
+      </c>
+      <c r="D189" t="s">
+        <v>82</v>
+      </c>
+      <c r="E189" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" t="s">
+        <v>84</v>
+      </c>
+      <c r="K189">
+        <v>4462.18</v>
+      </c>
+      <c r="L189" s="46">
+        <f>L188-B189</f>
+        <v>5818.01</v>
+      </c>
+      <c r="M189">
+        <v>190</v>
+      </c>
+      <c r="N189" s="46">
+        <f t="shared" ref="N189:N204" si="172">SUM(K189:M189)</f>
+        <v>10470.19</v>
+      </c>
+      <c r="O189" s="46">
+        <f t="shared" ref="O189:O204" si="173">N189-4000</f>
+        <v>6470.1900000000005</v>
+      </c>
+      <c r="P189" s="25">
+        <f>O189-Ahorros!$E$4</f>
+        <v>970.19000000000051</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B190">
+        <v>12.95</v>
+      </c>
+      <c r="C190" t="s">
+        <v>245</v>
+      </c>
+      <c r="D190" t="s">
+        <v>82</v>
+      </c>
+      <c r="E190" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" t="s">
+        <v>84</v>
+      </c>
+      <c r="K190">
+        <v>4462.18</v>
+      </c>
+      <c r="L190">
+        <f>L189-B190</f>
+        <v>5805.06</v>
+      </c>
+      <c r="M190">
+        <v>190</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="172"/>
+        <v>10457.240000000002</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="173"/>
+        <v>6457.2400000000016</v>
+      </c>
+      <c r="P190" s="25">
+        <f>O190-Ahorros!$E$4</f>
+        <v>957.2400000000016</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B191">
+        <v>19.55</v>
+      </c>
+      <c r="C191" t="s">
+        <v>146</v>
+      </c>
+      <c r="D191" t="s">
+        <v>82</v>
+      </c>
+      <c r="E191" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" t="s">
+        <v>84</v>
+      </c>
+      <c r="K191">
+        <v>4462.18</v>
+      </c>
+      <c r="L191" s="46">
+        <f>L190-B191</f>
+        <v>5785.51</v>
+      </c>
+      <c r="M191">
+        <v>190</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="172"/>
+        <v>10437.69</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="173"/>
+        <v>6437.6900000000005</v>
+      </c>
+      <c r="P191" s="25">
+        <f>O191-Ahorros!$E$4</f>
+        <v>937.69000000000051</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B192">
+        <v>26</v>
+      </c>
+      <c r="C192" t="s">
+        <v>246</v>
+      </c>
+      <c r="D192" t="s">
+        <v>82</v>
+      </c>
+      <c r="E192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" t="s">
+        <v>84</v>
+      </c>
+      <c r="K192">
+        <v>4462.18</v>
+      </c>
+      <c r="L192" s="46">
+        <f>L191-B192</f>
+        <v>5759.51</v>
+      </c>
+      <c r="M192">
+        <v>190</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="172"/>
+        <v>10411.69</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="173"/>
+        <v>6411.6900000000005</v>
+      </c>
+      <c r="P192" s="25">
+        <f>O192-Ahorros!$E$4</f>
+        <v>911.69000000000051</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B193">
+        <v>43</v>
+      </c>
+      <c r="C193" t="s">
+        <v>126</v>
+      </c>
+      <c r="D193" t="s">
+        <v>82</v>
+      </c>
+      <c r="E193" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" t="s">
+        <v>84</v>
+      </c>
+      <c r="K193">
+        <v>4462.18</v>
+      </c>
+      <c r="L193" s="46">
+        <f>L192-B193</f>
+        <v>5716.51</v>
+      </c>
+      <c r="M193">
+        <v>190</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="172"/>
+        <v>10368.69</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="173"/>
+        <v>6368.6900000000005</v>
+      </c>
+      <c r="P193" s="25">
+        <f>O193-Ahorros!$E$4</f>
+        <v>868.69000000000051</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B194">
+        <v>26.9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>147</v>
+      </c>
+      <c r="D194" t="s">
+        <v>82</v>
+      </c>
+      <c r="E194" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" t="s">
+        <v>84</v>
+      </c>
+      <c r="K194">
+        <v>4462.18</v>
+      </c>
+      <c r="L194" s="46">
+        <f>L193-B194</f>
+        <v>5689.6100000000006</v>
+      </c>
+      <c r="M194">
+        <v>190</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="172"/>
+        <v>10341.790000000001</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="173"/>
+        <v>6341.7900000000009</v>
+      </c>
+      <c r="P194" s="25">
+        <f>O194-Ahorros!$E$4</f>
+        <v>841.79000000000087</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B195">
+        <v>15.65</v>
+      </c>
+      <c r="C195" t="s">
+        <v>247</v>
+      </c>
+      <c r="D195" t="s">
+        <v>82</v>
+      </c>
+      <c r="E195" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" t="s">
+        <v>84</v>
+      </c>
+      <c r="K195">
+        <v>4462.18</v>
+      </c>
+      <c r="L195" s="46">
+        <f>L194-B195</f>
+        <v>5673.9600000000009</v>
+      </c>
+      <c r="M195">
+        <v>190</v>
+      </c>
+      <c r="N195">
+        <f t="shared" si="172"/>
+        <v>10326.140000000001</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="173"/>
+        <v>6326.1400000000012</v>
+      </c>
+      <c r="P195" s="25">
+        <f>O195-Ahorros!$E$4</f>
+        <v>826.14000000000124</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B196">
+        <v>56.6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>83</v>
+      </c>
+      <c r="D196" t="s">
+        <v>82</v>
+      </c>
+      <c r="E196" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" t="s">
+        <v>84</v>
+      </c>
+      <c r="K196">
+        <v>4462.18</v>
+      </c>
+      <c r="L196" s="46">
+        <f>L195-B196</f>
+        <v>5617.3600000000006</v>
+      </c>
+      <c r="M196">
+        <v>190</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="172"/>
+        <v>10269.540000000001</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="173"/>
+        <v>6269.5400000000009</v>
+      </c>
+      <c r="P196" s="25">
+        <f>O196-Ahorros!$E$4</f>
+        <v>769.54000000000087</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B197">
+        <v>13.5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>182</v>
+      </c>
+      <c r="D197" t="s">
+        <v>82</v>
+      </c>
+      <c r="E197" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" t="s">
+        <v>84</v>
+      </c>
+      <c r="K197">
+        <v>4462.18</v>
+      </c>
+      <c r="L197" s="46">
+        <f>L196-B197</f>
+        <v>5603.8600000000006</v>
+      </c>
+      <c r="M197">
+        <v>190</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="172"/>
+        <v>10256.040000000001</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="173"/>
+        <v>6256.0400000000009</v>
+      </c>
+      <c r="P197" s="25">
+        <f>O197-Ahorros!$E$4</f>
+        <v>756.04000000000087</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B198">
+        <v>25.5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>152</v>
+      </c>
+      <c r="D198" t="s">
+        <v>82</v>
+      </c>
+      <c r="E198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" t="s">
+        <v>84</v>
+      </c>
+      <c r="K198">
+        <v>4462.18</v>
+      </c>
+      <c r="L198" s="46">
+        <f>L197-B198</f>
+        <v>5578.3600000000006</v>
+      </c>
+      <c r="M198">
+        <v>190</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="172"/>
+        <v>10230.540000000001</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="173"/>
+        <v>6230.5400000000009</v>
+      </c>
+      <c r="P198" s="25">
+        <f>O198-Ahorros!$E$4</f>
+        <v>730.54000000000087</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B199">
+        <v>22.25</v>
+      </c>
+      <c r="C199" t="s">
+        <v>153</v>
+      </c>
+      <c r="D199" t="s">
+        <v>82</v>
+      </c>
+      <c r="E199" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" t="s">
+        <v>84</v>
+      </c>
+      <c r="K199">
+        <v>4462.18</v>
+      </c>
+      <c r="L199" s="46">
+        <f>L198-B199</f>
+        <v>5556.1100000000006</v>
+      </c>
+      <c r="M199">
+        <v>190</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="172"/>
+        <v>10208.290000000001</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="173"/>
+        <v>6208.2900000000009</v>
+      </c>
+      <c r="P199" s="25">
+        <f>O199-Ahorros!$E$4</f>
+        <v>708.29000000000087</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B200">
+        <v>10.6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>248</v>
+      </c>
+      <c r="D200" t="s">
+        <v>82</v>
+      </c>
+      <c r="E200" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" t="s">
+        <v>84</v>
+      </c>
+      <c r="K200">
+        <v>4462.18</v>
+      </c>
+      <c r="L200" s="46">
+        <f>L199-B200</f>
+        <v>5545.51</v>
+      </c>
+      <c r="M200">
+        <v>190</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="172"/>
+        <v>10197.69</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="173"/>
+        <v>6197.6900000000005</v>
+      </c>
+      <c r="P200" s="25">
+        <f>O200-Ahorros!$E$4</f>
+        <v>697.69000000000051</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B201">
+        <v>37.25</v>
+      </c>
+      <c r="C201" t="s">
+        <v>87</v>
+      </c>
+      <c r="D201" t="s">
+        <v>82</v>
+      </c>
+      <c r="E201" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" t="s">
+        <v>84</v>
+      </c>
+      <c r="K201">
+        <v>4462.18</v>
+      </c>
+      <c r="L201" s="46">
+        <f>L200-B201</f>
+        <v>5508.26</v>
+      </c>
+      <c r="M201">
+        <v>190</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="172"/>
+        <v>10160.44</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="173"/>
+        <v>6160.4400000000005</v>
+      </c>
+      <c r="P201" s="25">
+        <f>O201-Ahorros!$E$4</f>
+        <v>660.44000000000051</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B202">
+        <v>9.5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>249</v>
+      </c>
+      <c r="D202" t="s">
+        <v>82</v>
+      </c>
+      <c r="E202" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" t="s">
+        <v>84</v>
+      </c>
+      <c r="K202">
+        <v>4462.18</v>
+      </c>
+      <c r="L202" s="46">
+        <f>L201-B202</f>
+        <v>5498.76</v>
+      </c>
+      <c r="M202">
+        <v>190</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="172"/>
+        <v>10150.94</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="173"/>
+        <v>6150.9400000000005</v>
+      </c>
+      <c r="P202" s="25">
+        <f>O202-Ahorros!$E$4</f>
+        <v>650.94000000000051</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B203">
+        <v>9.5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>250</v>
+      </c>
+      <c r="D203" t="s">
+        <v>82</v>
+      </c>
+      <c r="E203" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" t="s">
+        <v>84</v>
+      </c>
+      <c r="K203">
+        <v>4462.18</v>
+      </c>
+      <c r="L203" s="46">
+        <f>L202-B203</f>
+        <v>5489.26</v>
+      </c>
+      <c r="M203">
+        <v>190</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="172"/>
+        <v>10141.44</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="173"/>
+        <v>6141.4400000000005</v>
+      </c>
+      <c r="P203" s="25">
+        <f>O203-Ahorros!$E$4</f>
+        <v>641.44000000000051</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B204">
+        <v>11.5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>251</v>
+      </c>
+      <c r="D204" t="s">
+        <v>220</v>
+      </c>
+      <c r="E204" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" t="s">
+        <v>84</v>
+      </c>
+      <c r="K204">
+        <v>4462.18</v>
+      </c>
+      <c r="L204" s="46">
+        <f>L203-B204</f>
+        <v>5477.76</v>
+      </c>
+      <c r="M204">
+        <v>190</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="172"/>
+        <v>10129.94</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="173"/>
+        <v>6129.9400000000005</v>
+      </c>
+      <c r="P204" s="25">
+        <f>O204-Ahorros!$E$4</f>
+        <v>629.94000000000051</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B205">
+        <v>225</v>
+      </c>
+      <c r="C205" t="s">
+        <v>157</v>
+      </c>
+      <c r="D205" t="s">
+        <v>48</v>
+      </c>
+      <c r="E205" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205" t="s">
+        <v>32</v>
+      </c>
+      <c r="G205" t="s">
+        <v>49</v>
+      </c>
+      <c r="K205">
+        <f>K204-B205</f>
+        <v>4237.18</v>
+      </c>
+      <c r="L205">
+        <v>5477.76</v>
+      </c>
+      <c r="M205">
+        <v>190</v>
+      </c>
+      <c r="N205" s="46">
+        <f t="shared" ref="N205" si="174">SUM(K205:M205)</f>
+        <v>9904.94</v>
+      </c>
+      <c r="O205" s="46">
+        <f t="shared" ref="O205" si="175">N205-4000</f>
+        <v>5904.9400000000005</v>
+      </c>
+      <c r="P205" s="25">
+        <f>O205-Ahorros!$E$4</f>
+        <v>404.94000000000051</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B206">
+        <v>15</v>
+      </c>
+      <c r="C206" t="s">
+        <v>176</v>
+      </c>
+      <c r="D206" t="s">
+        <v>128</v>
+      </c>
+      <c r="E206" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" t="s">
+        <v>7</v>
+      </c>
+      <c r="G206" t="s">
+        <v>84</v>
+      </c>
+      <c r="K206">
+        <v>4237.18</v>
+      </c>
+      <c r="L206">
+        <v>5477.76</v>
+      </c>
+      <c r="M206">
+        <f>M205-B206</f>
+        <v>175</v>
+      </c>
+      <c r="N206" s="46">
+        <f t="shared" ref="N206:N208" si="176">SUM(K206:M206)</f>
+        <v>9889.94</v>
+      </c>
+      <c r="O206" s="46">
+        <f t="shared" ref="O206:O208" si="177">N206-4000</f>
+        <v>5889.9400000000005</v>
+      </c>
+      <c r="P206" s="25">
+        <f>O206-Ahorros!$E$4</f>
+        <v>389.94000000000051</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B207">
+        <v>38</v>
+      </c>
+      <c r="C207" t="s">
+        <v>99</v>
+      </c>
+      <c r="D207" t="s">
+        <v>82</v>
+      </c>
+      <c r="E207" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207" t="s">
+        <v>7</v>
+      </c>
+      <c r="G207" t="s">
+        <v>81</v>
+      </c>
+      <c r="K207">
+        <v>4237.18</v>
+      </c>
+      <c r="L207">
+        <v>5477.76</v>
+      </c>
+      <c r="M207">
+        <f>M206-B207</f>
+        <v>137</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="176"/>
+        <v>9851.94</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="177"/>
+        <v>5851.9400000000005</v>
+      </c>
+      <c r="P207" s="25">
+        <f>O207-Ahorros!$E$4</f>
+        <v>351.94000000000051</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B208">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>177</v>
+      </c>
+      <c r="D208" t="s">
+        <v>43</v>
+      </c>
+      <c r="E208" t="s">
+        <v>22</v>
+      </c>
+      <c r="F208" t="s">
+        <v>7</v>
+      </c>
+      <c r="G208" t="s">
+        <v>44</v>
+      </c>
+      <c r="K208">
+        <v>4237.18</v>
+      </c>
+      <c r="L208">
+        <v>5477.76</v>
+      </c>
+      <c r="M208">
+        <f>M207-B208</f>
+        <v>127</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="176"/>
+        <v>9841.94</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="177"/>
+        <v>5841.9400000000005</v>
+      </c>
+      <c r="P208" s="25">
+        <f>O208-Ahorros!$E$4</f>
+        <v>341.94000000000051</v>
       </c>
     </row>
   </sheetData>
@@ -9439,7 +10695,7 @@
   <dimension ref="A2:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9449,15 +10705,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9518,6 +10774,12 @@
       </c>
       <c r="B7">
         <v>500</v>
+      </c>
+      <c r="H7">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43603</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1E6BA-F754-4179-AC7C-43585843AC7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F34CFE2-2F60-4128-94F5-5355FD8BD223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="258">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -817,6 +817,24 @@
   </si>
   <si>
     <t>Toalla de Cocina</t>
+  </si>
+  <si>
+    <t>Panquecitos Gotas</t>
+  </si>
+  <si>
+    <t>Alitas Hot Wings</t>
+  </si>
+  <si>
+    <t>Hot Wings</t>
+  </si>
+  <si>
+    <t>Propina Hot Wings</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Transporte</t>
   </si>
 </sst>
 </file>
@@ -969,7 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1009,6 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1302,11 +1321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V208"/>
+  <dimension ref="A1:V214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
+      <pane ySplit="3" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q214" sqref="Q214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,21 +1341,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8966,7 +8985,7 @@
         <v>4856.18</v>
       </c>
       <c r="L177">
-        <f>L176-B177</f>
+        <f t="shared" ref="L177:L183" si="164">L176-B177</f>
         <v>6738.73</v>
       </c>
       <c r="M177">
@@ -9011,7 +9030,7 @@
         <v>4856.18</v>
       </c>
       <c r="L178">
-        <f>L177-B178</f>
+        <f t="shared" si="164"/>
         <v>6719.23</v>
       </c>
       <c r="M178">
@@ -9056,7 +9075,7 @@
         <v>4856.18</v>
       </c>
       <c r="L179" s="45">
-        <f>L178-B179</f>
+        <f t="shared" si="164"/>
         <v>6695.23</v>
       </c>
       <c r="M179">
@@ -9101,7 +9120,7 @@
         <v>4856.18</v>
       </c>
       <c r="L180" s="45">
-        <f>L179-B180</f>
+        <f t="shared" si="164"/>
         <v>6677.23</v>
       </c>
       <c r="M180">
@@ -9146,7 +9165,7 @@
         <v>4856.18</v>
       </c>
       <c r="L181" s="45">
-        <f>L180-B181</f>
+        <f t="shared" si="164"/>
         <v>6668.23</v>
       </c>
       <c r="M181">
@@ -9191,7 +9210,7 @@
         <v>4856.18</v>
       </c>
       <c r="L182">
-        <f>L181-B182</f>
+        <f t="shared" si="164"/>
         <v>6546.0099999999993</v>
       </c>
       <c r="M182">
@@ -9236,7 +9255,7 @@
         <v>4856.18</v>
       </c>
       <c r="L183" s="46">
-        <f>L182-B183</f>
+        <f t="shared" si="164"/>
         <v>6531.0099999999993</v>
       </c>
       <c r="M183">
@@ -9288,11 +9307,11 @@
         <v>5</v>
       </c>
       <c r="N184" s="46">
-        <f t="shared" ref="N184" si="164">SUM(K184:M184)</f>
+        <f t="shared" ref="N184" si="165">SUM(K184:M184)</f>
         <v>11198.19</v>
       </c>
       <c r="O184" s="46">
-        <f t="shared" ref="O184" si="165">N184-4000</f>
+        <f t="shared" ref="O184" si="166">N184-4000</f>
         <v>7198.1900000000005</v>
       </c>
       <c r="P184" s="25">
@@ -9334,11 +9353,11 @@
         <v>205</v>
       </c>
       <c r="N185" s="46">
-        <f t="shared" ref="N185" si="166">SUM(K185:M185)</f>
+        <f t="shared" ref="N185" si="167">SUM(K185:M185)</f>
         <v>11198.19</v>
       </c>
       <c r="O185" s="46">
-        <f t="shared" ref="O185" si="167">N185-4000</f>
+        <f t="shared" ref="O185" si="168">N185-4000</f>
         <v>7198.1900000000005</v>
       </c>
       <c r="P185" s="25">
@@ -9379,11 +9398,11 @@
         <v>190</v>
       </c>
       <c r="N186" s="46">
-        <f t="shared" ref="N186" si="168">SUM(K186:M186)</f>
+        <f t="shared" ref="N186" si="169">SUM(K186:M186)</f>
         <v>11183.19</v>
       </c>
       <c r="O186" s="46">
-        <f t="shared" ref="O186" si="169">N186-4000</f>
+        <f t="shared" ref="O186" si="170">N186-4000</f>
         <v>7183.1900000000005</v>
       </c>
       <c r="P186" s="25">
@@ -9417,18 +9436,18 @@
         <v>4462.18</v>
       </c>
       <c r="L187">
-        <f>L186-B187</f>
+        <f t="shared" ref="L187:L204" si="171">L186-B187</f>
         <v>6072.01</v>
       </c>
       <c r="M187">
         <v>190</v>
       </c>
       <c r="N187" s="46">
-        <f t="shared" ref="N187:N188" si="170">SUM(K187:M187)</f>
+        <f t="shared" ref="N187:N188" si="172">SUM(K187:M187)</f>
         <v>10724.19</v>
       </c>
       <c r="O187" s="46">
-        <f t="shared" ref="O187:O188" si="171">N187-4000</f>
+        <f t="shared" ref="O187:O188" si="173">N187-4000</f>
         <v>6724.1900000000005</v>
       </c>
       <c r="P187" s="25">
@@ -9462,18 +9481,18 @@
         <v>4462.18</v>
       </c>
       <c r="L188" s="46">
-        <f>L187-B188</f>
+        <f t="shared" si="171"/>
         <v>5833.01</v>
       </c>
       <c r="M188">
         <v>190</v>
       </c>
       <c r="N188">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>10485.19</v>
       </c>
       <c r="O188">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>6485.1900000000005</v>
       </c>
       <c r="P188" s="25">
@@ -9507,18 +9526,18 @@
         <v>4462.18</v>
       </c>
       <c r="L189" s="46">
-        <f>L188-B189</f>
+        <f t="shared" si="171"/>
         <v>5818.01</v>
       </c>
       <c r="M189">
         <v>190</v>
       </c>
       <c r="N189" s="46">
-        <f t="shared" ref="N189:N204" si="172">SUM(K189:M189)</f>
+        <f t="shared" ref="N189:N204" si="174">SUM(K189:M189)</f>
         <v>10470.19</v>
       </c>
       <c r="O189" s="46">
-        <f t="shared" ref="O189:O204" si="173">N189-4000</f>
+        <f t="shared" ref="O189:O204" si="175">N189-4000</f>
         <v>6470.1900000000005</v>
       </c>
       <c r="P189" s="25">
@@ -9552,18 +9571,18 @@
         <v>4462.18</v>
       </c>
       <c r="L190">
-        <f>L189-B190</f>
+        <f t="shared" si="171"/>
         <v>5805.06</v>
       </c>
       <c r="M190">
         <v>190</v>
       </c>
       <c r="N190">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10457.240000000002</v>
       </c>
       <c r="O190">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6457.2400000000016</v>
       </c>
       <c r="P190" s="25">
@@ -9597,18 +9616,18 @@
         <v>4462.18</v>
       </c>
       <c r="L191" s="46">
-        <f>L190-B191</f>
+        <f t="shared" si="171"/>
         <v>5785.51</v>
       </c>
       <c r="M191">
         <v>190</v>
       </c>
       <c r="N191">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10437.69</v>
       </c>
       <c r="O191">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6437.6900000000005</v>
       </c>
       <c r="P191" s="25">
@@ -9642,18 +9661,18 @@
         <v>4462.18</v>
       </c>
       <c r="L192" s="46">
-        <f>L191-B192</f>
+        <f t="shared" si="171"/>
         <v>5759.51</v>
       </c>
       <c r="M192">
         <v>190</v>
       </c>
       <c r="N192">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10411.69</v>
       </c>
       <c r="O192">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6411.6900000000005</v>
       </c>
       <c r="P192" s="25">
@@ -9687,18 +9706,18 @@
         <v>4462.18</v>
       </c>
       <c r="L193" s="46">
-        <f>L192-B193</f>
+        <f t="shared" si="171"/>
         <v>5716.51</v>
       </c>
       <c r="M193">
         <v>190</v>
       </c>
       <c r="N193">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10368.69</v>
       </c>
       <c r="O193">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6368.6900000000005</v>
       </c>
       <c r="P193" s="25">
@@ -9732,18 +9751,18 @@
         <v>4462.18</v>
       </c>
       <c r="L194" s="46">
-        <f>L193-B194</f>
+        <f t="shared" si="171"/>
         <v>5689.6100000000006</v>
       </c>
       <c r="M194">
         <v>190</v>
       </c>
       <c r="N194">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10341.790000000001</v>
       </c>
       <c r="O194">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6341.7900000000009</v>
       </c>
       <c r="P194" s="25">
@@ -9777,18 +9796,18 @@
         <v>4462.18</v>
       </c>
       <c r="L195" s="46">
-        <f>L194-B195</f>
+        <f t="shared" si="171"/>
         <v>5673.9600000000009</v>
       </c>
       <c r="M195">
         <v>190</v>
       </c>
       <c r="N195">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10326.140000000001</v>
       </c>
       <c r="O195">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6326.1400000000012</v>
       </c>
       <c r="P195" s="25">
@@ -9822,18 +9841,18 @@
         <v>4462.18</v>
       </c>
       <c r="L196" s="46">
-        <f>L195-B196</f>
+        <f t="shared" si="171"/>
         <v>5617.3600000000006</v>
       </c>
       <c r="M196">
         <v>190</v>
       </c>
       <c r="N196">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10269.540000000001</v>
       </c>
       <c r="O196">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6269.5400000000009</v>
       </c>
       <c r="P196" s="25">
@@ -9867,18 +9886,18 @@
         <v>4462.18</v>
       </c>
       <c r="L197" s="46">
-        <f>L196-B197</f>
+        <f t="shared" si="171"/>
         <v>5603.8600000000006</v>
       </c>
       <c r="M197">
         <v>190</v>
       </c>
       <c r="N197">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10256.040000000001</v>
       </c>
       <c r="O197">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6256.0400000000009</v>
       </c>
       <c r="P197" s="25">
@@ -9912,18 +9931,18 @@
         <v>4462.18</v>
       </c>
       <c r="L198" s="46">
-        <f>L197-B198</f>
+        <f t="shared" si="171"/>
         <v>5578.3600000000006</v>
       </c>
       <c r="M198">
         <v>190</v>
       </c>
       <c r="N198">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10230.540000000001</v>
       </c>
       <c r="O198">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6230.5400000000009</v>
       </c>
       <c r="P198" s="25">
@@ -9957,18 +9976,18 @@
         <v>4462.18</v>
       </c>
       <c r="L199" s="46">
-        <f>L198-B199</f>
+        <f t="shared" si="171"/>
         <v>5556.1100000000006</v>
       </c>
       <c r="M199">
         <v>190</v>
       </c>
       <c r="N199">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10208.290000000001</v>
       </c>
       <c r="O199">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6208.2900000000009</v>
       </c>
       <c r="P199" s="25">
@@ -10002,18 +10021,18 @@
         <v>4462.18</v>
       </c>
       <c r="L200" s="46">
-        <f>L199-B200</f>
+        <f t="shared" si="171"/>
         <v>5545.51</v>
       </c>
       <c r="M200">
         <v>190</v>
       </c>
       <c r="N200">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10197.69</v>
       </c>
       <c r="O200">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6197.6900000000005</v>
       </c>
       <c r="P200" s="25">
@@ -10047,18 +10066,18 @@
         <v>4462.18</v>
       </c>
       <c r="L201" s="46">
-        <f>L200-B201</f>
+        <f t="shared" si="171"/>
         <v>5508.26</v>
       </c>
       <c r="M201">
         <v>190</v>
       </c>
       <c r="N201">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10160.44</v>
       </c>
       <c r="O201">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6160.4400000000005</v>
       </c>
       <c r="P201" s="25">
@@ -10092,18 +10111,18 @@
         <v>4462.18</v>
       </c>
       <c r="L202" s="46">
-        <f>L201-B202</f>
+        <f t="shared" si="171"/>
         <v>5498.76</v>
       </c>
       <c r="M202">
         <v>190</v>
       </c>
       <c r="N202">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10150.94</v>
       </c>
       <c r="O202">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6150.9400000000005</v>
       </c>
       <c r="P202" s="25">
@@ -10137,18 +10156,18 @@
         <v>4462.18</v>
       </c>
       <c r="L203" s="46">
-        <f>L202-B203</f>
+        <f t="shared" si="171"/>
         <v>5489.26</v>
       </c>
       <c r="M203">
         <v>190</v>
       </c>
       <c r="N203">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10141.44</v>
       </c>
       <c r="O203">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6141.4400000000005</v>
       </c>
       <c r="P203" s="25">
@@ -10182,18 +10201,18 @@
         <v>4462.18</v>
       </c>
       <c r="L204" s="46">
-        <f>L203-B204</f>
+        <f t="shared" si="171"/>
         <v>5477.76</v>
       </c>
       <c r="M204">
         <v>190</v>
       </c>
       <c r="N204">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>10129.94</v>
       </c>
       <c r="O204">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>6129.9400000000005</v>
       </c>
       <c r="P204" s="25">
@@ -10234,11 +10253,11 @@
         <v>190</v>
       </c>
       <c r="N205" s="46">
-        <f t="shared" ref="N205" si="174">SUM(K205:M205)</f>
+        <f t="shared" ref="N205" si="176">SUM(K205:M205)</f>
         <v>9904.94</v>
       </c>
       <c r="O205" s="46">
-        <f t="shared" ref="O205" si="175">N205-4000</f>
+        <f t="shared" ref="O205" si="177">N205-4000</f>
         <v>5904.9400000000005</v>
       </c>
       <c r="P205" s="25">
@@ -10279,11 +10298,11 @@
         <v>175</v>
       </c>
       <c r="N206" s="46">
-        <f t="shared" ref="N206:N208" si="176">SUM(K206:M206)</f>
+        <f t="shared" ref="N206:N208" si="178">SUM(K206:M206)</f>
         <v>9889.94</v>
       </c>
       <c r="O206" s="46">
-        <f t="shared" ref="O206:O208" si="177">N206-4000</f>
+        <f t="shared" ref="O206:O208" si="179">N206-4000</f>
         <v>5889.9400000000005</v>
       </c>
       <c r="P206" s="25">
@@ -10324,11 +10343,11 @@
         <v>137</v>
       </c>
       <c r="N207">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>9851.94</v>
       </c>
       <c r="O207">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>5851.9400000000005</v>
       </c>
       <c r="P207" s="25">
@@ -10369,16 +10388,286 @@
         <v>127</v>
       </c>
       <c r="N208">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>9841.94</v>
       </c>
       <c r="O208">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>5841.9400000000005</v>
       </c>
       <c r="P208" s="25">
         <f>O208-Ahorros!$E$4</f>
         <v>341.94000000000051</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>43604</v>
+      </c>
+      <c r="B209">
+        <v>19.5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>252</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" t="s">
+        <v>81</v>
+      </c>
+      <c r="K209">
+        <v>4237.18</v>
+      </c>
+      <c r="L209">
+        <f>L208-B209</f>
+        <v>5458.26</v>
+      </c>
+      <c r="M209">
+        <v>127</v>
+      </c>
+      <c r="N209" s="47">
+        <f t="shared" ref="N209" si="180">SUM(K209:M209)</f>
+        <v>9822.44</v>
+      </c>
+      <c r="O209" s="47">
+        <f t="shared" ref="O209" si="181">N209-4000</f>
+        <v>5822.4400000000005</v>
+      </c>
+      <c r="P209" s="25">
+        <f>O209-Ahorros!$E$4</f>
+        <v>322.44000000000051</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>43604</v>
+      </c>
+      <c r="B210">
+        <v>65</v>
+      </c>
+      <c r="C210" t="s">
+        <v>93</v>
+      </c>
+      <c r="D210" t="s">
+        <v>93</v>
+      </c>
+      <c r="E210" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" t="s">
+        <v>93</v>
+      </c>
+      <c r="K210">
+        <f>K209-B210</f>
+        <v>4172.18</v>
+      </c>
+      <c r="L210">
+        <v>5458.26</v>
+      </c>
+      <c r="M210">
+        <v>127</v>
+      </c>
+      <c r="N210" s="47">
+        <f t="shared" ref="N210" si="182">SUM(K210:M210)</f>
+        <v>9757.44</v>
+      </c>
+      <c r="O210" s="47">
+        <f t="shared" ref="O210" si="183">N210-4000</f>
+        <v>5757.4400000000005</v>
+      </c>
+      <c r="P210" s="25">
+        <f>O210-Ahorros!$E$4</f>
+        <v>257.44000000000051</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B211">
+        <v>181</v>
+      </c>
+      <c r="C211" t="s">
+        <v>253</v>
+      </c>
+      <c r="D211" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" t="s">
+        <v>254</v>
+      </c>
+      <c r="K211">
+        <v>4172.18</v>
+      </c>
+      <c r="L211">
+        <f>L210-B211</f>
+        <v>5277.26</v>
+      </c>
+      <c r="M211">
+        <v>127</v>
+      </c>
+      <c r="N211" s="47">
+        <f t="shared" ref="N211" si="184">SUM(K211:M211)</f>
+        <v>9576.44</v>
+      </c>
+      <c r="O211" s="47">
+        <f t="shared" ref="O211" si="185">N211-4000</f>
+        <v>5576.4400000000005</v>
+      </c>
+      <c r="P211" s="25">
+        <f>O211-Ahorros!$E$4</f>
+        <v>76.440000000000509</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B212">
+        <v>19</v>
+      </c>
+      <c r="C212" t="s">
+        <v>255</v>
+      </c>
+      <c r="D212" t="s">
+        <v>128</v>
+      </c>
+      <c r="E212" t="s">
+        <v>22</v>
+      </c>
+      <c r="F212" t="s">
+        <v>7</v>
+      </c>
+      <c r="G212" t="s">
+        <v>254</v>
+      </c>
+      <c r="K212">
+        <v>4172.18</v>
+      </c>
+      <c r="L212">
+        <v>5277.26</v>
+      </c>
+      <c r="M212">
+        <f>M211-B212</f>
+        <v>108</v>
+      </c>
+      <c r="N212" s="47">
+        <f t="shared" ref="N212:N214" si="186">SUM(K212:M212)</f>
+        <v>9557.44</v>
+      </c>
+      <c r="O212" s="47">
+        <f t="shared" ref="O212:O214" si="187">N212-4000</f>
+        <v>5557.4400000000005</v>
+      </c>
+      <c r="P212" s="25">
+        <f>O212-Ahorros!$E$4</f>
+        <v>57.440000000000509</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>256</v>
+      </c>
+      <c r="D213" t="s">
+        <v>257</v>
+      </c>
+      <c r="E213" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" t="s">
+        <v>7</v>
+      </c>
+      <c r="G213" t="s">
+        <v>73</v>
+      </c>
+      <c r="K213">
+        <v>4172.18</v>
+      </c>
+      <c r="L213">
+        <v>5277.26</v>
+      </c>
+      <c r="M213">
+        <f>M212-B213</f>
+        <v>98</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="186"/>
+        <v>9547.44</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="187"/>
+        <v>5547.4400000000005</v>
+      </c>
+      <c r="P213" s="25">
+        <f>O213-Ahorros!$E$4</f>
+        <v>47.440000000000509</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B214">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>177</v>
+      </c>
+      <c r="D214" t="s">
+        <v>178</v>
+      </c>
+      <c r="E214" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" t="s">
+        <v>7</v>
+      </c>
+      <c r="G214" t="s">
+        <v>44</v>
+      </c>
+      <c r="K214">
+        <v>4172.18</v>
+      </c>
+      <c r="L214">
+        <v>5277.26</v>
+      </c>
+      <c r="M214">
+        <f>M213-B214</f>
+        <v>88</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="186"/>
+        <v>9537.44</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="187"/>
+        <v>5537.4400000000005</v>
+      </c>
+      <c r="P214" s="25">
+        <f>O214-Ahorros!$E$4</f>
+        <v>37.440000000000509</v>
       </c>
     </row>
   </sheetData>
@@ -10705,15 +10994,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F34CFE2-2F60-4128-94F5-5355FD8BD223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA55F2B5-FCA9-42A4-802F-378B730514E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="262">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -835,6 +835,18 @@
   </si>
   <si>
     <t>Transporte</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Aprendizaje</t>
+  </si>
+  <si>
+    <t>Gandhi</t>
+  </si>
+  <si>
+    <t>Cheetos</t>
   </si>
 </sst>
 </file>
@@ -987,7 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1027,6 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1321,11 +1334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V214"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q214" sqref="Q214"/>
+      <pane ySplit="3" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q217" sqref="Q217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,21 +1354,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10552,7 +10565,7 @@
         <v>22</v>
       </c>
       <c r="F212" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G212" t="s">
         <v>254</v>
@@ -10561,11 +10574,11 @@
         <v>4172.18</v>
       </c>
       <c r="L212">
-        <v>5277.26</v>
+        <f>L211-B212</f>
+        <v>5258.26</v>
       </c>
       <c r="M212">
-        <f>M211-B212</f>
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="N212" s="47">
         <f t="shared" ref="N212:N214" si="186">SUM(K212:M212)</f>
@@ -10610,19 +10623,19 @@
       </c>
       <c r="M213">
         <f>M212-B213</f>
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N213">
         <f t="shared" si="186"/>
-        <v>9547.44</v>
+        <v>9566.44</v>
       </c>
       <c r="O213">
         <f t="shared" si="187"/>
-        <v>5547.4400000000005</v>
+        <v>5566.4400000000005</v>
       </c>
       <c r="P213" s="25">
         <f>O213-Ahorros!$E$4</f>
-        <v>47.440000000000509</v>
+        <v>66.440000000000509</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
@@ -10655,19 +10668,154 @@
       </c>
       <c r="M214">
         <f>M213-B214</f>
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N214">
         <f t="shared" si="186"/>
-        <v>9537.44</v>
+        <v>9556.44</v>
       </c>
       <c r="O214">
         <f t="shared" si="187"/>
-        <v>5537.4400000000005</v>
+        <v>5556.4400000000005</v>
       </c>
       <c r="P214" s="25">
         <f>O214-Ahorros!$E$4</f>
-        <v>37.440000000000509</v>
+        <v>56.440000000000509</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>43606</v>
+      </c>
+      <c r="B215">
+        <v>185</v>
+      </c>
+      <c r="C215" t="s">
+        <v>258</v>
+      </c>
+      <c r="D215" t="s">
+        <v>259</v>
+      </c>
+      <c r="E215" t="s">
+        <v>22</v>
+      </c>
+      <c r="F215" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" t="s">
+        <v>260</v>
+      </c>
+      <c r="K215">
+        <v>4172.18</v>
+      </c>
+      <c r="L215">
+        <f>L214-B215</f>
+        <v>5092.26</v>
+      </c>
+      <c r="M215">
+        <v>107</v>
+      </c>
+      <c r="N215" s="48">
+        <f t="shared" ref="N215" si="188">SUM(K215:M215)</f>
+        <v>9371.44</v>
+      </c>
+      <c r="O215" s="48">
+        <f t="shared" ref="O215" si="189">N215-4000</f>
+        <v>5371.4400000000005</v>
+      </c>
+      <c r="P215" s="25">
+        <f>O215-Ahorros!$E$4</f>
+        <v>-128.55999999999949</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>43606</v>
+      </c>
+      <c r="B216">
+        <v>50</v>
+      </c>
+      <c r="C216" t="s">
+        <v>258</v>
+      </c>
+      <c r="D216" t="s">
+        <v>259</v>
+      </c>
+      <c r="E216" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" t="s">
+        <v>32</v>
+      </c>
+      <c r="G216" t="s">
+        <v>260</v>
+      </c>
+      <c r="K216">
+        <f>K215-B216</f>
+        <v>4122.18</v>
+      </c>
+      <c r="L216">
+        <v>5092.26</v>
+      </c>
+      <c r="M216">
+        <v>107</v>
+      </c>
+      <c r="N216" s="48">
+        <f t="shared" ref="N216:N217" si="190">SUM(K216:M216)</f>
+        <v>9321.44</v>
+      </c>
+      <c r="O216" s="48">
+        <f t="shared" ref="O216:O217" si="191">N216-4000</f>
+        <v>5321.4400000000005</v>
+      </c>
+      <c r="P216" s="25">
+        <f>O216-Ahorros!$E$4</f>
+        <v>-178.55999999999949</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>43607</v>
+      </c>
+      <c r="B217">
+        <v>19</v>
+      </c>
+      <c r="C217" t="s">
+        <v>261</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" t="s">
+        <v>81</v>
+      </c>
+      <c r="K217">
+        <f>K216-B217</f>
+        <v>4103.18</v>
+      </c>
+      <c r="L217">
+        <v>5092.26</v>
+      </c>
+      <c r="M217">
+        <v>107</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="190"/>
+        <v>9302.44</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="191"/>
+        <v>5302.4400000000005</v>
+      </c>
+      <c r="P217" s="25">
+        <f>O217-Ahorros!$E$4</f>
+        <v>-197.55999999999949</v>
       </c>
     </row>
   </sheetData>
@@ -10994,15 +11142,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA55F2B5-FCA9-42A4-802F-378B730514E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FCAB93-B7C0-49A0-9ECD-428EC38157A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="282">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -847,6 +847,66 @@
   </si>
   <si>
     <t>Cheetos</t>
+  </si>
+  <si>
+    <t>Bebida</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Cooperación de Internet</t>
+  </si>
+  <si>
+    <t>Chorizo Verde</t>
+  </si>
+  <si>
+    <t>Frijoles</t>
+  </si>
+  <si>
+    <t>Ganchos para Adulto</t>
+  </si>
+  <si>
+    <t>Medallon de Pollo</t>
+  </si>
+  <si>
+    <t>Sabritas Adobadas</t>
+  </si>
+  <si>
+    <t>Plátano</t>
+  </si>
+  <si>
+    <t>Sprite 2Lts</t>
+  </si>
+  <si>
+    <t>Gelatina Light</t>
+  </si>
+  <si>
+    <t>Salsa de Tomate</t>
+  </si>
+  <si>
+    <t>Sopa Maruchan</t>
+  </si>
+  <si>
+    <t>Té de Limón</t>
+  </si>
+  <si>
+    <t>Chocolate Milka</t>
+  </si>
+  <si>
+    <t>Fotos Infantiles</t>
+  </si>
+  <si>
+    <t>Cursos de Patinaje Artístico</t>
+  </si>
+  <si>
+    <t>Cursos</t>
+  </si>
+  <si>
+    <t>Ice Sport Center</t>
+  </si>
+  <si>
+    <t>Carls Jr</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1039,6 +1099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1334,11 +1395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V217"/>
+  <dimension ref="A1:V243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q217" sqref="Q217"/>
+      <pane ySplit="3" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K244" sqref="K244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,21 +1415,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10816,6 +10877,1176 @@
       <c r="P217" s="25">
         <f>O217-Ahorros!$E$4</f>
         <v>-197.55999999999949</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B218">
+        <v>429</v>
+      </c>
+      <c r="C218" t="s">
+        <v>165</v>
+      </c>
+      <c r="D218" t="s">
+        <v>48</v>
+      </c>
+      <c r="E218" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" t="s">
+        <v>166</v>
+      </c>
+      <c r="K218">
+        <v>4103.18</v>
+      </c>
+      <c r="L218">
+        <f>L217-B218</f>
+        <v>4663.26</v>
+      </c>
+      <c r="M218">
+        <v>107</v>
+      </c>
+      <c r="N218" s="49">
+        <f t="shared" ref="N218:N240" si="192">SUM(K218:M218)</f>
+        <v>8873.44</v>
+      </c>
+      <c r="O218" s="49">
+        <f t="shared" ref="O218:O240" si="193">N218-4000</f>
+        <v>4873.4400000000005</v>
+      </c>
+      <c r="P218" s="25">
+        <f>O218-Ahorros!$E$4</f>
+        <v>-626.55999999999949</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B219">
+        <v>12.9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>262</v>
+      </c>
+      <c r="D219" t="s">
+        <v>263</v>
+      </c>
+      <c r="E219" t="s">
+        <v>22</v>
+      </c>
+      <c r="F219" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" t="s">
+        <v>81</v>
+      </c>
+      <c r="K219">
+        <v>4103.18</v>
+      </c>
+      <c r="L219" s="49">
+        <f>L218-B219</f>
+        <v>4650.3600000000006</v>
+      </c>
+      <c r="M219">
+        <v>107</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="192"/>
+        <v>8860.5400000000009</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="193"/>
+        <v>4860.5400000000009</v>
+      </c>
+      <c r="P219" s="25">
+        <f>O219-Ahorros!$E$4</f>
+        <v>-639.45999999999913</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B220">
+        <v>280</v>
+      </c>
+      <c r="C220" t="s">
+        <v>264</v>
+      </c>
+      <c r="D220" t="s">
+        <v>48</v>
+      </c>
+      <c r="E220" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="K220">
+        <v>4103.18</v>
+      </c>
+      <c r="L220">
+        <f>L219+B220</f>
+        <v>4930.3600000000006</v>
+      </c>
+      <c r="M220">
+        <v>107</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="192"/>
+        <v>9140.5400000000009</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="193"/>
+        <v>5140.5400000000009</v>
+      </c>
+      <c r="P220" s="25">
+        <f>O220-Ahorros!$E$4</f>
+        <v>-359.45999999999913</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B221">
+        <v>14.95</v>
+      </c>
+      <c r="C221" t="s">
+        <v>146</v>
+      </c>
+      <c r="D221" t="s">
+        <v>82</v>
+      </c>
+      <c r="E221" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" t="s">
+        <v>84</v>
+      </c>
+      <c r="K221">
+        <v>4103.18</v>
+      </c>
+      <c r="L221">
+        <f>L220-B221</f>
+        <v>4915.4100000000008</v>
+      </c>
+      <c r="M221">
+        <v>107</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="192"/>
+        <v>9125.59</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="193"/>
+        <v>5125.59</v>
+      </c>
+      <c r="P221" s="25">
+        <f>O221-Ahorros!$E$4</f>
+        <v>-374.40999999999985</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B222">
+        <v>22.58</v>
+      </c>
+      <c r="C222" t="s">
+        <v>265</v>
+      </c>
+      <c r="D222" t="s">
+        <v>82</v>
+      </c>
+      <c r="E222" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" t="s">
+        <v>84</v>
+      </c>
+      <c r="K222">
+        <v>4103.18</v>
+      </c>
+      <c r="L222" s="49">
+        <f>L221-B222</f>
+        <v>4892.8300000000008</v>
+      </c>
+      <c r="M222">
+        <v>107</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="192"/>
+        <v>9103.010000000002</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="193"/>
+        <v>5103.010000000002</v>
+      </c>
+      <c r="P222" s="25">
+        <f>O222-Ahorros!$E$4</f>
+        <v>-396.98999999999796</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B223">
+        <v>11.15</v>
+      </c>
+      <c r="C223" t="s">
+        <v>182</v>
+      </c>
+      <c r="D223" t="s">
+        <v>82</v>
+      </c>
+      <c r="E223" t="s">
+        <v>22</v>
+      </c>
+      <c r="F223" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" t="s">
+        <v>84</v>
+      </c>
+      <c r="K223">
+        <v>4103.18</v>
+      </c>
+      <c r="L223" s="49">
+        <f>L222-B223</f>
+        <v>4881.6800000000012</v>
+      </c>
+      <c r="M223">
+        <v>107</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="192"/>
+        <v>9091.86</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="193"/>
+        <v>5091.8600000000006</v>
+      </c>
+      <c r="P223" s="25">
+        <f>O223-Ahorros!$E$4</f>
+        <v>-408.13999999999942</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B224">
+        <v>12.9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>266</v>
+      </c>
+      <c r="D224" t="s">
+        <v>82</v>
+      </c>
+      <c r="E224" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" t="s">
+        <v>84</v>
+      </c>
+      <c r="K224">
+        <v>4103.18</v>
+      </c>
+      <c r="L224" s="49">
+        <f>L223-B224</f>
+        <v>4868.7800000000016</v>
+      </c>
+      <c r="M224">
+        <v>107</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="192"/>
+        <v>9078.9600000000028</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="193"/>
+        <v>5078.9600000000028</v>
+      </c>
+      <c r="P224" s="25">
+        <f>O224-Ahorros!$E$4</f>
+        <v>-421.03999999999724</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B225">
+        <v>21</v>
+      </c>
+      <c r="C225" t="s">
+        <v>152</v>
+      </c>
+      <c r="D225" t="s">
+        <v>82</v>
+      </c>
+      <c r="E225" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225" t="s">
+        <v>18</v>
+      </c>
+      <c r="G225" t="s">
+        <v>84</v>
+      </c>
+      <c r="K225">
+        <v>4103.18</v>
+      </c>
+      <c r="L225" s="49">
+        <f>L224-B225</f>
+        <v>4847.7800000000016</v>
+      </c>
+      <c r="M225">
+        <v>107</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="192"/>
+        <v>9057.9600000000028</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="193"/>
+        <v>5057.9600000000028</v>
+      </c>
+      <c r="P225" s="25">
+        <f>O225-Ahorros!$E$4</f>
+        <v>-442.03999999999724</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B226">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C226" t="s">
+        <v>267</v>
+      </c>
+      <c r="D226" t="s">
+        <v>110</v>
+      </c>
+      <c r="E226" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G226" t="s">
+        <v>84</v>
+      </c>
+      <c r="K226">
+        <v>4103.18</v>
+      </c>
+      <c r="L226" s="49">
+        <f>L225-B226</f>
+        <v>4829.6800000000012</v>
+      </c>
+      <c r="M226">
+        <v>107</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="192"/>
+        <v>9039.86</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="193"/>
+        <v>5039.8600000000006</v>
+      </c>
+      <c r="P226" s="25">
+        <f>O226-Ahorros!$E$4</f>
+        <v>-460.13999999999942</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B227">
+        <v>44</v>
+      </c>
+      <c r="C227" t="s">
+        <v>153</v>
+      </c>
+      <c r="D227" t="s">
+        <v>82</v>
+      </c>
+      <c r="E227" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" t="s">
+        <v>84</v>
+      </c>
+      <c r="K227">
+        <v>4103.18</v>
+      </c>
+      <c r="L227" s="49">
+        <f>L226-B227</f>
+        <v>4785.6800000000012</v>
+      </c>
+      <c r="M227">
+        <v>107</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="192"/>
+        <v>8995.86</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="193"/>
+        <v>4995.8600000000006</v>
+      </c>
+      <c r="P227" s="25">
+        <f>O227-Ahorros!$E$4</f>
+        <v>-504.13999999999942</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B228">
+        <v>32.57</v>
+      </c>
+      <c r="C228" t="s">
+        <v>268</v>
+      </c>
+      <c r="D228" t="s">
+        <v>82</v>
+      </c>
+      <c r="E228" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" t="s">
+        <v>84</v>
+      </c>
+      <c r="K228">
+        <v>4103.18</v>
+      </c>
+      <c r="L228" s="49">
+        <f>L227-B228</f>
+        <v>4753.1100000000015</v>
+      </c>
+      <c r="M228">
+        <v>107</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="192"/>
+        <v>8963.2900000000009</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="193"/>
+        <v>4963.2900000000009</v>
+      </c>
+      <c r="P228" s="25">
+        <f>O228-Ahorros!$E$4</f>
+        <v>-536.70999999999913</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B229">
+        <v>36.25</v>
+      </c>
+      <c r="C229" t="s">
+        <v>87</v>
+      </c>
+      <c r="D229" t="s">
+        <v>82</v>
+      </c>
+      <c r="E229" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" t="s">
+        <v>84</v>
+      </c>
+      <c r="K229">
+        <v>4103.18</v>
+      </c>
+      <c r="L229" s="49">
+        <f>L228-B229</f>
+        <v>4716.8600000000015</v>
+      </c>
+      <c r="M229">
+        <v>107</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="192"/>
+        <v>8927.0400000000009</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="193"/>
+        <v>4927.0400000000009</v>
+      </c>
+      <c r="P229" s="25">
+        <f>O229-Ahorros!$E$4</f>
+        <v>-572.95999999999913</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B230">
+        <v>27.6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>269</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" t="s">
+        <v>22</v>
+      </c>
+      <c r="F230" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" t="s">
+        <v>84</v>
+      </c>
+      <c r="K230">
+        <v>4103.18</v>
+      </c>
+      <c r="L230" s="49">
+        <f>L229-B230</f>
+        <v>4689.2600000000011</v>
+      </c>
+      <c r="M230">
+        <v>107</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="192"/>
+        <v>8899.4400000000023</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="193"/>
+        <v>4899.4400000000023</v>
+      </c>
+      <c r="P230" s="25">
+        <f>O230-Ahorros!$E$4</f>
+        <v>-600.55999999999767</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B231">
+        <v>15.58</v>
+      </c>
+      <c r="C231" t="s">
+        <v>270</v>
+      </c>
+      <c r="D231" t="s">
+        <v>82</v>
+      </c>
+      <c r="E231" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" t="s">
+        <v>18</v>
+      </c>
+      <c r="G231" t="s">
+        <v>84</v>
+      </c>
+      <c r="K231">
+        <v>4103.18</v>
+      </c>
+      <c r="L231" s="49">
+        <f>L230-B231</f>
+        <v>4673.6800000000012</v>
+      </c>
+      <c r="M231">
+        <v>107</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="192"/>
+        <v>8883.86</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="193"/>
+        <v>4883.8600000000006</v>
+      </c>
+      <c r="P231" s="25">
+        <f>O231-Ahorros!$E$4</f>
+        <v>-616.13999999999942</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B232">
+        <v>22</v>
+      </c>
+      <c r="C232" t="s">
+        <v>271</v>
+      </c>
+      <c r="D232" t="s">
+        <v>263</v>
+      </c>
+      <c r="E232" t="s">
+        <v>22</v>
+      </c>
+      <c r="F232" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" t="s">
+        <v>84</v>
+      </c>
+      <c r="K232">
+        <v>4103.18</v>
+      </c>
+      <c r="L232" s="49">
+        <f>L231-B232</f>
+        <v>4651.6800000000012</v>
+      </c>
+      <c r="M232">
+        <v>107</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="192"/>
+        <v>8861.86</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="193"/>
+        <v>4861.8600000000006</v>
+      </c>
+      <c r="P232" s="25">
+        <f>O232-Ahorros!$E$4</f>
+        <v>-638.13999999999942</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B233">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="C233" t="s">
+        <v>272</v>
+      </c>
+      <c r="D233" t="s">
+        <v>82</v>
+      </c>
+      <c r="E233" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" t="s">
+        <v>84</v>
+      </c>
+      <c r="K233">
+        <v>4103.18</v>
+      </c>
+      <c r="L233" s="49">
+        <f>L232-B233</f>
+        <v>4642.630000000001</v>
+      </c>
+      <c r="M233">
+        <v>107</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="192"/>
+        <v>8852.8100000000013</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="193"/>
+        <v>4852.8100000000013</v>
+      </c>
+      <c r="P233" s="25">
+        <f>O233-Ahorros!$E$4</f>
+        <v>-647.18999999999869</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B234">
+        <v>4.3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>273</v>
+      </c>
+      <c r="D234" t="s">
+        <v>82</v>
+      </c>
+      <c r="E234" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" t="s">
+        <v>18</v>
+      </c>
+      <c r="G234" t="s">
+        <v>84</v>
+      </c>
+      <c r="K234">
+        <v>4103.18</v>
+      </c>
+      <c r="L234" s="49">
+        <f>L233-B234</f>
+        <v>4638.3300000000008</v>
+      </c>
+      <c r="M234">
+        <v>107</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="192"/>
+        <v>8848.510000000002</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="193"/>
+        <v>4848.510000000002</v>
+      </c>
+      <c r="P234" s="25">
+        <f>O234-Ahorros!$E$4</f>
+        <v>-651.48999999999796</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B235">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>274</v>
+      </c>
+      <c r="D235" t="s">
+        <v>82</v>
+      </c>
+      <c r="E235" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" t="s">
+        <v>18</v>
+      </c>
+      <c r="G235" t="s">
+        <v>84</v>
+      </c>
+      <c r="K235">
+        <v>4103.18</v>
+      </c>
+      <c r="L235" s="49">
+        <f>L234-B235</f>
+        <v>4627.3300000000008</v>
+      </c>
+      <c r="M235">
+        <v>107</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="192"/>
+        <v>8837.510000000002</v>
+      </c>
+      <c r="O235">
+        <f t="shared" si="193"/>
+        <v>4837.510000000002</v>
+      </c>
+      <c r="P235" s="25">
+        <f>O235-Ahorros!$E$4</f>
+        <v>-662.48999999999796</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B236">
+        <v>15.5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>275</v>
+      </c>
+      <c r="D236" t="s">
+        <v>82</v>
+      </c>
+      <c r="E236" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236" t="s">
+        <v>84</v>
+      </c>
+      <c r="K236">
+        <v>4103.18</v>
+      </c>
+      <c r="L236" s="49">
+        <f>L235-B236</f>
+        <v>4611.8300000000008</v>
+      </c>
+      <c r="M236">
+        <v>107</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="192"/>
+        <v>8822.010000000002</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="193"/>
+        <v>4822.010000000002</v>
+      </c>
+      <c r="P236" s="25">
+        <f>O236-Ahorros!$E$4</f>
+        <v>-677.98999999999796</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B237">
+        <v>85</v>
+      </c>
+      <c r="C237" t="s">
+        <v>93</v>
+      </c>
+      <c r="D237" t="s">
+        <v>93</v>
+      </c>
+      <c r="E237" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" t="s">
+        <v>93</v>
+      </c>
+      <c r="K237">
+        <v>4103.18</v>
+      </c>
+      <c r="L237" s="49">
+        <f>L236-B237</f>
+        <v>4526.8300000000008</v>
+      </c>
+      <c r="M237">
+        <v>107</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="192"/>
+        <v>8737.010000000002</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="193"/>
+        <v>4737.010000000002</v>
+      </c>
+      <c r="P237" s="25">
+        <f>O237-Ahorros!$E$4</f>
+        <v>-762.98999999999796</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B238">
+        <v>302</v>
+      </c>
+      <c r="C238" t="s">
+        <v>276</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" t="s">
+        <v>73</v>
+      </c>
+      <c r="K238">
+        <v>4103.18</v>
+      </c>
+      <c r="L238" s="49">
+        <f>L237-B238</f>
+        <v>4224.8300000000008</v>
+      </c>
+      <c r="M238">
+        <v>107</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="192"/>
+        <v>8435.010000000002</v>
+      </c>
+      <c r="O238">
+        <f t="shared" si="193"/>
+        <v>4435.010000000002</v>
+      </c>
+      <c r="P238" s="25">
+        <f>O238-Ahorros!$E$4</f>
+        <v>-1064.989999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B239">
+        <v>25</v>
+      </c>
+      <c r="C239" t="s">
+        <v>277</v>
+      </c>
+      <c r="D239" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" t="s">
+        <v>113</v>
+      </c>
+      <c r="K239">
+        <v>4103.18</v>
+      </c>
+      <c r="L239" s="49">
+        <f>L238-B239</f>
+        <v>4199.8300000000008</v>
+      </c>
+      <c r="M239">
+        <v>107</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="192"/>
+        <v>8410.010000000002</v>
+      </c>
+      <c r="O239">
+        <f t="shared" si="193"/>
+        <v>4410.010000000002</v>
+      </c>
+      <c r="P239" s="25">
+        <f>O239-Ahorros!$E$4</f>
+        <v>-1089.989999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B240">
+        <v>3700</v>
+      </c>
+      <c r="C240" t="s">
+        <v>278</v>
+      </c>
+      <c r="D240" t="s">
+        <v>279</v>
+      </c>
+      <c r="E240" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" t="s">
+        <v>280</v>
+      </c>
+      <c r="K240">
+        <v>4103.18</v>
+      </c>
+      <c r="L240" s="49">
+        <f>L239-B240</f>
+        <v>499.83000000000084</v>
+      </c>
+      <c r="M240">
+        <v>107</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="192"/>
+        <v>4710.0100000000011</v>
+      </c>
+      <c r="O240">
+        <f t="shared" si="193"/>
+        <v>710.01000000000113</v>
+      </c>
+      <c r="P240" s="25">
+        <f>O240-Ahorros!$E$4</f>
+        <v>-4789.9899999999989</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B241">
+        <v>49</v>
+      </c>
+      <c r="C241" t="s">
+        <v>195</v>
+      </c>
+      <c r="D241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>22</v>
+      </c>
+      <c r="F241" t="s">
+        <v>131</v>
+      </c>
+      <c r="G241" t="s">
+        <v>196</v>
+      </c>
+      <c r="K241">
+        <f>K240-B241</f>
+        <v>4054.1800000000003</v>
+      </c>
+      <c r="L241">
+        <v>499.83</v>
+      </c>
+      <c r="M241">
+        <v>107</v>
+      </c>
+      <c r="N241" s="49">
+        <f t="shared" ref="N241" si="194">SUM(K241:M241)</f>
+        <v>4661.01</v>
+      </c>
+      <c r="O241" s="49">
+        <f t="shared" ref="O241" si="195">N241-4000</f>
+        <v>661.01000000000022</v>
+      </c>
+      <c r="P241" s="25">
+        <f>O241-Ahorros!$E$4</f>
+        <v>-4838.99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B242">
+        <v>68</v>
+      </c>
+      <c r="C242" t="s">
+        <v>281</v>
+      </c>
+      <c r="D242" t="s">
+        <v>31</v>
+      </c>
+      <c r="E242" t="s">
+        <v>22</v>
+      </c>
+      <c r="F242" t="s">
+        <v>7</v>
+      </c>
+      <c r="G242" t="s">
+        <v>281</v>
+      </c>
+      <c r="K242">
+        <v>4054.18</v>
+      </c>
+      <c r="L242">
+        <v>499.83</v>
+      </c>
+      <c r="M242">
+        <f>M241-B242</f>
+        <v>39</v>
+      </c>
+      <c r="N242" s="49">
+        <f t="shared" ref="N242" si="196">SUM(K242:M242)</f>
+        <v>4593.01</v>
+      </c>
+      <c r="O242" s="49">
+        <f t="shared" ref="O242" si="197">N242-4000</f>
+        <v>593.01000000000022</v>
+      </c>
+      <c r="P242" s="25">
+        <f>O242-Ahorros!$E$4</f>
+        <v>-4906.99</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B243">
+        <v>10</v>
+      </c>
+      <c r="C243" t="s">
+        <v>177</v>
+      </c>
+      <c r="D243" t="s">
+        <v>43</v>
+      </c>
+      <c r="E243" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" t="s">
+        <v>7</v>
+      </c>
+      <c r="G243" t="s">
+        <v>44</v>
+      </c>
+      <c r="K243">
+        <v>4054.18</v>
+      </c>
+      <c r="L243">
+        <v>499.83</v>
+      </c>
+      <c r="M243" s="49">
+        <f>M242-B243</f>
+        <v>29</v>
+      </c>
+      <c r="N243" s="49">
+        <f t="shared" ref="N243" si="198">SUM(K243:M243)</f>
+        <v>4583.01</v>
+      </c>
+      <c r="O243" s="49">
+        <f t="shared" ref="O243" si="199">N243-4000</f>
+        <v>583.01000000000022</v>
+      </c>
+      <c r="P243" s="25">
+        <f>O243-Ahorros!$E$4</f>
+        <v>-4916.99</v>
       </c>
     </row>
   </sheetData>
@@ -11142,15 +12373,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FCAB93-B7C0-49A0-9ECD-428EC38157A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AED5E-AFAC-410E-BB21-0F657AB5DB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,8 +1398,8 @@
   <dimension ref="A1:V243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K244" sqref="K244"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11040,7 +11040,7 @@
         <v>4103.18</v>
       </c>
       <c r="L221">
-        <f>L220-B221</f>
+        <f t="shared" ref="L221:L240" si="194">L220-B221</f>
         <v>4915.4100000000008</v>
       </c>
       <c r="M221">
@@ -11085,7 +11085,7 @@
         <v>4103.18</v>
       </c>
       <c r="L222" s="49">
-        <f>L221-B222</f>
+        <f t="shared" si="194"/>
         <v>4892.8300000000008</v>
       </c>
       <c r="M222">
@@ -11130,7 +11130,7 @@
         <v>4103.18</v>
       </c>
       <c r="L223" s="49">
-        <f>L222-B223</f>
+        <f t="shared" si="194"/>
         <v>4881.6800000000012</v>
       </c>
       <c r="M223">
@@ -11175,7 +11175,7 @@
         <v>4103.18</v>
       </c>
       <c r="L224" s="49">
-        <f>L223-B224</f>
+        <f t="shared" si="194"/>
         <v>4868.7800000000016</v>
       </c>
       <c r="M224">
@@ -11220,7 +11220,7 @@
         <v>4103.18</v>
       </c>
       <c r="L225" s="49">
-        <f>L224-B225</f>
+        <f t="shared" si="194"/>
         <v>4847.7800000000016</v>
       </c>
       <c r="M225">
@@ -11265,7 +11265,7 @@
         <v>4103.18</v>
       </c>
       <c r="L226" s="49">
-        <f>L225-B226</f>
+        <f t="shared" si="194"/>
         <v>4829.6800000000012</v>
       </c>
       <c r="M226">
@@ -11310,7 +11310,7 @@
         <v>4103.18</v>
       </c>
       <c r="L227" s="49">
-        <f>L226-B227</f>
+        <f t="shared" si="194"/>
         <v>4785.6800000000012</v>
       </c>
       <c r="M227">
@@ -11355,7 +11355,7 @@
         <v>4103.18</v>
       </c>
       <c r="L228" s="49">
-        <f>L227-B228</f>
+        <f t="shared" si="194"/>
         <v>4753.1100000000015</v>
       </c>
       <c r="M228">
@@ -11400,7 +11400,7 @@
         <v>4103.18</v>
       </c>
       <c r="L229" s="49">
-        <f>L228-B229</f>
+        <f t="shared" si="194"/>
         <v>4716.8600000000015</v>
       </c>
       <c r="M229">
@@ -11445,7 +11445,7 @@
         <v>4103.18</v>
       </c>
       <c r="L230" s="49">
-        <f>L229-B230</f>
+        <f t="shared" si="194"/>
         <v>4689.2600000000011</v>
       </c>
       <c r="M230">
@@ -11490,7 +11490,7 @@
         <v>4103.18</v>
       </c>
       <c r="L231" s="49">
-        <f>L230-B231</f>
+        <f t="shared" si="194"/>
         <v>4673.6800000000012</v>
       </c>
       <c r="M231">
@@ -11535,7 +11535,7 @@
         <v>4103.18</v>
       </c>
       <c r="L232" s="49">
-        <f>L231-B232</f>
+        <f t="shared" si="194"/>
         <v>4651.6800000000012</v>
       </c>
       <c r="M232">
@@ -11580,7 +11580,7 @@
         <v>4103.18</v>
       </c>
       <c r="L233" s="49">
-        <f>L232-B233</f>
+        <f t="shared" si="194"/>
         <v>4642.630000000001</v>
       </c>
       <c r="M233">
@@ -11625,7 +11625,7 @@
         <v>4103.18</v>
       </c>
       <c r="L234" s="49">
-        <f>L233-B234</f>
+        <f t="shared" si="194"/>
         <v>4638.3300000000008</v>
       </c>
       <c r="M234">
@@ -11670,7 +11670,7 @@
         <v>4103.18</v>
       </c>
       <c r="L235" s="49">
-        <f>L234-B235</f>
+        <f t="shared" si="194"/>
         <v>4627.3300000000008</v>
       </c>
       <c r="M235">
@@ -11715,7 +11715,7 @@
         <v>4103.18</v>
       </c>
       <c r="L236" s="49">
-        <f>L235-B236</f>
+        <f t="shared" si="194"/>
         <v>4611.8300000000008</v>
       </c>
       <c r="M236">
@@ -11760,7 +11760,7 @@
         <v>4103.18</v>
       </c>
       <c r="L237" s="49">
-        <f>L236-B237</f>
+        <f t="shared" si="194"/>
         <v>4526.8300000000008</v>
       </c>
       <c r="M237">
@@ -11805,7 +11805,7 @@
         <v>4103.18</v>
       </c>
       <c r="L238" s="49">
-        <f>L237-B238</f>
+        <f t="shared" si="194"/>
         <v>4224.8300000000008</v>
       </c>
       <c r="M238">
@@ -11850,7 +11850,7 @@
         <v>4103.18</v>
       </c>
       <c r="L239" s="49">
-        <f>L238-B239</f>
+        <f t="shared" si="194"/>
         <v>4199.8300000000008</v>
       </c>
       <c r="M239">
@@ -11895,7 +11895,7 @@
         <v>4103.18</v>
       </c>
       <c r="L240" s="49">
-        <f>L239-B240</f>
+        <f t="shared" si="194"/>
         <v>499.83000000000084</v>
       </c>
       <c r="M240">
@@ -11947,11 +11947,11 @@
         <v>107</v>
       </c>
       <c r="N241" s="49">
-        <f t="shared" ref="N241" si="194">SUM(K241:M241)</f>
+        <f t="shared" ref="N241" si="195">SUM(K241:M241)</f>
         <v>4661.01</v>
       </c>
       <c r="O241" s="49">
-        <f t="shared" ref="O241" si="195">N241-4000</f>
+        <f t="shared" ref="O241" si="196">N241-4000</f>
         <v>661.01000000000022</v>
       </c>
       <c r="P241" s="25">
@@ -11992,11 +11992,11 @@
         <v>39</v>
       </c>
       <c r="N242" s="49">
-        <f t="shared" ref="N242" si="196">SUM(K242:M242)</f>
+        <f t="shared" ref="N242" si="197">SUM(K242:M242)</f>
         <v>4593.01</v>
       </c>
       <c r="O242" s="49">
-        <f t="shared" ref="O242" si="197">N242-4000</f>
+        <f t="shared" ref="O242" si="198">N242-4000</f>
         <v>593.01000000000022</v>
       </c>
       <c r="P242" s="25">
@@ -12037,11 +12037,11 @@
         <v>29</v>
       </c>
       <c r="N243" s="49">
-        <f t="shared" ref="N243" si="198">SUM(K243:M243)</f>
+        <f t="shared" ref="N243" si="199">SUM(K243:M243)</f>
         <v>4583.01</v>
       </c>
       <c r="O243" s="49">
-        <f t="shared" ref="O243" si="199">N243-4000</f>
+        <f t="shared" ref="O243" si="200">N243-4000</f>
         <v>583.01000000000022</v>
       </c>
       <c r="P243" s="25">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AED5E-AFAC-410E-BB21-0F657AB5DB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C41AB8-B8B7-4DF6-8E72-B7277D97E7DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="284">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -907,6 +907,12 @@
   </si>
   <si>
     <t>Carls Jr</t>
+  </si>
+  <si>
+    <t>Tarjeta Prepago Netflix</t>
+  </si>
+  <si>
+    <t>Fritos</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1099,6 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1395,11 +1402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V243"/>
+  <dimension ref="A1:V248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="3" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P247" sqref="P247:P248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,21 +1422,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -12047,6 +12054,233 @@
       <c r="P243" s="25">
         <f>O243-Ahorros!$E$4</f>
         <v>-4916.99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43614</v>
+      </c>
+      <c r="B244">
+        <v>498</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244" t="s">
+        <v>25</v>
+      </c>
+      <c r="F244" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" t="s">
+        <v>26</v>
+      </c>
+      <c r="K244">
+        <f>K243+B244</f>
+        <v>4552.18</v>
+      </c>
+      <c r="L244">
+        <f>L243-B244</f>
+        <v>1.8299999999999841</v>
+      </c>
+      <c r="M244">
+        <v>29</v>
+      </c>
+      <c r="N244" s="50">
+        <f t="shared" ref="N244" si="201">SUM(K244:M244)</f>
+        <v>4583.01</v>
+      </c>
+      <c r="O244" s="50">
+        <f t="shared" ref="O244" si="202">N244-4000</f>
+        <v>583.01000000000022</v>
+      </c>
+      <c r="P244" s="25">
+        <f>O244-Ahorros!$E$4</f>
+        <v>-4916.99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B245">
+        <v>300</v>
+      </c>
+      <c r="C245" t="s">
+        <v>171</v>
+      </c>
+      <c r="D245" t="s">
+        <v>25</v>
+      </c>
+      <c r="E245" t="s">
+        <v>25</v>
+      </c>
+      <c r="F245" t="s">
+        <v>131</v>
+      </c>
+      <c r="G245" t="s">
+        <v>172</v>
+      </c>
+      <c r="K245">
+        <f>K244-B245</f>
+        <v>4252.18</v>
+      </c>
+      <c r="L245">
+        <v>1.83</v>
+      </c>
+      <c r="M245">
+        <f>M244+B245</f>
+        <v>329</v>
+      </c>
+      <c r="N245" s="50">
+        <f t="shared" ref="N245" si="203">SUM(K245:M245)</f>
+        <v>4583.01</v>
+      </c>
+      <c r="O245" s="50">
+        <f t="shared" ref="O245" si="204">N245-4000</f>
+        <v>583.01000000000022</v>
+      </c>
+      <c r="P245" s="25">
+        <f>O245-Ahorros!$E$4</f>
+        <v>-4916.99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B246">
+        <v>250</v>
+      </c>
+      <c r="C246" t="s">
+        <v>282</v>
+      </c>
+      <c r="D246" t="s">
+        <v>48</v>
+      </c>
+      <c r="E246" t="s">
+        <v>22</v>
+      </c>
+      <c r="F246" t="s">
+        <v>7</v>
+      </c>
+      <c r="G246" t="s">
+        <v>81</v>
+      </c>
+      <c r="K246">
+        <v>4252.18</v>
+      </c>
+      <c r="L246">
+        <v>1.83</v>
+      </c>
+      <c r="M246">
+        <f>M245-B246</f>
+        <v>79</v>
+      </c>
+      <c r="N246" s="50">
+        <f t="shared" ref="N246" si="205">SUM(K246:M246)</f>
+        <v>4333.01</v>
+      </c>
+      <c r="O246" s="50">
+        <f t="shared" ref="O246" si="206">N246-4000</f>
+        <v>333.01000000000022</v>
+      </c>
+      <c r="P246" s="25">
+        <f>O246-Ahorros!$E$4</f>
+        <v>-5166.99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B247">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>283</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" t="s">
+        <v>22</v>
+      </c>
+      <c r="F247" t="s">
+        <v>7</v>
+      </c>
+      <c r="G247" t="s">
+        <v>81</v>
+      </c>
+      <c r="K247">
+        <v>4252.18</v>
+      </c>
+      <c r="L247">
+        <v>1.83</v>
+      </c>
+      <c r="M247">
+        <f>M246-B247</f>
+        <v>69</v>
+      </c>
+      <c r="N247" s="50">
+        <f t="shared" ref="N247:N248" si="207">SUM(K247:M247)</f>
+        <v>4323.01</v>
+      </c>
+      <c r="O247" s="50">
+        <f t="shared" ref="O247:O248" si="208">N247-4000</f>
+        <v>323.01000000000022</v>
+      </c>
+      <c r="P247" s="25">
+        <f>O247-Ahorros!$E$4</f>
+        <v>-5176.99</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B248">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
+        <v>223</v>
+      </c>
+      <c r="D248" t="s">
+        <v>263</v>
+      </c>
+      <c r="E248" t="s">
+        <v>22</v>
+      </c>
+      <c r="F248" t="s">
+        <v>7</v>
+      </c>
+      <c r="G248" t="s">
+        <v>81</v>
+      </c>
+      <c r="K248">
+        <v>4252.18</v>
+      </c>
+      <c r="L248">
+        <v>1.83</v>
+      </c>
+      <c r="M248">
+        <f>M247-B248</f>
+        <v>60</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="207"/>
+        <v>4314.01</v>
+      </c>
+      <c r="O248">
+        <f t="shared" si="208"/>
+        <v>314.01000000000022</v>
+      </c>
+      <c r="P248" s="25">
+        <f>O248-Ahorros!$E$4</f>
+        <v>-5185.99</v>
       </c>
     </row>
   </sheetData>
@@ -12373,15 +12607,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/data/initial_data.xlsx
+++ b/data/initial_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C41AB8-B8B7-4DF6-8E72-B7277D97E7DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43938EF-5A58-4BB2-8342-906884ADD86D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="287">
   <si>
     <t>Registro de transacciones en el periodo de Marzo de 2019</t>
   </si>
@@ -913,6 +913,15 @@
   </si>
   <si>
     <t>Fritos</t>
+  </si>
+  <si>
+    <t>Fabulosa Papa</t>
+  </si>
+  <si>
+    <t>Las Fabulosas Papas</t>
+  </si>
+  <si>
+    <t>Desayuno</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1105,6 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1402,11 +1412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V248"/>
+  <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P247" sqref="P247:P248"/>
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O253" sqref="O253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,21 +1432,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5026,7 +5036,7 @@
       </c>
       <c r="P87" s="25">
         <f>O87-Ahorros!$E$4</f>
-        <v>306.40999999999985</v>
+        <v>-193.59000000000015</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5071,7 +5081,7 @@
       </c>
       <c r="P88" s="25">
         <f>O88-Ahorros!$E$4</f>
-        <v>286.51000000000022</v>
+        <v>-213.48999999999978</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5116,7 +5126,7 @@
       </c>
       <c r="P89" s="25">
         <f>O89-Ahorros!$E$4</f>
-        <v>-213.48999999999978</v>
+        <v>-713.48999999999978</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5161,7 +5171,7 @@
       </c>
       <c r="P90" s="25">
         <f>O90-Ahorros!$E$4</f>
-        <v>-226.98999999999978</v>
+        <v>-726.98999999999978</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5206,7 +5216,7 @@
       </c>
       <c r="P91" s="25">
         <f>O91-Ahorros!$E$4</f>
-        <v>-285.98999999999978</v>
+        <v>-785.98999999999978</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5251,7 +5261,7 @@
       </c>
       <c r="P92" s="25">
         <f>O92-Ahorros!$E$4</f>
-        <v>-714.98999999999978</v>
+        <v>-1214.9899999999998</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -5296,7 +5306,7 @@
       </c>
       <c r="P93" s="25">
         <f>O93-Ahorros!$E$4</f>
-        <v>-429.98999999999978</v>
+        <v>-929.98999999999978</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -5341,7 +5351,7 @@
       </c>
       <c r="P94" s="25">
         <f>O94-Ahorros!$E$4</f>
-        <v>-442.98999999999978</v>
+        <v>-942.98999999999978</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5386,7 +5396,7 @@
       </c>
       <c r="P95" s="25">
         <f>O95-Ahorros!$E$4</f>
-        <v>-642.98999999999978</v>
+        <v>-1142.9899999999998</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5431,7 +5441,7 @@
       </c>
       <c r="P96" s="25">
         <f>O96-Ahorros!$E$4</f>
-        <v>-657.98999999999978</v>
+        <v>-1157.9899999999998</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -5476,7 +5486,7 @@
       </c>
       <c r="P97" s="25">
         <f>O97-Ahorros!$E$4</f>
-        <v>-670.98999999999978</v>
+        <v>-1170.9899999999998</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -5521,7 +5531,7 @@
       </c>
       <c r="P98" s="25">
         <f>O98-Ahorros!$E$4</f>
-        <v>-680.98999999999978</v>
+        <v>-1180.9899999999998</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -5566,7 +5576,7 @@
       </c>
       <c r="P99" s="25">
         <f>O99-Ahorros!$E$4</f>
-        <v>-714.98999999999978</v>
+        <v>-1214.9899999999998</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -5611,7 +5621,7 @@
       </c>
       <c r="P100" s="25">
         <f>O100-Ahorros!$E$4</f>
-        <v>-779.98999999999978</v>
+        <v>-1279.9899999999998</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -5657,7 +5667,7 @@
       </c>
       <c r="P101" s="25">
         <f>O101-Ahorros!$E$4</f>
-        <v>-779.98999999999978</v>
+        <v>-1279.9899999999998</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -5702,7 +5712,7 @@
       </c>
       <c r="P102" s="25">
         <f>O102-Ahorros!$E$4</f>
-        <v>-873.98999999999978</v>
+        <v>-1373.9899999999998</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -5747,7 +5757,7 @@
       </c>
       <c r="P103" s="25">
         <f>O103-Ahorros!$E$4</f>
-        <v>-908.98999999999978</v>
+        <v>-1408.9899999999998</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -5792,7 +5802,7 @@
       </c>
       <c r="P104" s="25">
         <f>O104-Ahorros!$E$4</f>
-        <v>-913.98999999999978</v>
+        <v>-1413.9899999999998</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -5837,7 +5847,7 @@
       </c>
       <c r="P105" s="25">
         <f>O105-Ahorros!$E$4</f>
-        <v>-928.98999999999978</v>
+        <v>-1428.9899999999998</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -5882,7 +5892,7 @@
       </c>
       <c r="P106" s="25">
         <f>O106-Ahorros!$E$4</f>
-        <v>-952.98999999999978</v>
+        <v>-1452.9899999999998</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -5927,7 +5937,7 @@
       </c>
       <c r="P107" s="25">
         <f>O107-Ahorros!$E$4</f>
-        <v>-986.98999999999978</v>
+        <v>-1486.9899999999998</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -5972,7 +5982,7 @@
       </c>
       <c r="P108" s="25">
         <f>O108-Ahorros!$E$4</f>
-        <v>-998.48999999999978</v>
+        <v>-1498.4899999999998</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -6017,7 +6027,7 @@
       </c>
       <c r="P109" s="25">
         <f>O109-Ahorros!$E$4</f>
-        <v>-1011.9899999999998</v>
+        <v>-1511.9899999999998</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -6062,7 +6072,7 @@
       </c>
       <c r="P110" s="25">
         <f>O110-Ahorros!$E$4</f>
-        <v>-1037.4899999999998</v>
+        <v>-1537.4899999999998</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -6107,7 +6117,7 @@
       </c>
       <c r="P111" s="25">
         <f>O111-Ahorros!$E$4</f>
-        <v>-1058.9899999999998</v>
+        <v>-1558.9899999999998</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -6152,7 +6162,7 @@
       </c>
       <c r="P112" s="25">
         <f>O112-Ahorros!$E$4</f>
-        <v>-1073.9400000000005</v>
+        <v>-1573.9400000000005</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -6197,7 +6207,7 @@
       </c>
       <c r="P113" s="25">
         <f>O113-Ahorros!$E$4</f>
-        <v>-1127.1000000000004</v>
+        <v>-1627.1000000000004</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -6242,7 +6252,7 @@
       </c>
       <c r="P114" s="25">
         <f>O114-Ahorros!$E$4</f>
-        <v>-1164.3500000000004</v>
+        <v>-1664.3500000000004</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -6287,7 +6297,7 @@
       </c>
       <c r="P115" s="25">
         <f>O115-Ahorros!$E$4</f>
-        <v>-1176.3500000000004</v>
+        <v>-1676.3500000000004</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -6332,7 +6342,7 @@
       </c>
       <c r="P116" s="25">
         <f>O116-Ahorros!$E$4</f>
-        <v>-1199.8500000000004</v>
+        <v>-1699.8500000000004</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -6377,7 +6387,7 @@
       </c>
       <c r="P117" s="25">
         <f>O117-Ahorros!$E$4</f>
-        <v>-1284.8500000000004</v>
+        <v>-1784.8500000000004</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -6422,7 +6432,7 @@
       </c>
       <c r="P118" s="25">
         <f>O118-Ahorros!$E$4</f>
-        <v>-1298.3500000000004</v>
+        <v>-1798.3500000000004</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -6467,7 +6477,7 @@
       </c>
       <c r="P119" s="25">
         <f>O119-Ahorros!$E$4</f>
-        <v>-1315.3500000000004</v>
+        <v>-1815.3500000000004</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -6512,7 +6522,7 @@
       </c>
       <c r="P120" s="25">
         <f>O120-Ahorros!$E$4</f>
-        <v>5324.65</v>
+        <v>4824.6499999999996</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -6557,7 +6567,7 @@
       </c>
       <c r="P121" s="25">
         <f>O121-Ahorros!$E$4</f>
-        <v>5309.65</v>
+        <v>4809.6499999999996</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -6602,7 +6612,7 @@
       </c>
       <c r="P122" s="25">
         <f>O122-Ahorros!$E$4</f>
-        <v>5299.65</v>
+        <v>4799.6499999999996</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -6647,7 +6657,7 @@
       </c>
       <c r="P123" s="25">
         <f>O123-Ahorros!$E$4</f>
-        <v>3399.6499999999996</v>
+        <v>2899.6499999999996</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -6692,7 +6702,7 @@
       </c>
       <c r="P124" s="25">
         <f>O124-Ahorros!$E$4</f>
-        <v>3394.6499999999996</v>
+        <v>2894.6499999999996</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -6737,7 +6747,7 @@
       </c>
       <c r="P125" s="25">
         <f>O125-Ahorros!$E$4</f>
-        <v>3297.1499999999996</v>
+        <v>2797.1499999999996</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -6782,7 +6792,7 @@
       </c>
       <c r="P126" s="25">
         <f>O126-Ahorros!$E$4</f>
-        <v>297.14999999999964</v>
+        <v>-202.85000000000036</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -6827,7 +6837,7 @@
       </c>
       <c r="P127" s="25">
         <f>O127-Ahorros!$E$4</f>
-        <v>284.14999999999964</v>
+        <v>-215.85000000000036</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -6872,7 +6882,7 @@
       </c>
       <c r="P128" s="25">
         <f>O128-Ahorros!$E$4</f>
-        <v>235.14999999999964</v>
+        <v>-264.85000000000036</v>
       </c>
       <c r="T128">
         <f>3845.57+27</f>
@@ -6921,7 +6931,7 @@
       </c>
       <c r="P129" s="25">
         <f>O129-Ahorros!$E$4</f>
-        <v>160.14999999999964</v>
+        <v>-339.85000000000036</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -6966,7 +6976,7 @@
       </c>
       <c r="P130" s="25">
         <f>O130-Ahorros!$E$4</f>
-        <v>-39.850000000000364</v>
+        <v>-539.85000000000036</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -7011,7 +7021,7 @@
       </c>
       <c r="P131" s="25">
         <f>O131-Ahorros!$E$4</f>
-        <v>26.149999999999636</v>
+        <v>-473.85000000000036</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -7056,7 +7066,7 @@
       </c>
       <c r="P132" s="25">
         <f>O132-Ahorros!$E$4</f>
-        <v>79.149999999999636</v>
+        <v>-420.85000000000036</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -7101,7 +7111,7 @@
       </c>
       <c r="P133" s="25">
         <f>O133-Ahorros!$E$4</f>
-        <v>59.149999999999636</v>
+        <v>-440.85000000000036</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -7146,7 +7156,7 @@
       </c>
       <c r="P134" s="25">
         <f>O134-Ahorros!$E$4</f>
-        <v>49.149999999999636</v>
+        <v>-450.85000000000036</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -7192,7 +7202,7 @@
       </c>
       <c r="P135" s="25">
         <f>O135-Ahorros!$E$4</f>
-        <v>29.600000000000364</v>
+        <v>-470.39999999999964</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -7237,7 +7247,7 @@
       </c>
       <c r="P136" s="25">
         <f>O136-Ahorros!$E$4</f>
-        <v>4.6000000000003638</v>
+        <v>-495.39999999999964</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -7282,7 +7292,7 @@
       </c>
       <c r="P137" s="25">
         <f>O137-Ahorros!$E$4</f>
-        <v>-28.940000000000509</v>
+        <v>-528.94000000000051</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -7327,7 +7337,7 @@
       </c>
       <c r="P138" s="25">
         <f>O138-Ahorros!$E$4</f>
-        <v>-53.940000000000509</v>
+        <v>-553.94000000000051</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -7372,7 +7382,7 @@
       </c>
       <c r="P139" s="25">
         <f>O139-Ahorros!$E$4</f>
-        <v>-67.840000000000146</v>
+        <v>-567.84000000000015</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -7417,7 +7427,7 @@
       </c>
       <c r="P140" s="25">
         <f>O140-Ahorros!$E$4</f>
-        <v>-103.17000000000007</v>
+        <v>-603.17000000000007</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
@@ -7462,7 +7472,7 @@
       </c>
       <c r="P141" s="25">
         <f>O141-Ahorros!$E$4</f>
-        <v>-114.67000000000007</v>
+        <v>-614.67000000000007</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -7507,7 +7517,7 @@
       </c>
       <c r="P142" s="25">
         <f>O142-Ahorros!$E$4</f>
-        <v>-128.17000000000007</v>
+        <v>-628.17000000000007</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -7552,7 +7562,7 @@
       </c>
       <c r="P143" s="25">
         <f>O143-Ahorros!$E$4</f>
-        <v>-157.67000000000007</v>
+        <v>-657.67000000000007</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
@@ -7597,7 +7607,7 @@
       </c>
       <c r="P144" s="25">
         <f>O144-Ahorros!$E$4</f>
-        <v>-168.72000000000116</v>
+        <v>-668.72000000000116</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -7642,7 +7652,7 @@
       </c>
       <c r="P145" s="25">
         <f>O145-Ahorros!$E$4</f>
-        <v>-190.22000000000116</v>
+        <v>-690.22000000000116</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -7687,7 +7697,7 @@
       </c>
       <c r="P146" s="25">
         <f>O146-Ahorros!$E$4</f>
-        <v>-227.47000000000116</v>
+        <v>-727.47000000000116</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -7732,7 +7742,7 @@
       </c>
       <c r="P147" s="25">
         <f>O147-Ahorros!$E$4</f>
-        <v>-250.29999999999927</v>
+        <v>-750.29999999999927</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -7777,7 +7787,7 @@
       </c>
       <c r="P148" s="25">
         <f>O148-Ahorros!$E$4</f>
-        <v>-256.29999999999927</v>
+        <v>-756.29999999999927</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -7822,7 +7832,7 @@
       </c>
       <c r="P149" s="25">
         <f>O149-Ahorros!$E$4</f>
-        <v>-341.29999999999927</v>
+        <v>-841.29999999999927</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -7867,7 +7877,7 @@
       </c>
       <c r="P150" s="25">
         <f>O150-Ahorros!$E$4</f>
-        <v>-691.29999999999927</v>
+        <v>-1191.2999999999993</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -7912,7 +7922,7 @@
       </c>
       <c r="P151" s="25">
         <f>O151-Ahorros!$E$4</f>
-        <v>-771.29999999999927</v>
+        <v>-1271.2999999999993</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -7957,7 +7967,7 @@
       </c>
       <c r="P152" s="25">
         <f>O152-Ahorros!$E$4</f>
-        <v>-788.79999999999927</v>
+        <v>-1288.7999999999993</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -8002,7 +8012,7 @@
       </c>
       <c r="P153" s="25">
         <f>O153-Ahorros!$E$4</f>
-        <v>-804.40000000000146</v>
+        <v>-1304.4000000000015</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -8047,7 +8057,7 @@
       </c>
       <c r="P154" s="25">
         <f>O154-Ahorros!$E$4</f>
-        <v>-835.70000000000073</v>
+        <v>-1335.7000000000007</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -8092,7 +8102,7 @@
       </c>
       <c r="P155" s="25">
         <f>O155-Ahorros!$E$4</f>
-        <v>-844.70000000000073</v>
+        <v>-1344.7000000000007</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -8137,7 +8147,7 @@
       </c>
       <c r="P156" s="25">
         <f>O156-Ahorros!$E$4</f>
-        <v>-923.70000000000073</v>
+        <v>-1423.7000000000007</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -8182,7 +8192,7 @@
       </c>
       <c r="P157" s="25">
         <f>O157-Ahorros!$E$4</f>
-        <v>-961.70000000000073</v>
+        <v>-1461.7000000000007</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -8227,7 +8237,7 @@
       </c>
       <c r="P158" s="25">
         <f>O158-Ahorros!$E$4</f>
-        <v>-981.70000000000073</v>
+        <v>-1481.7000000000007</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -8272,7 +8282,7 @@
       </c>
       <c r="P159" s="25">
         <f>O159-Ahorros!$E$4</f>
-        <v>-991.70000000000073</v>
+        <v>-1491.7000000000007</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -8317,7 +8327,7 @@
       </c>
       <c r="P160" s="25">
         <f>O160-Ahorros!$E$4</f>
-        <v>-1010.6000000000004</v>
+        <v>-1510.6000000000004</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -8362,7 +8372,7 @@
       </c>
       <c r="P161" s="25">
         <f>O161-Ahorros!$E$4</f>
-        <v>-1234.5599999999995</v>
+        <v>-1734.5599999999995</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -8407,7 +8417,7 @@
       </c>
       <c r="P162" s="25">
         <f>O162-Ahorros!$E$4</f>
-        <v>-1267.0599999999995</v>
+        <v>-1767.0599999999995</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -8452,7 +8462,7 @@
       </c>
       <c r="P163" s="25">
         <f>O163-Ahorros!$E$4</f>
-        <v>-1293.5599999999995</v>
+        <v>-1793.5599999999995</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
@@ -8497,7 +8507,7 @@
       </c>
       <c r="P164" s="25">
         <f>O164-Ahorros!$E$4</f>
-        <v>-1442.5599999999995</v>
+        <v>-1942.5599999999995</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -8542,7 +8552,7 @@
       </c>
       <c r="P165" s="25">
         <f>O165-Ahorros!$E$4</f>
-        <v>-1468.4599999999991</v>
+        <v>-1968.4599999999991</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -8587,7 +8597,7 @@
       </c>
       <c r="P166" s="25">
         <f>O166-Ahorros!$E$4</f>
-        <v>-1480.9599999999991</v>
+        <v>-1980.9599999999991</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -8632,7 +8642,7 @@
       </c>
       <c r="P167" s="25">
         <f>O167-Ahorros!$E$4</f>
-        <v>-1503.7199999999993</v>
+        <v>-2003.7199999999993</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -8677,7 +8687,7 @@
       </c>
       <c r="P168" s="25">
         <f>O168-Ahorros!$E$4</f>
-        <v>-1541.9300000000003</v>
+        <v>-2041.9300000000003</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -8722,7 +8732,7 @@
       </c>
       <c r="P169" s="25">
         <f>O169-Ahorros!$E$4</f>
-        <v>-1553.9300000000003</v>
+        <v>-2053.9300000000003</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
@@ -8767,7 +8777,7 @@
       </c>
       <c r="P170" s="25">
         <f>O170-Ahorros!$E$4</f>
-        <v>-1575.9300000000003</v>
+        <v>-2075.9300000000003</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -8812,7 +8822,7 @@
       </c>
       <c r="P171" s="25">
         <f>O171-Ahorros!$E$4</f>
-        <v>-1591.0900000000001</v>
+        <v>-2091.09</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
@@ -8857,7 +8867,7 @@
       </c>
       <c r="P172" s="25">
         <f>O172-Ahorros!$E$4</f>
-        <v>-1627.3400000000001</v>
+        <v>-2127.34</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
@@ -8902,7 +8912,7 @@
       </c>
       <c r="P173" s="25">
         <f>O173-Ahorros!$E$4</f>
-        <v>-1655.0499999999993</v>
+        <v>-2155.0499999999993</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -8947,7 +8957,7 @@
       </c>
       <c r="P174" s="25">
         <f>O174-Ahorros!$E$4</f>
-        <v>-1717.5900000000001</v>
+        <v>-2217.59</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -8992,7 +9002,7 @@
       </c>
       <c r="P175" s="25">
         <f>O175-Ahorros!$E$4</f>
-        <v>-1727.0900000000001</v>
+        <v>-2227.09</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
@@ -9037,7 +9047,7 @@
       </c>
       <c r="P176" s="25">
         <f>O176-Ahorros!$E$4</f>
-        <v>4099.91</v>
+        <v>3599.91</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
@@ -9082,7 +9092,7 @@
       </c>
       <c r="P177" s="25">
         <f>O177-Ahorros!$E$4</f>
-        <v>2099.91</v>
+        <v>1599.9099999999999</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
@@ -9127,7 +9137,7 @@
       </c>
       <c r="P178" s="25">
         <f>O178-Ahorros!$E$4</f>
-        <v>2080.41</v>
+        <v>1580.4099999999999</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
@@ -9172,7 +9182,7 @@
       </c>
       <c r="P179" s="25">
         <f>O179-Ahorros!$E$4</f>
-        <v>2056.41</v>
+        <v>1556.4099999999999</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -9217,7 +9227,7 @@
       </c>
       <c r="P180" s="25">
         <f>O180-Ahorros!$E$4</f>
-        <v>2038.4099999999999</v>
+        <v>1538.4099999999999</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
@@ -9262,7 +9272,7 @@
       </c>
       <c r="P181" s="25">
         <f>O181-Ahorros!$E$4</f>
-        <v>2029.4099999999999</v>
+        <v>1529.4099999999999</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
@@ -9307,7 +9317,7 @@
       </c>
       <c r="P182" s="25">
         <f>O182-Ahorros!$E$4</f>
-        <v>1907.1899999999987</v>
+        <v>1407.1899999999987</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -9352,7 +9362,7 @@
       </c>
       <c r="P183" s="25">
         <f>O183-Ahorros!$E$4</f>
-        <v>1892.1899999999987</v>
+        <v>1392.1899999999987</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
@@ -9397,7 +9407,7 @@
       </c>
       <c r="P184" s="25">
         <f>O184-Ahorros!$E$4</f>
-        <v>1698.1900000000005</v>
+        <v>1198.1900000000005</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
@@ -9443,7 +9453,7 @@
       </c>
       <c r="P185" s="25">
         <f>O185-Ahorros!$E$4</f>
-        <v>1698.1900000000005</v>
+        <v>1198.1900000000005</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
@@ -9488,7 +9498,7 @@
       </c>
       <c r="P186" s="25">
         <f>O186-Ahorros!$E$4</f>
-        <v>1683.1900000000005</v>
+        <v>1183.1900000000005</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
@@ -9533,7 +9543,7 @@
       </c>
       <c r="P187" s="25">
         <f>O187-Ahorros!$E$4</f>
-        <v>1224.1900000000005</v>
+        <v>724.19000000000051</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
@@ -9578,7 +9588,7 @@
       </c>
       <c r="P188" s="25">
         <f>O188-Ahorros!$E$4</f>
-        <v>985.19000000000051</v>
+        <v>485.19000000000051</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
@@ -9623,7 +9633,7 @@
       </c>
       <c r="P189" s="25">
         <f>O189-Ahorros!$E$4</f>
-        <v>970.19000000000051</v>
+        <v>470.19000000000051</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
@@ -9668,7 +9678,7 @@
       </c>
       <c r="P190" s="25">
         <f>O190-Ahorros!$E$4</f>
-        <v>957.2400000000016</v>
+        <v>457.2400000000016</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
@@ -9713,7 +9723,7 @@
       </c>
       <c r="P191" s="25">
         <f>O191-Ahorros!$E$4</f>
-        <v>937.69000000000051</v>
+        <v>437.69000000000051</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
@@ -9758,7 +9768,7 @@
       </c>
       <c r="P192" s="25">
         <f>O192-Ahorros!$E$4</f>
-        <v>911.69000000000051</v>
+        <v>411.69000000000051</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
@@ -9803,7 +9813,7 @@
       </c>
       <c r="P193" s="25">
         <f>O193-Ahorros!$E$4</f>
-        <v>868.69000000000051</v>
+        <v>368.69000000000051</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
@@ -9848,7 +9858,7 @@
       </c>
       <c r="P194" s="25">
         <f>O194-Ahorros!$E$4</f>
-        <v>841.79000000000087</v>
+        <v>341.79000000000087</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
@@ -9893,7 +9903,7 @@
       </c>
       <c r="P195" s="25">
         <f>O195-Ahorros!$E$4</f>
-        <v>826.14000000000124</v>
+        <v>326.14000000000124</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
@@ -9938,7 +9948,7 @@
       </c>
       <c r="P196" s="25">
         <f>O196-Ahorros!$E$4</f>
-        <v>769.54000000000087</v>
+        <v>269.54000000000087</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
@@ -9983,7 +9993,7 @@
       </c>
       <c r="P197" s="25">
         <f>O197-Ahorros!$E$4</f>
-        <v>756.04000000000087</v>
+        <v>256.04000000000087</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
@@ -10028,7 +10038,7 @@
       </c>
       <c r="P198" s="25">
         <f>O198-Ahorros!$E$4</f>
-        <v>730.54000000000087</v>
+        <v>230.54000000000087</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
@@ -10073,7 +10083,7 @@
       </c>
       <c r="P199" s="25">
         <f>O199-Ahorros!$E$4</f>
-        <v>708.29000000000087</v>
+        <v>208.29000000000087</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
@@ -10118,7 +10128,7 @@
       </c>
       <c r="P200" s="25">
         <f>O200-Ahorros!$E$4</f>
-        <v>697.69000000000051</v>
+        <v>197.69000000000051</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
@@ -10163,7 +10173,7 @@
       </c>
       <c r="P201" s="25">
         <f>O201-Ahorros!$E$4</f>
-        <v>660.44000000000051</v>
+        <v>160.44000000000051</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
@@ -10208,7 +10218,7 @@
       </c>
       <c r="P202" s="25">
         <f>O202-Ahorros!$E$4</f>
-        <v>650.94000000000051</v>
+        <v>150.94000000000051</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
@@ -10253,7 +10263,7 @@
       </c>
       <c r="P203" s="25">
         <f>O203-Ahorros!$E$4</f>
-        <v>641.44000000000051</v>
+        <v>141.44000000000051</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
@@ -10298,7 +10308,7 @@
       </c>
       <c r="P204" s="25">
         <f>O204-Ahorros!$E$4</f>
-        <v>629.94000000000051</v>
+        <v>129.94000000000051</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -10343,7 +10353,7 @@
       </c>
       <c r="P205" s="25">
         <f>O205-Ahorros!$E$4</f>
-        <v>404.94000000000051</v>
+        <v>-95.059999999999491</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
@@ -10388,7 +10398,7 @@
       </c>
       <c r="P206" s="25">
         <f>O206-Ahorros!$E$4</f>
-        <v>389.94000000000051</v>
+        <v>-110.05999999999949</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
@@ -10433,7 +10443,7 @@
       </c>
       <c r="P207" s="25">
         <f>O207-Ahorros!$E$4</f>
-        <v>351.94000000000051</v>
+        <v>-148.05999999999949</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -10478,7 +10488,7 @@
       </c>
       <c r="P208" s="25">
         <f>O208-Ahorros!$E$4</f>
-        <v>341.94000000000051</v>
+        <v>-158.05999999999949</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
@@ -10523,7 +10533,7 @@
       </c>
       <c r="P209" s="25">
         <f>O209-Ahorros!$E$4</f>
-        <v>322.44000000000051</v>
+        <v>-177.55999999999949</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
@@ -10568,7 +10578,7 @@
       </c>
       <c r="P210" s="25">
         <f>O210-Ahorros!$E$4</f>
-        <v>257.44000000000051</v>
+        <v>-242.55999999999949</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
@@ -10613,7 +10623,7 @@
       </c>
       <c r="P211" s="25">
         <f>O211-Ahorros!$E$4</f>
-        <v>76.440000000000509</v>
+        <v>-423.55999999999949</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
@@ -10658,7 +10668,7 @@
       </c>
       <c r="P212" s="25">
         <f>O212-Ahorros!$E$4</f>
-        <v>57.440000000000509</v>
+        <v>-442.55999999999949</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
@@ -10703,7 +10713,7 @@
       </c>
       <c r="P213" s="25">
         <f>O213-Ahorros!$E$4</f>
-        <v>66.440000000000509</v>
+        <v>-433.55999999999949</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
@@ -10748,7 +10758,7 @@
       </c>
       <c r="P214" s="25">
         <f>O214-Ahorros!$E$4</f>
-        <v>56.440000000000509</v>
+        <v>-443.55999999999949</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
@@ -10793,7 +10803,7 @@
       </c>
       <c r="P215" s="25">
         <f>O215-Ahorros!$E$4</f>
-        <v>-128.55999999999949</v>
+        <v>-628.55999999999949</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
@@ -10838,7 +10848,7 @@
       </c>
       <c r="P216" s="25">
         <f>O216-Ahorros!$E$4</f>
-        <v>-178.55999999999949</v>
+        <v>-678.55999999999949</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
@@ -10883,7 +10893,7 @@
       </c>
       <c r="P217" s="25">
         <f>O217-Ahorros!$E$4</f>
-        <v>-197.55999999999949</v>
+        <v>-697.55999999999949</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
@@ -10928,7 +10938,7 @@
       </c>
       <c r="P218" s="25">
         <f>O218-Ahorros!$E$4</f>
-        <v>-626.55999999999949</v>
+        <v>-1126.5599999999995</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
@@ -10973,7 +10983,7 @@
       </c>
       <c r="P219" s="25">
         <f>O219-Ahorros!$E$4</f>
-        <v>-639.45999999999913</v>
+        <v>-1139.4599999999991</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
@@ -11018,7 +11028,7 @@
       </c>
       <c r="P220" s="25">
         <f>O220-Ahorros!$E$4</f>
-        <v>-359.45999999999913</v>
+        <v>-859.45999999999913</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
@@ -11063,7 +11073,7 @@
       </c>
       <c r="P221" s="25">
         <f>O221-Ahorros!$E$4</f>
-        <v>-374.40999999999985</v>
+        <v>-874.40999999999985</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
@@ -11108,7 +11118,7 @@
       </c>
       <c r="P222" s="25">
         <f>O222-Ahorros!$E$4</f>
-        <v>-396.98999999999796</v>
+        <v>-896.98999999999796</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
@@ -11153,7 +11163,7 @@
       </c>
       <c r="P223" s="25">
         <f>O223-Ahorros!$E$4</f>
-        <v>-408.13999999999942</v>
+        <v>-908.13999999999942</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
@@ -11198,7 +11208,7 @@
       </c>
       <c r="P224" s="25">
         <f>O224-Ahorros!$E$4</f>
-        <v>-421.03999999999724</v>
+        <v>-921.03999999999724</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
@@ -11243,7 +11253,7 @@
       </c>
       <c r="P225" s="25">
         <f>O225-Ahorros!$E$4</f>
-        <v>-442.03999999999724</v>
+        <v>-942.03999999999724</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
@@ -11288,7 +11298,7 @@
       </c>
       <c r="P226" s="25">
         <f>O226-Ahorros!$E$4</f>
-        <v>-460.13999999999942</v>
+        <v>-960.13999999999942</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
@@ -11333,7 +11343,7 @@
       </c>
       <c r="P227" s="25">
         <f>O227-Ahorros!$E$4</f>
-        <v>-504.13999999999942</v>
+        <v>-1004.1399999999994</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
@@ -11378,7 +11388,7 @@
       </c>
       <c r="P228" s="25">
         <f>O228-Ahorros!$E$4</f>
-        <v>-536.70999999999913</v>
+        <v>-1036.7099999999991</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
@@ -11423,7 +11433,7 @@
       </c>
       <c r="P229" s="25">
         <f>O229-Ahorros!$E$4</f>
-        <v>-572.95999999999913</v>
+        <v>-1072.9599999999991</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
@@ -11468,7 +11478,7 @@
       </c>
       <c r="P230" s="25">
         <f>O230-Ahorros!$E$4</f>
-        <v>-600.55999999999767</v>
+        <v>-1100.5599999999977</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
@@ -11513,7 +11523,7 @@
       </c>
       <c r="P231" s="25">
         <f>O231-Ahorros!$E$4</f>
-        <v>-616.13999999999942</v>
+        <v>-1116.1399999999994</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
@@ -11558,7 +11568,7 @@
       </c>
       <c r="P232" s="25">
         <f>O232-Ahorros!$E$4</f>
-        <v>-638.13999999999942</v>
+        <v>-1138.1399999999994</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
@@ -11603,7 +11613,7 @@
       </c>
       <c r="P233" s="25">
         <f>O233-Ahorros!$E$4</f>
-        <v>-647.18999999999869</v>
+        <v>-1147.1899999999987</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
@@ -11648,7 +11658,7 @@
       </c>
       <c r="P234" s="25">
         <f>O234-Ahorros!$E$4</f>
-        <v>-651.48999999999796</v>
+        <v>-1151.489999999998</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
@@ -11693,7 +11703,7 @@
       </c>
       <c r="P235" s="25">
         <f>O235-Ahorros!$E$4</f>
-        <v>-662.48999999999796</v>
+        <v>-1162.489999999998</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
@@ -11738,7 +11748,7 @@
       </c>
       <c r="P236" s="25">
         <f>O236-Ahorros!$E$4</f>
-        <v>-677.98999999999796</v>
+        <v>-1177.989999999998</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
@@ -11783,7 +11793,7 @@
       </c>
       <c r="P237" s="25">
         <f>O237-Ahorros!$E$4</f>
-        <v>-762.98999999999796</v>
+        <v>-1262.989999999998</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
@@ -11828,7 +11838,7 @@
       </c>
       <c r="P238" s="25">
         <f>O238-Ahorros!$E$4</f>
-        <v>-1064.989999999998</v>
+        <v>-1564.989999999998</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
@@ -11873,7 +11883,7 @@
       </c>
       <c r="P239" s="25">
         <f>O239-Ahorros!$E$4</f>
-        <v>-1089.989999999998</v>
+        <v>-1589.989999999998</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
@@ -11918,7 +11928,7 @@
       </c>
       <c r="P240" s="25">
         <f>O240-Ahorros!$E$4</f>
-        <v>-4789.9899999999989</v>
+        <v>-5289.9899999999989</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
@@ -11963,7 +11973,7 @@
       </c>
       <c r="P241" s="25">
         <f>O241-Ahorros!$E$4</f>
-        <v>-4838.99</v>
+        <v>-5338.99</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
@@ -12008,7 +12018,7 @@
       </c>
       <c r="P242" s="25">
         <f>O242-Ahorros!$E$4</f>
-        <v>-4906.99</v>
+        <v>-5406.99</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
@@ -12053,7 +12063,7 @@
       </c>
       <c r="P243" s="25">
         <f>O243-Ahorros!$E$4</f>
-        <v>-4916.99</v>
+        <v>-5416.99</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.25">
@@ -12099,7 +12109,7 @@
       </c>
       <c r="P244" s="25">
         <f>O244-Ahorros!$E$4</f>
-        <v>-4916.99</v>
+        <v>-5416.99</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
@@ -12145,7 +12155,7 @@
       </c>
       <c r="P245" s="25">
         <f>O245-Ahorros!$E$4</f>
-        <v>-4916.99</v>
+        <v>-5416.99</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
@@ -12190,7 +12200,7 @@
       </c>
       <c r="P246" s="25">
         <f>O246-Ahorros!$E$4</f>
-        <v>-5166.99</v>
+        <v>-5666.99</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
@@ -12235,7 +12245,7 @@
       </c>
       <c r="P247" s="25">
         <f>O247-Ahorros!$E$4</f>
-        <v>-5176.99</v>
+        <v>-5676.99</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
@@ -12280,7 +12290,187 @@
       </c>
       <c r="P248" s="25">
         <f>O248-Ahorros!$E$4</f>
-        <v>-5185.99</v>
+        <v>-5685.99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B249" s="51">
+        <v>6640</v>
+      </c>
+      <c r="C249" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D249" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E249" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F249" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G249" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K249">
+        <v>4252.18</v>
+      </c>
+      <c r="L249">
+        <f>L248+B249</f>
+        <v>6641.83</v>
+      </c>
+      <c r="M249">
+        <v>60</v>
+      </c>
+      <c r="N249" s="51">
+        <f t="shared" ref="N249" si="209">SUM(K249:M249)</f>
+        <v>10954.01</v>
+      </c>
+      <c r="O249" s="51">
+        <f t="shared" ref="O249" si="210">N249-4000</f>
+        <v>6954.01</v>
+      </c>
+      <c r="P249" s="25">
+        <f>O249-Ahorros!$E$4</f>
+        <v>954.01000000000022</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B250">
+        <v>220</v>
+      </c>
+      <c r="C250" t="s">
+        <v>284</v>
+      </c>
+      <c r="D250" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250" t="s">
+        <v>22</v>
+      </c>
+      <c r="F250" t="s">
+        <v>18</v>
+      </c>
+      <c r="G250" t="s">
+        <v>285</v>
+      </c>
+      <c r="K250">
+        <v>4252.18</v>
+      </c>
+      <c r="L250">
+        <f>L249-B250</f>
+        <v>6421.83</v>
+      </c>
+      <c r="M250">
+        <v>60</v>
+      </c>
+      <c r="N250" s="51">
+        <f t="shared" ref="N250" si="211">SUM(K250:M250)</f>
+        <v>10734.01</v>
+      </c>
+      <c r="O250" s="51">
+        <f t="shared" ref="O250" si="212">N250-4000</f>
+        <v>6734.01</v>
+      </c>
+      <c r="P250" s="25">
+        <f>O250-Ahorros!$E$4</f>
+        <v>734.01000000000022</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B251">
+        <v>24</v>
+      </c>
+      <c r="C251" t="s">
+        <v>286</v>
+      </c>
+      <c r="D251" t="s">
+        <v>31</v>
+      </c>
+      <c r="E251" t="s">
+        <v>22</v>
+      </c>
+      <c r="F251" t="s">
+        <v>7</v>
+      </c>
+      <c r="G251" t="s">
+        <v>81</v>
+      </c>
+      <c r="K251">
+        <v>4252.18</v>
+      </c>
+      <c r="L251">
+        <v>6421.83</v>
+      </c>
+      <c r="M251">
+        <f>M250-B251</f>
+        <v>36</v>
+      </c>
+      <c r="N251" s="51">
+        <f t="shared" ref="N251" si="213">SUM(K251:M251)</f>
+        <v>10710.01</v>
+      </c>
+      <c r="O251" s="51">
+        <f t="shared" ref="O251" si="214">N251-4000</f>
+        <v>6710.01</v>
+      </c>
+      <c r="P251" s="25">
+        <f>O251-Ahorros!$E$4</f>
+        <v>710.01000000000022</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B252">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>177</v>
+      </c>
+      <c r="D252" t="s">
+        <v>43</v>
+      </c>
+      <c r="E252" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" t="s">
+        <v>7</v>
+      </c>
+      <c r="G252" t="s">
+        <v>44</v>
+      </c>
+      <c r="K252">
+        <v>4252.18</v>
+      </c>
+      <c r="L252">
+        <v>6421.83</v>
+      </c>
+      <c r="M252">
+        <f>M251-B252</f>
+        <v>26</v>
+      </c>
+      <c r="N252" s="51">
+        <f t="shared" ref="N252" si="215">SUM(K252:M252)</f>
+        <v>10700.01</v>
+      </c>
+      <c r="O252" s="51">
+        <f t="shared" ref="O252" si="216">N252-4000</f>
+        <v>6700.01</v>
+      </c>
+      <c r="P252" s="25">
+        <f>O252-Ahorros!$E$4</f>
+        <v>700.01000000000022</v>
       </c>
     </row>
   </sheetData>
@@ -12597,7 +12787,7 @@
   <dimension ref="A2:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12607,15 +12797,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12630,7 +12820,7 @@
       </c>
       <c r="E4" s="12">
         <f>SUM(B:B)</f>
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>129</v>
@@ -12745,6 +12935,14 @@
         <v>43600</v>
       </c>
       <c r="B15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B16">
         <v>500</v>
       </c>
     </row>
